--- a/scripts/results_notes.xlsx
+++ b/scripts/results_notes.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="25240" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25245" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="57">
   <si>
     <t>Inputs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use prev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,19 +188,61 @@
   <si>
     <t>3/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+  </si>
+  <si>
+    <t>sim2</t>
+  </si>
+  <si>
+    <t>sim3</t>
+  </si>
+  <si>
+    <t>sim4</t>
+  </si>
+  <si>
+    <t>sim5</t>
+  </si>
+  <si>
+    <t>sim6</t>
+  </si>
+  <si>
+    <t>sim7</t>
+  </si>
+  <si>
+    <t>sim8</t>
+  </si>
+  <si>
+    <t>sim9</t>
+  </si>
+  <si>
+    <t>sim10</t>
+  </si>
+  <si>
+    <t>sim11</t>
+  </si>
+  <si>
+    <t>sim12</t>
+  </si>
+  <si>
+    <t>sim13</t>
+  </si>
+  <si>
+    <t>sim14</t>
+  </si>
+  <si>
+    <t>sim15</t>
+  </si>
+  <si>
+    <t>Previous data not valid, made changes to script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -208,8 +251,13 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,12 +301,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -575,25 +639,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:U114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -675,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>30842</v>
       </c>
@@ -713,7 +777,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42391</v>
       </c>
@@ -769,7 +833,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="7" customFormat="1">
+    <row r="7" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>42391</v>
       </c>
@@ -831,7 +895,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42391</v>
       </c>
@@ -887,7 +951,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42391</v>
       </c>
@@ -949,7 +1013,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42391</v>
       </c>
@@ -1011,7 +1075,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42391</v>
       </c>
@@ -1073,7 +1137,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42391</v>
       </c>
@@ -1135,7 +1199,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42391</v>
       </c>
@@ -1197,7 +1261,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42391</v>
       </c>
@@ -1259,7 +1323,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42391</v>
       </c>
@@ -1321,7 +1385,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42391</v>
       </c>
@@ -1383,7 +1447,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="7" customFormat="1">
+    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42391</v>
       </c>
@@ -1445,7 +1509,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42391</v>
       </c>
@@ -1507,7 +1571,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42391</v>
       </c>
@@ -1569,7 +1633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42391</v>
       </c>
@@ -1631,7 +1695,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42391</v>
       </c>
@@ -1693,7 +1757,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42391</v>
       </c>
@@ -1755,7 +1819,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="7" customFormat="1">
+    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>42391</v>
       </c>
@@ -1817,7 +1881,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42391</v>
       </c>
@@ -1879,7 +1943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42391</v>
       </c>
@@ -1941,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42391</v>
       </c>
@@ -2003,7 +2067,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42391</v>
       </c>
@@ -2065,7 +2129,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42391</v>
       </c>
@@ -2127,7 +2191,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42391</v>
       </c>
@@ -2189,7 +2253,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="7" customFormat="1">
+    <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42391</v>
       </c>
@@ -2251,7 +2315,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42391</v>
       </c>
@@ -2313,7 +2377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42391</v>
       </c>
@@ -2375,7 +2439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42391</v>
       </c>
@@ -2437,7 +2501,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -2445,7 +2509,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42391</v>
       </c>
@@ -2507,7 +2571,7 @@
         <v>58.66</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42391</v>
       </c>
@@ -2569,7 +2633,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42391</v>
       </c>
@@ -2631,7 +2695,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42391</v>
       </c>
@@ -2693,7 +2757,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42391</v>
       </c>
@@ -2755,7 +2819,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42391</v>
       </c>
@@ -2817,7 +2881,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42391</v>
       </c>
@@ -2879,7 +2943,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42391</v>
       </c>
@@ -2941,7 +3005,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42391</v>
       </c>
@@ -3003,7 +3067,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42391</v>
       </c>
@@ -3065,7 +3129,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42391</v>
       </c>
@@ -3127,7 +3191,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42391</v>
       </c>
@@ -3189,7 +3253,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42391</v>
       </c>
@@ -3251,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -3259,7 +3323,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -3267,45 +3331,21 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:21">
-      <c r="B55" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C55" s="1">
-        <v>31409</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55">
-        <v>6.02</v>
-      </c>
-      <c r="N55">
-        <v>48.2</v>
-      </c>
-      <c r="O55">
-        <v>0.12</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>-0.45</v>
-      </c>
-      <c r="U55">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -3313,103 +3353,61 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:21">
-      <c r="B57" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C57" s="1">
-        <v>31409</v>
-      </c>
-      <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9">
-        <v>20</v>
-      </c>
-      <c r="F57" s="9">
-        <v>10</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>20284</v>
       </c>
       <c r="C58" s="1">
         <v>31409</v>
       </c>
-      <c r="D58" s="8">
-        <v>2</v>
-      </c>
-      <c r="E58" s="9">
-        <v>20</v>
-      </c>
-      <c r="F58" s="9">
-        <v>10</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="B59" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C59" s="1">
-        <v>31409</v>
-      </c>
-      <c r="D59" s="8">
-        <v>3</v>
-      </c>
-      <c r="E59" s="9">
-        <v>20</v>
-      </c>
-      <c r="F59" s="9">
-        <v>10</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58">
+        <v>6.02</v>
+      </c>
+      <c r="N58">
+        <v>48.2</v>
+      </c>
+      <c r="O58">
+        <v>0.12</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>-0.45</v>
+      </c>
+      <c r="U58">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>20284</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>31409</v>
       </c>
       <c r="D60" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" s="9">
         <v>20</v>
@@ -3440,8 +3438,11 @@
       <c r="K60" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="L60" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>20284</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>31409</v>
       </c>
       <c r="D61" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="9">
         <v>20</v>
@@ -3472,8 +3473,11 @@
       <c r="K61" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="L61" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>20284</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>31409</v>
       </c>
       <c r="D62" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E62" s="9">
         <v>20</v>
@@ -3504,16 +3508,46 @@
       <c r="K62" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="L62" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C63" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D63" s="8">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9">
+        <v>20</v>
+      </c>
+      <c r="F63" s="9">
+        <v>10</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>20284</v>
       </c>
@@ -3521,10 +3555,10 @@
         <v>31409</v>
       </c>
       <c r="D64" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F64" s="9">
         <v>10</v>
@@ -3544,11 +3578,11 @@
       <c r="K64" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
+      <c r="L64" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>20284</v>
       </c>
@@ -3556,7 +3590,7 @@
         <v>31409</v>
       </c>
       <c r="D65" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E65" s="9">
         <v>20</v>
@@ -3579,51 +3613,54 @@
       <c r="K65" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="B66" s="1">
+      <c r="L65" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
         <v>20284</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>31409</v>
       </c>
-      <c r="D66" s="8">
-        <v>3</v>
-      </c>
-      <c r="E66" s="9">
-        <v>10</v>
-      </c>
-      <c r="F66" s="9">
-        <v>10</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" t="s">
-        <v>38</v>
-      </c>
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9">
+        <v>30</v>
+      </c>
+      <c r="F67" s="9">
+        <v>10</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>20284</v>
       </c>
@@ -3654,8 +3691,11 @@
       <c r="K68" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="L68" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>20284</v>
       </c>
@@ -3666,13 +3706,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F69" s="9">
         <v>10</v>
       </c>
       <c r="G69" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H69" s="9">
         <v>0.4</v>
@@ -3686,83 +3726,89 @@
       <c r="K69" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="B70" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C70" s="1">
-        <v>31409</v>
-      </c>
-      <c r="D70" s="8">
-        <v>3</v>
-      </c>
-      <c r="E70" s="9">
-        <v>20</v>
-      </c>
-      <c r="F70" s="9">
-        <v>10</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="H70" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="L69" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>20284</v>
       </c>
       <c r="C71" s="1">
         <v>31409</v>
       </c>
-      <c r="D71" s="2">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>20</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <v>0.2</v>
-      </c>
-      <c r="H71">
-        <v>0.4</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
+      <c r="D71" s="8">
+        <v>3</v>
+      </c>
+      <c r="E71" s="9">
+        <v>20</v>
+      </c>
+      <c r="F71" s="9">
+        <v>10</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C72" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D72" s="8">
+        <v>3</v>
+      </c>
+      <c r="E72" s="9">
+        <v>20</v>
+      </c>
+      <c r="F72" s="9">
+        <v>10</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>20284</v>
       </c>
@@ -3779,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H73" s="9">
         <v>0.4</v>
@@ -3788,77 +3834,59 @@
         <v>20</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="L73" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>20284</v>
       </c>
       <c r="C74" s="1">
         <v>31409</v>
       </c>
-      <c r="D74" s="8">
-        <v>3</v>
-      </c>
-      <c r="E74" s="9">
-        <v>20</v>
-      </c>
-      <c r="F74" s="9">
-        <v>20</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="B75" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C75" s="1">
-        <v>31409</v>
-      </c>
-      <c r="D75" s="8">
-        <v>3</v>
-      </c>
-      <c r="E75" s="9">
-        <v>20</v>
-      </c>
-      <c r="F75" s="9">
-        <v>30</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>0.2</v>
+      </c>
+      <c r="H74">
+        <v>0.4</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>20284</v>
       </c>
@@ -3872,7 +3900,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G76" s="9">
         <v>0.2</v>
@@ -3889,8 +3917,11 @@
       <c r="K76" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="L76" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>20284</v>
       </c>
@@ -3904,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="F77" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G77" s="9">
         <v>0.2</v>
@@ -3921,174 +3952,186 @@
       <c r="K77" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-    </row>
-    <row r="79" spans="1:21">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="L77" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C78" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D78" s="8">
+        <v>3</v>
+      </c>
+      <c r="E78" s="9">
+        <v>20</v>
+      </c>
+      <c r="F78" s="9">
+        <v>30</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C79" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D79" s="8">
+        <v>3</v>
+      </c>
+      <c r="E79" s="9">
+        <v>20</v>
+      </c>
+      <c r="F79" s="9">
+        <v>40</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>20284</v>
       </c>
       <c r="C80" s="1">
-        <v>42073</v>
-      </c>
-      <c r="E80" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80">
-        <v>6.66</v>
-      </c>
-      <c r="N80">
-        <v>56.7</v>
-      </c>
-      <c r="O80">
-        <v>0.12</v>
-      </c>
-      <c r="P80">
-        <v>0.01</v>
-      </c>
-      <c r="Q80">
-        <v>0.01</v>
-      </c>
-      <c r="R80">
-        <v>0.13</v>
-      </c>
-      <c r="S80">
-        <v>0.13</v>
-      </c>
-      <c r="T80">
-        <v>-0.42</v>
-      </c>
-      <c r="U80">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>31409</v>
+      </c>
+      <c r="D80" s="8">
+        <v>3</v>
+      </c>
+      <c r="E80" s="9">
+        <v>20</v>
+      </c>
+      <c r="F80" s="9">
+        <v>50</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="B82" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C82" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D82" s="8">
-        <v>1</v>
-      </c>
-      <c r="E82" s="9">
-        <v>20</v>
-      </c>
-      <c r="F82" s="9">
-        <v>10</v>
-      </c>
-      <c r="G82" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H82" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>20284</v>
       </c>
       <c r="C83" s="1">
         <v>42073</v>
       </c>
-      <c r="D83" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" s="9">
-        <v>20</v>
-      </c>
-      <c r="F83" s="9">
-        <v>10</v>
-      </c>
-      <c r="G83" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H83" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="B84" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C84" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D84" s="8">
-        <v>3</v>
-      </c>
-      <c r="E84" s="9">
-        <v>20</v>
-      </c>
-      <c r="F84" s="9">
-        <v>10</v>
-      </c>
-      <c r="G84" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H84" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83">
+        <v>6.66</v>
+      </c>
+      <c r="N83">
+        <v>56.7</v>
+      </c>
+      <c r="O83">
+        <v>0.12</v>
+      </c>
+      <c r="P83">
+        <v>0.01</v>
+      </c>
+      <c r="Q83">
+        <v>0.01</v>
+      </c>
+      <c r="R83">
+        <v>0.13</v>
+      </c>
+      <c r="S83">
+        <v>0.13</v>
+      </c>
+      <c r="T83">
+        <v>-0.42</v>
+      </c>
+      <c r="U83">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>20284</v>
       </c>
@@ -4096,7 +4139,7 @@
         <v>42073</v>
       </c>
       <c r="D85" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" s="9">
         <v>20</v>
@@ -4119,8 +4162,11 @@
       <c r="K85" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>20284</v>
       </c>
@@ -4128,7 +4174,7 @@
         <v>42073</v>
       </c>
       <c r="D86" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E86" s="9">
         <v>20</v>
@@ -4151,8 +4197,11 @@
       <c r="K86" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>20284</v>
       </c>
@@ -4160,7 +4209,7 @@
         <v>42073</v>
       </c>
       <c r="D87" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E87" s="9">
         <v>20</v>
@@ -4183,16 +4232,46 @@
       <c r="K87" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L87" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C88" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D88" s="8">
+        <v>4</v>
+      </c>
+      <c r="E88" s="9">
+        <v>20</v>
+      </c>
+      <c r="F88" s="9">
+        <v>10</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>20284</v>
       </c>
@@ -4200,10 +4279,10 @@
         <v>42073</v>
       </c>
       <c r="D89" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F89" s="9">
         <v>10</v>
@@ -4223,8 +4302,11 @@
       <c r="K89" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>20284</v>
       </c>
@@ -4232,7 +4314,7 @@
         <v>42073</v>
       </c>
       <c r="D90" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E90" s="9">
         <v>20</v>
@@ -4255,51 +4337,54 @@
       <c r="K90" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="B91" s="1">
+      <c r="L90" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
         <v>20284</v>
       </c>
-      <c r="C91" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D91" s="8">
-        <v>3</v>
-      </c>
-      <c r="E91" s="9">
-        <v>10</v>
-      </c>
-      <c r="F91" s="9">
-        <v>10</v>
-      </c>
-      <c r="G91" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H91" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>38</v>
-      </c>
+      <c r="C92" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="9">
+        <v>30</v>
+      </c>
+      <c r="F92" s="9">
+        <v>10</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>20284</v>
       </c>
@@ -4330,8 +4415,11 @@
       <c r="K93" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>20284</v>
       </c>
@@ -4342,13 +4430,13 @@
         <v>3</v>
       </c>
       <c r="E94" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F94" s="9">
         <v>10</v>
       </c>
       <c r="G94" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H94" s="9">
         <v>0.4</v>
@@ -4362,83 +4450,89 @@
       <c r="K94" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="B95" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C95" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D95" s="8">
-        <v>3</v>
-      </c>
-      <c r="E95" s="9">
-        <v>20</v>
-      </c>
-      <c r="F95" s="9">
-        <v>10</v>
-      </c>
-      <c r="G95" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L94" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>20284</v>
       </c>
       <c r="C96" s="1">
         <v>42073</v>
       </c>
-      <c r="D96" s="2">
-        <v>3</v>
-      </c>
-      <c r="E96">
-        <v>20</v>
-      </c>
-      <c r="F96">
-        <v>10</v>
-      </c>
-      <c r="G96">
-        <v>0.2</v>
-      </c>
-      <c r="H96">
-        <v>0.4</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:21">
-      <c r="A98" t="s">
-        <v>38</v>
-      </c>
+      <c r="D96" s="8">
+        <v>3</v>
+      </c>
+      <c r="E96" s="9">
+        <v>20</v>
+      </c>
+      <c r="F96" s="9">
+        <v>10</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B97" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C97" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D97" s="8">
+        <v>3</v>
+      </c>
+      <c r="E97" s="9">
+        <v>20</v>
+      </c>
+      <c r="F97" s="9">
+        <v>10</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>20284</v>
       </c>
@@ -4455,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H98" s="9">
         <v>0.4</v>
@@ -4464,77 +4558,59 @@
         <v>20</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="L98" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>20284</v>
       </c>
       <c r="C99" s="1">
         <v>42073</v>
       </c>
-      <c r="D99" s="8">
-        <v>3</v>
-      </c>
-      <c r="E99" s="9">
-        <v>20</v>
-      </c>
-      <c r="F99" s="9">
-        <v>20</v>
-      </c>
-      <c r="G99" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J99" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
-      <c r="B100" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C100" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D100" s="8">
-        <v>3</v>
-      </c>
-      <c r="E100" s="9">
-        <v>20</v>
-      </c>
-      <c r="F100" s="9">
-        <v>30</v>
-      </c>
-      <c r="G100" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>0.2</v>
+      </c>
+      <c r="H99">
+        <v>0.4</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>20284</v>
       </c>
@@ -4548,242 +4624,388 @@
         <v>20</v>
       </c>
       <c r="F101" s="9">
+        <v>10</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B102" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D102" s="8">
+        <v>3</v>
+      </c>
+      <c r="E102" s="9">
+        <v>20</v>
+      </c>
+      <c r="F102" s="9">
+        <v>20</v>
+      </c>
+      <c r="G102" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B103" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D103" s="8">
+        <v>3</v>
+      </c>
+      <c r="E103" s="9">
+        <v>20</v>
+      </c>
+      <c r="F103" s="9">
+        <v>30</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C104" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D104" s="8">
+        <v>3</v>
+      </c>
+      <c r="E104" s="9">
+        <v>20</v>
+      </c>
+      <c r="F104" s="9">
         <v>40</v>
       </c>
-      <c r="G101" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-    </row>
-    <row r="103" spans="1:21">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-    </row>
-    <row r="104" spans="1:21">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-    </row>
-    <row r="105" spans="1:21">
-      <c r="A105" t="s">
+      <c r="G104" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B105" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D105" s="8">
+        <v>3</v>
+      </c>
+      <c r="E105" s="9">
+        <v>20</v>
+      </c>
+      <c r="F105" s="9">
+        <v>50</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
-      <c r="A107" t="s">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
-      <c r="B108" s="1">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
         <v>20284</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C111" s="1">
         <v>31409</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E111" t="s">
         <v>29</v>
       </c>
-      <c r="M108">
+      <c r="M111">
         <v>6.02</v>
       </c>
-      <c r="N108">
+      <c r="N111">
         <v>48.2</v>
       </c>
-      <c r="O108">
+      <c r="O111">
         <v>0.12</v>
       </c>
-      <c r="P108">
+      <c r="P111">
         <v>0</v>
       </c>
-      <c r="Q108">
+      <c r="Q111">
         <v>0</v>
       </c>
-      <c r="R108">
+      <c r="R111">
         <v>0</v>
       </c>
-      <c r="S108">
+      <c r="S111">
         <v>0</v>
       </c>
-      <c r="T108">
+      <c r="T111">
         <v>-0.45</v>
       </c>
-      <c r="U108">
+      <c r="U111">
         <v>2.85</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
-      <c r="A109" t="s">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
-      <c r="B110" s="1">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
         <v>24475</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C113" s="1">
         <v>38716</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E113" t="s">
         <v>29</v>
       </c>
-      <c r="M110">
+      <c r="M113">
         <v>6.63</v>
       </c>
-      <c r="N110">
+      <c r="N113">
         <v>56.7</v>
       </c>
-      <c r="O110">
+      <c r="O113">
         <v>0.12</v>
       </c>
-      <c r="P110">
+      <c r="P113">
         <v>0</v>
       </c>
-      <c r="Q110">
+      <c r="Q113">
         <v>0</v>
       </c>
-      <c r="R110">
+      <c r="R113">
         <v>0.05</v>
       </c>
-      <c r="S110">
+      <c r="S113">
         <v>0.05</v>
       </c>
-      <c r="T110">
+      <c r="T113">
         <v>-0.45</v>
       </c>
-      <c r="U110">
+      <c r="U113">
         <v>2.46</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
-      <c r="A111" t="s">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
-      <c r="B112" s="1">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B115" s="1">
         <v>30842</v>
       </c>
-      <c r="C112" s="1">
-        <v>42073</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="C115" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E115" t="s">
         <v>29</v>
       </c>
-      <c r="M112">
+      <c r="M115">
         <v>7.87</v>
       </c>
-      <c r="N112">
+      <c r="N115">
         <v>56.7</v>
       </c>
-      <c r="O112">
+      <c r="O115">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P112">
+      <c r="P115">
         <v>0.05</v>
       </c>
-      <c r="Q112">
+      <c r="Q115">
         <v>0.05</v>
       </c>
-      <c r="R112">
+      <c r="R115">
         <v>0.32</v>
       </c>
-      <c r="S112">
+      <c r="S115">
         <v>0.33</v>
       </c>
-      <c r="T112">
+      <c r="T115">
         <v>-0.38</v>
       </c>
-      <c r="U112">
+      <c r="U115">
         <v>1.53</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
-      <c r="A113" t="s">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
-      <c r="B114" s="1">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
         <v>20284</v>
       </c>
-      <c r="C114" s="1">
-        <v>42073</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C117" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E117" t="s">
         <v>29</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G117" t="s">
         <v>31</v>
       </c>
-      <c r="M114">
+      <c r="M117">
         <v>6.66</v>
       </c>
-      <c r="N114">
+      <c r="N117">
         <v>56.7</v>
       </c>
-      <c r="O114">
+      <c r="O117">
         <v>0.12</v>
       </c>
-      <c r="P114">
+      <c r="P117">
         <v>0.01</v>
       </c>
-      <c r="Q114">
+      <c r="Q117">
         <v>0.01</v>
       </c>
-      <c r="R114">
+      <c r="R117">
         <v>0.13</v>
       </c>
-      <c r="S114">
+      <c r="S117">
         <v>0.13</v>
       </c>
-      <c r="T114">
+      <c r="T117">
         <v>-0.42</v>
       </c>
-      <c r="U114">
+      <c r="U117">
         <v>2.2599999999999998</v>
       </c>
     </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C120" s="1">
+        <v>35063</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/scripts/results_notes.xlsx
+++ b/scripts/results_notes.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25245" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="25540" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="130407"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="63">
   <si>
     <t>Inputs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,13 +231,43 @@
   </si>
   <si>
     <t>Previous data not valid, made changes to script</t>
+  </si>
+  <si>
+    <t>num trades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest loss streak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to look at this one some more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -254,7 +279,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -639,45 +663,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -718,28 +749,40 @@
         <v>12</v>
       </c>
       <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="B4" s="1">
         <v>30842</v>
       </c>
@@ -755,29 +798,29 @@
       <c r="N4">
         <v>56.7</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="P4">
-        <v>0.05</v>
       </c>
       <c r="Q4">
         <v>0.05</v>
       </c>
       <c r="R4">
+        <v>0.05</v>
+      </c>
+      <c r="S4">
         <v>0.32</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.33</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-0.38</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>42391</v>
       </c>
@@ -817,23 +860,23 @@
       <c r="N6">
         <v>49.69</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.16</v>
-      </c>
-      <c r="P6">
-        <v>0.08</v>
       </c>
       <c r="Q6">
         <v>0.08</v>
       </c>
-      <c r="T6">
+      <c r="R6">
+        <v>0.08</v>
+      </c>
+      <c r="U6">
         <v>-0.26</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="7" customFormat="1">
       <c r="A7" s="5">
         <v>42391</v>
       </c>
@@ -873,29 +916,29 @@
       <c r="N7" s="7">
         <v>51.02</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>0.19</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.12</v>
       </c>
       <c r="Q7" s="7">
         <v>0.12</v>
       </c>
       <c r="R7" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="S7" s="7">
         <v>0.46</v>
       </c>
-      <c r="S7" s="7">
+      <c r="T7" s="7">
         <v>0.48</v>
       </c>
-      <c r="T7" s="7">
+      <c r="U7" s="7">
         <v>-0.34</v>
       </c>
-      <c r="U7" s="7">
+      <c r="V7" s="7">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>42391</v>
       </c>
@@ -935,23 +978,23 @@
       <c r="N8">
         <v>52.59</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.17</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
       </c>
       <c r="Q8">
         <v>0.1</v>
       </c>
-      <c r="T8">
+      <c r="R8">
+        <v>0.1</v>
+      </c>
+      <c r="U8">
         <v>-0.39</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>42391</v>
       </c>
@@ -991,29 +1034,29 @@
       <c r="N10">
         <v>51.02</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.19</v>
-      </c>
-      <c r="P10">
-        <v>0.12</v>
       </c>
       <c r="Q10">
         <v>0.12</v>
       </c>
       <c r="R10">
+        <v>0.12</v>
+      </c>
+      <c r="S10">
         <v>0.46</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.48</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-0.34</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>42391</v>
       </c>
@@ -1053,29 +1096,29 @@
       <c r="N11">
         <v>48.71</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.21</v>
-      </c>
-      <c r="P11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="Q11">
         <v>0.14000000000000001</v>
       </c>
       <c r="R11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S11">
         <v>0.53</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.63</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-0.31</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>42391</v>
       </c>
@@ -1115,29 +1158,29 @@
       <c r="N12">
         <v>48.35</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.22</v>
-      </c>
-      <c r="P12">
-        <v>0.15</v>
       </c>
       <c r="Q12">
         <v>0.15</v>
       </c>
       <c r="R12">
+        <v>0.15</v>
+      </c>
+      <c r="S12">
         <v>0.54</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.62</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-0.23</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1.26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>42391</v>
       </c>
@@ -1177,29 +1220,29 @@
       <c r="N14">
         <v>48.71</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.21</v>
-      </c>
-      <c r="P14">
-        <v>0.14000000000000001</v>
       </c>
       <c r="Q14">
         <v>0.14000000000000001</v>
       </c>
       <c r="R14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S14">
         <v>0.53</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.63</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-0.31</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>42391</v>
       </c>
@@ -1239,29 +1282,29 @@
       <c r="N15">
         <v>41.92</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.31</v>
       </c>
-      <c r="P15">
-        <v>0.2</v>
-      </c>
       <c r="Q15">
+        <v>0.2</v>
+      </c>
+      <c r="R15">
         <v>0.22</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.73</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.05</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-0.15</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>42391</v>
       </c>
@@ -1301,29 +1344,29 @@
       <c r="N16">
         <v>35.08</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.43</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.23</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.83</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.57</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.5</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2.37</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>42391</v>
       </c>
@@ -1363,29 +1406,29 @@
       <c r="N17">
         <v>29.8</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.23</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.35</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.83</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.6</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.35</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>5.26</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>42391</v>
       </c>
@@ -1425,29 +1468,29 @@
       <c r="N18">
         <v>27.84</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.69</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.23</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.39</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.8</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.6</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.0099999999999998</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7.9</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="7" customFormat="1">
       <c r="A19" s="1">
         <v>42391</v>
       </c>
@@ -1487,29 +1530,29 @@
       <c r="N19" s="7">
         <v>28.79</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>0.74</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="7">
         <v>0.22</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="R19" s="7">
         <v>0.42</v>
       </c>
-      <c r="R19" s="7">
+      <c r="S19" s="7">
         <v>0.76</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="7">
         <v>1.74</v>
       </c>
-      <c r="T19" s="7">
+      <c r="U19" s="7">
         <v>2.44</v>
       </c>
-      <c r="U19" s="7">
+      <c r="V19" s="7">
         <v>9.76</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>42391</v>
       </c>
@@ -1549,29 +1592,29 @@
       <c r="N20">
         <v>38.479999999999997</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.64</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.21</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.47</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.69</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2.91</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>11.86</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>42391</v>
       </c>
@@ -1611,29 +1654,29 @@
       <c r="N21">
         <v>49.4</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P21">
-        <v>0.2</v>
-      </c>
       <c r="Q21">
+        <v>0.2</v>
+      </c>
+      <c r="R21">
         <v>0.5</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.65</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3.15</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>42391</v>
       </c>
@@ -1673,29 +1716,29 @@
       <c r="N22">
         <v>87.8</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.43</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.18</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2.64</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3.67</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>16.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>42391</v>
       </c>
@@ -1735,29 +1778,29 @@
       <c r="N23">
         <v>99.8</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.36</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.17</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.64</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.5</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2.78</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>4.3600000000000003</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>23.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>42391</v>
       </c>
@@ -1797,29 +1840,29 @@
       <c r="N25">
         <v>54.1</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.12</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.27</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.46</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.21</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5.44</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="7" customFormat="1">
       <c r="A26" s="5">
         <v>42391</v>
       </c>
@@ -1859,29 +1902,29 @@
       <c r="N26" s="7">
         <v>28.79</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P26" s="7">
         <v>0.74</v>
       </c>
-      <c r="P26" s="7">
+      <c r="Q26" s="7">
         <v>0.22</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="R26" s="7">
         <v>0.42</v>
       </c>
-      <c r="R26" s="7">
+      <c r="S26" s="7">
         <v>0.76</v>
       </c>
-      <c r="S26" s="7">
+      <c r="T26" s="7">
         <v>1.74</v>
       </c>
-      <c r="T26" s="7">
+      <c r="U26" s="7">
         <v>2.44</v>
       </c>
-      <c r="U26" s="7">
+      <c r="V26" s="7">
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>42391</v>
       </c>
@@ -1921,29 +1964,29 @@
       <c r="N27">
         <v>32</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.53</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.19</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.39</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.73</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.67</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4.6900000000000004</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>42391</v>
       </c>
@@ -1983,29 +2026,29 @@
       <c r="N29">
         <v>29.9</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.6</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.22</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.39</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.77</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.69</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2.34</v>
       </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>42391</v>
       </c>
@@ -2045,29 +2088,29 @@
       <c r="N30">
         <v>28.8</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.74</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.22</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.42</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.76</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.74</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2.44</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>9.76</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>42391</v>
       </c>
@@ -2107,29 +2150,29 @@
       <c r="N31">
         <v>28.2</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.79</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.17</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.49</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2.0499999999999998</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4.84</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>29.76</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>42391</v>
       </c>
@@ -2169,29 +2212,29 @@
       <c r="N32">
         <v>28.4</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.84</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.17</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.51</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2.4700000000000002</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>4.74</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>28.2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>42391</v>
       </c>
@@ -2231,29 +2274,29 @@
       <c r="N33">
         <v>28.1</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.93</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.17</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2.67</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>5.23</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" s="7" customFormat="1">
       <c r="A34" s="1">
         <v>42391</v>
       </c>
@@ -2293,29 +2336,29 @@
       <c r="N34" s="7">
         <v>28.1</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>1.01</v>
       </c>
-      <c r="P34" s="7">
+      <c r="Q34" s="7">
         <v>0.17</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="R34" s="7">
         <v>0.66</v>
       </c>
-      <c r="R34" s="7">
+      <c r="S34" s="7">
         <v>0.51</v>
       </c>
-      <c r="S34" s="7">
+      <c r="T34" s="7">
         <v>2.95</v>
       </c>
-      <c r="T34" s="7">
+      <c r="U34" s="7">
         <v>5.55</v>
       </c>
-      <c r="U34" s="7">
+      <c r="V34" s="7">
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>42391</v>
       </c>
@@ -2355,29 +2398,29 @@
       <c r="N35">
         <v>46.6</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.75</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.18</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.81</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2.94</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>5.87</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>42391</v>
       </c>
@@ -2417,29 +2460,29 @@
       <c r="N36">
         <v>51.3</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.59</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.17</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.51</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.43</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>3.08</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>5.13</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>42391</v>
       </c>
@@ -2479,29 +2522,29 @@
       <c r="N37">
         <v>51.3</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.63</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.17</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.45</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>4.49</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>5.26</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>35.4</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -2509,7 +2552,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>42391</v>
       </c>
@@ -2549,29 +2592,29 @@
       <c r="N39">
         <v>39.659999999999997</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.6</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.16</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.56999999999999995</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.46</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1.96</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>6.75</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>58.66</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>42391</v>
       </c>
@@ -2611,29 +2654,29 @@
       <c r="N40">
         <v>28.79</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.74</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>0.22</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>0.42</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>0.76</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>1.74</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>2.44</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>9.76</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>42391</v>
       </c>
@@ -2673,29 +2716,29 @@
       <c r="N41">
         <v>28.7</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0.79</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>0.21</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0.47</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>0.76</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2.23</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>3.28</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>16.04</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>42391</v>
       </c>
@@ -2735,29 +2778,29 @@
       <c r="N42">
         <v>28.8</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.74</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>0.21</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>0.42</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>0.79</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>1.67</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>2.68</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>11.87</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>42391</v>
       </c>
@@ -2797,29 +2840,29 @@
       <c r="N43">
         <v>28.8</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.74</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>0.22</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>0.42</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>0.76</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>1.74</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>2.44</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>9.76</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42391</v>
       </c>
@@ -2859,29 +2902,29 @@
       <c r="N44">
         <v>28.8</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>0.74</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>0.22</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>0.42</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>0.76</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>1.74</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>2.44</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>9.76</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>42391</v>
       </c>
@@ -2921,29 +2964,29 @@
       <c r="N46">
         <v>28.79</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0.74</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>0.22</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>0.42</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>0.76</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>1.74</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>2.44</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>9.76</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>42391</v>
       </c>
@@ -2983,29 +3026,29 @@
       <c r="N47">
         <v>28.8</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.73</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>0.22</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>0.42</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>0.75</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>1.75</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>2.44</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>9.75</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>42391</v>
       </c>
@@ -3045,29 +3088,29 @@
       <c r="N48">
         <v>29.9</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.67</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>0.19</v>
       </c>
-      <c r="Q48">
-        <v>0.4</v>
-      </c>
       <c r="R48">
+        <v>0.4</v>
+      </c>
+      <c r="S48">
         <v>0.63</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>1.71</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>42391</v>
       </c>
@@ -3107,29 +3150,29 @@
       <c r="N49">
         <v>50.2</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.44</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>0.17</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>0.52</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>0.44</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>1.91</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>5.5</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>42.1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>42391</v>
       </c>
@@ -3169,29 +3212,29 @@
       <c r="N50">
         <v>32.4</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.47</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>0.16</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>0.27</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>0.63</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>1.6</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>3.62</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>26.9</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>42391</v>
       </c>
@@ -3231,29 +3274,29 @@
       <c r="N51">
         <v>28.6</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>0.17</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>0.31</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>0.6</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>1.82</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>3.4</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>42391</v>
       </c>
@@ -3293,29 +3336,29 @@
       <c r="N52">
         <v>28.8</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.72</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>0.22</v>
       </c>
-      <c r="Q52">
-        <v>0.4</v>
-      </c>
       <c r="R52">
+        <v>0.4</v>
+      </c>
+      <c r="S52">
         <v>0.74</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>1.69</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>2.44</v>
       </c>
-      <c r="U52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -3323,7 +3366,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -3331,7 +3374,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>42404</v>
       </c>
@@ -3342,7 +3385,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
@@ -3353,7 +3396,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -3361,7 +3404,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22">
       <c r="B58" s="1">
         <v>20284</v>
       </c>
@@ -3377,11 +3420,8 @@
       <c r="N58">
         <v>48.2</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>0.12</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -3393,13 +3433,16 @@
         <v>0</v>
       </c>
       <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <v>-0.45</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -3407,7 +3450,10 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22">
+      <c r="A60" s="1">
+        <v>42404</v>
+      </c>
       <c r="B60" s="1">
         <v>20284</v>
       </c>
@@ -3442,7 +3488,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22">
+      <c r="A61" s="1">
+        <v>42404</v>
+      </c>
       <c r="B61" s="1">
         <v>20284</v>
       </c>
@@ -3477,7 +3526,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22">
+      <c r="A62" s="1">
+        <v>42404</v>
+      </c>
       <c r="B62" s="1">
         <v>20284</v>
       </c>
@@ -3512,7 +3564,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22">
+      <c r="A63" s="1">
+        <v>42404</v>
+      </c>
       <c r="B63" s="1">
         <v>20284</v>
       </c>
@@ -3547,7 +3602,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22">
+      <c r="A64" s="1">
+        <v>42404</v>
+      </c>
       <c r="B64" s="1">
         <v>20284</v>
       </c>
@@ -3582,7 +3640,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>42404</v>
+      </c>
       <c r="B65" s="1">
         <v>20284</v>
       </c>
@@ -3617,7 +3678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -3625,7 +3686,10 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>42404</v>
+      </c>
       <c r="B67" s="1">
         <v>20284</v>
       </c>
@@ -3660,7 +3724,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>42404</v>
+      </c>
       <c r="B68" s="1">
         <v>20284</v>
       </c>
@@ -3695,7 +3762,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>42404</v>
+      </c>
       <c r="B69" s="1">
         <v>20284</v>
       </c>
@@ -3730,7 +3800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -3738,7 +3808,10 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>42404</v>
+      </c>
       <c r="B71" s="1">
         <v>20284</v>
       </c>
@@ -3773,7 +3846,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>42404</v>
+      </c>
       <c r="B72" s="1">
         <v>20284</v>
       </c>
@@ -3808,7 +3884,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>42404</v>
+      </c>
       <c r="B73" s="1">
         <v>20284</v>
       </c>
@@ -3843,7 +3922,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>42404</v>
+      </c>
       <c r="B74" s="1">
         <v>20284</v>
       </c>
@@ -3878,7 +3960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -3886,7 +3968,10 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>42404</v>
+      </c>
       <c r="B76" s="1">
         <v>20284</v>
       </c>
@@ -3921,7 +4006,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>42404</v>
+      </c>
       <c r="B77" s="1">
         <v>20284</v>
       </c>
@@ -3956,7 +4044,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>42404</v>
+      </c>
       <c r="B78" s="1">
         <v>20284</v>
       </c>
@@ -3991,7 +4082,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>42404</v>
+      </c>
       <c r="B79" s="1">
         <v>20284</v>
       </c>
@@ -4026,7 +4120,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>42404</v>
+      </c>
       <c r="B80" s="1">
         <v>20284</v>
       </c>
@@ -4061,7 +4158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8"/>
@@ -4073,7 +4170,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="8"/>
@@ -4085,7 +4182,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26">
       <c r="B83" s="1">
         <v>20284</v>
       </c>
@@ -4101,29 +4198,29 @@
       <c r="N83">
         <v>56.7</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>0.12</v>
-      </c>
-      <c r="P83">
-        <v>0.01</v>
       </c>
       <c r="Q83">
         <v>0.01</v>
       </c>
       <c r="R83">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S83">
         <v>0.13</v>
       </c>
       <c r="T83">
+        <v>0.13</v>
+      </c>
+      <c r="U83">
         <v>-0.42</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -4131,7 +4228,10 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26">
+      <c r="A85" s="1">
+        <v>42404</v>
+      </c>
       <c r="B85" s="1">
         <v>20284</v>
       </c>
@@ -4165,8 +4265,44 @@
       <c r="L85" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>10.5</v>
+      </c>
+      <c r="N85">
+        <v>48.14</v>
+      </c>
+      <c r="O85">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P85">
+        <v>0.22</v>
+      </c>
+      <c r="S85">
+        <v>0.41</v>
+      </c>
+      <c r="T85">
+        <v>0.45</v>
+      </c>
+      <c r="U85">
+        <v>0.68</v>
+      </c>
+      <c r="V85">
+        <v>2.7</v>
+      </c>
+      <c r="W85" s="7">
+        <v>56</v>
+      </c>
+      <c r="X85" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y85" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86" s="1">
+        <v>42404</v>
+      </c>
       <c r="B86" s="1">
         <v>20284</v>
       </c>
@@ -4200,8 +4336,44 @@
       <c r="L86" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>13.85</v>
+      </c>
+      <c r="N86">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O86">
+        <v>1.64</v>
+      </c>
+      <c r="P86">
+        <v>0.34</v>
+      </c>
+      <c r="S86">
+        <v>0.54</v>
+      </c>
+      <c r="T86">
+        <v>0.99</v>
+      </c>
+      <c r="U86">
+        <v>2.85</v>
+      </c>
+      <c r="V86">
+        <v>16.86</v>
+      </c>
+      <c r="W86" s="7">
+        <v>56</v>
+      </c>
+      <c r="X86" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y86" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" s="1">
+        <v>42404</v>
+      </c>
       <c r="B87" s="1">
         <v>20284</v>
       </c>
@@ -4235,8 +4407,44 @@
       <c r="L87" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>16.78</v>
+      </c>
+      <c r="N87">
+        <v>32.9</v>
+      </c>
+      <c r="O87">
+        <v>2.91</v>
+      </c>
+      <c r="P87">
+        <v>0.51</v>
+      </c>
+      <c r="S87">
+        <v>0.54</v>
+      </c>
+      <c r="T87">
+        <v>1.54</v>
+      </c>
+      <c r="U87">
+        <v>4.92</v>
+      </c>
+      <c r="V87">
+        <v>39.29</v>
+      </c>
+      <c r="W87" s="7">
+        <v>56</v>
+      </c>
+      <c r="X87" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y87" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" s="1">
+        <v>42404</v>
+      </c>
       <c r="B88" s="1">
         <v>20284</v>
       </c>
@@ -4270,8 +4478,44 @@
       <c r="L88" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>19.34</v>
+      </c>
+      <c r="N88">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O88">
+        <v>2.91</v>
+      </c>
+      <c r="P88">
+        <v>0.6</v>
+      </c>
+      <c r="S88">
+        <v>0.51</v>
+      </c>
+      <c r="T88">
+        <v>1.92</v>
+      </c>
+      <c r="U88">
+        <v>6.29</v>
+      </c>
+      <c r="V88">
+        <v>58.9</v>
+      </c>
+      <c r="W88" s="7">
+        <v>56</v>
+      </c>
+      <c r="X88" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y88" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" s="1">
+        <v>42404</v>
+      </c>
       <c r="B89" s="1">
         <v>20284</v>
       </c>
@@ -4305,8 +4549,44 @@
       <c r="L89" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>21.5</v>
+      </c>
+      <c r="N89">
+        <v>32</v>
+      </c>
+      <c r="O89">
+        <v>3.77</v>
+      </c>
+      <c r="P89">
+        <v>0.67</v>
+      </c>
+      <c r="S89">
+        <v>0.49</v>
+      </c>
+      <c r="T89">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U89">
+        <v>7.24</v>
+      </c>
+      <c r="V89">
+        <v>75</v>
+      </c>
+      <c r="W89" s="7">
+        <v>56</v>
+      </c>
+      <c r="X89" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y89" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" s="1">
+        <v>42404</v>
+      </c>
       <c r="B90" s="1">
         <v>20284</v>
       </c>
@@ -4340,8 +4620,41 @@
       <c r="L90" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>23.5</v>
+      </c>
+      <c r="N90">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="O90">
+        <v>3.77</v>
+      </c>
+      <c r="P90">
+        <v>0.72</v>
+      </c>
+      <c r="S90">
+        <v>0.47</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>7.97</v>
+      </c>
+      <c r="V90">
+        <v>88.8</v>
+      </c>
+      <c r="W90" s="7">
+        <v>56</v>
+      </c>
+      <c r="X90" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -4349,7 +4662,10 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26">
+      <c r="A92" s="1">
+        <v>42404</v>
+      </c>
       <c r="B92" s="1">
         <v>20284</v>
       </c>
@@ -4383,8 +4699,47 @@
       <c r="L92" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M92">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N92">
+        <v>35</v>
+      </c>
+      <c r="O92">
+        <v>0.85</v>
+      </c>
+      <c r="P92">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S92">
+        <v>0.72</v>
+      </c>
+      <c r="T92">
+        <v>2.54</v>
+      </c>
+      <c r="U92">
+        <v>5.41</v>
+      </c>
+      <c r="V92">
+        <v>44.28</v>
+      </c>
+      <c r="W92">
+        <v>82</v>
+      </c>
+      <c r="X92">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="Y92">
+        <v>4.34</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="1">
+        <v>42404</v>
+      </c>
       <c r="B93" s="1">
         <v>20284</v>
       </c>
@@ -4418,8 +4773,44 @@
       <c r="L93" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>16.78</v>
+      </c>
+      <c r="N93">
+        <v>32.9</v>
+      </c>
+      <c r="O93">
+        <v>2.91</v>
+      </c>
+      <c r="P93">
+        <v>0.51</v>
+      </c>
+      <c r="S93">
+        <v>0.54</v>
+      </c>
+      <c r="T93">
+        <v>1.54</v>
+      </c>
+      <c r="U93">
+        <v>4.92</v>
+      </c>
+      <c r="V93">
+        <v>39.29</v>
+      </c>
+      <c r="W93" s="7">
+        <v>56</v>
+      </c>
+      <c r="X93" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y93" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="1">
+        <v>42404</v>
+      </c>
       <c r="B94" s="1">
         <v>20284</v>
       </c>
@@ -4453,8 +4844,41 @@
       <c r="L94" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>8.9</v>
+      </c>
+      <c r="N94">
+        <v>39.4</v>
+      </c>
+      <c r="O94">
+        <v>1.46</v>
+      </c>
+      <c r="P94">
+        <v>0.23</v>
+      </c>
+      <c r="S94">
+        <v>0.31</v>
+      </c>
+      <c r="T94">
+        <v>0.46</v>
+      </c>
+      <c r="U94">
+        <v>2.27</v>
+      </c>
+      <c r="V94">
+        <v>12.65</v>
+      </c>
+      <c r="W94" s="7">
+        <v>54</v>
+      </c>
+      <c r="X94" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y94" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -4462,7 +4886,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26">
+      <c r="A96" s="1">
+        <v>42404</v>
+      </c>
       <c r="B96" s="1">
         <v>20284</v>
       </c>
@@ -4496,8 +4923,44 @@
       <c r="L96" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <v>16.78</v>
+      </c>
+      <c r="N96">
+        <v>32.9</v>
+      </c>
+      <c r="O96">
+        <v>2.91</v>
+      </c>
+      <c r="P96">
+        <v>0.51</v>
+      </c>
+      <c r="S96">
+        <v>0.54</v>
+      </c>
+      <c r="T96">
+        <v>1.54</v>
+      </c>
+      <c r="U96">
+        <v>4.92</v>
+      </c>
+      <c r="V96">
+        <v>39.29</v>
+      </c>
+      <c r="W96" s="7">
+        <v>56</v>
+      </c>
+      <c r="X96" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y96" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="1">
+        <v>42404</v>
+      </c>
       <c r="B97" s="1">
         <v>20284</v>
       </c>
@@ -4531,8 +4994,44 @@
       <c r="L97" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>16.63</v>
+      </c>
+      <c r="N97">
+        <v>37.1</v>
+      </c>
+      <c r="O97">
+        <v>2.54</v>
+      </c>
+      <c r="P97">
+        <v>0.45</v>
+      </c>
+      <c r="S97">
+        <v>0.62</v>
+      </c>
+      <c r="T97">
+        <v>1.53</v>
+      </c>
+      <c r="U97">
+        <v>3.3</v>
+      </c>
+      <c r="V97">
+        <v>17.5</v>
+      </c>
+      <c r="W97" s="7">
+        <v>57</v>
+      </c>
+      <c r="X97" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="Y97" s="7">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="1">
+        <v>42404</v>
+      </c>
       <c r="B98" s="1">
         <v>20284</v>
       </c>
@@ -4566,8 +5065,44 @@
       <c r="L98" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>15.73</v>
+      </c>
+      <c r="N98">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="O98">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P98">
+        <v>0.4</v>
+      </c>
+      <c r="S98">
+        <v>0.61</v>
+      </c>
+      <c r="T98">
+        <v>1.66</v>
+      </c>
+      <c r="U98">
+        <v>3.3</v>
+      </c>
+      <c r="V98">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W98" s="7">
+        <v>54</v>
+      </c>
+      <c r="X98" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="Y98" s="7">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="1">
+        <v>42404</v>
+      </c>
       <c r="B99" s="1">
         <v>20284</v>
       </c>
@@ -4601,8 +5136,41 @@
       <c r="L99" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M99">
+        <v>14.65</v>
+      </c>
+      <c r="N99">
+        <v>32.9</v>
+      </c>
+      <c r="O99">
+        <v>1.6</v>
+      </c>
+      <c r="P99">
+        <v>0.45</v>
+      </c>
+      <c r="S99">
+        <v>0.49</v>
+      </c>
+      <c r="T99">
+        <v>1.37</v>
+      </c>
+      <c r="U99">
+        <v>4.51</v>
+      </c>
+      <c r="V99">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="W99" s="7">
+        <v>59</v>
+      </c>
+      <c r="X99" s="7">
+        <v>27.7</v>
+      </c>
+      <c r="Y99" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2"/>
@@ -4610,7 +5178,10 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25">
+      <c r="A101" s="1">
+        <v>42404</v>
+      </c>
       <c r="B101" s="1">
         <v>20284</v>
       </c>
@@ -4644,8 +5215,44 @@
       <c r="L101" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>16.78</v>
+      </c>
+      <c r="N101">
+        <v>32.9</v>
+      </c>
+      <c r="O101">
+        <v>2.91</v>
+      </c>
+      <c r="P101">
+        <v>0.51</v>
+      </c>
+      <c r="S101">
+        <v>0.54</v>
+      </c>
+      <c r="T101">
+        <v>1.54</v>
+      </c>
+      <c r="U101">
+        <v>4.92</v>
+      </c>
+      <c r="V101">
+        <v>39.29</v>
+      </c>
+      <c r="W101" s="7">
+        <v>56</v>
+      </c>
+      <c r="X101" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y101" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="1">
+        <v>42404</v>
+      </c>
       <c r="B102" s="1">
         <v>20284</v>
       </c>
@@ -4679,8 +5286,44 @@
       <c r="L102" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>17.2</v>
+      </c>
+      <c r="N102">
+        <v>35</v>
+      </c>
+      <c r="O102">
+        <v>2.91</v>
+      </c>
+      <c r="P102">
+        <v>0.49</v>
+      </c>
+      <c r="S102">
+        <v>0.48</v>
+      </c>
+      <c r="T102">
+        <v>1.65</v>
+      </c>
+      <c r="U102">
+        <v>6.4</v>
+      </c>
+      <c r="V102">
+        <v>60.1</v>
+      </c>
+      <c r="W102" s="7">
+        <v>52</v>
+      </c>
+      <c r="X102" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="Y102" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="1">
+        <v>42404</v>
+      </c>
       <c r="B103" s="1">
         <v>20284</v>
       </c>
@@ -4714,8 +5357,44 @@
       <c r="L103" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>18.2</v>
+      </c>
+      <c r="N103">
+        <v>37</v>
+      </c>
+      <c r="O103">
+        <v>2.91</v>
+      </c>
+      <c r="P103">
+        <v>0.49</v>
+      </c>
+      <c r="S103">
+        <v>0.34</v>
+      </c>
+      <c r="T103">
+        <v>1.67</v>
+      </c>
+      <c r="U103">
+        <v>12.6</v>
+      </c>
+      <c r="V103">
+        <v>219</v>
+      </c>
+      <c r="W103" s="7">
+        <v>53</v>
+      </c>
+      <c r="X103" s="7">
+        <v>26</v>
+      </c>
+      <c r="Y103" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="1">
+        <v>42404</v>
+      </c>
       <c r="B104" s="1">
         <v>20284</v>
       </c>
@@ -4749,8 +5428,44 @@
       <c r="L104" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>20.3</v>
+      </c>
+      <c r="N104">
+        <v>37</v>
+      </c>
+      <c r="O104">
+        <v>2.91</v>
+      </c>
+      <c r="P104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S104">
+        <v>0.37</v>
+      </c>
+      <c r="T104">
+        <v>2.02</v>
+      </c>
+      <c r="U104">
+        <v>10.8</v>
+      </c>
+      <c r="V104">
+        <v>150</v>
+      </c>
+      <c r="W104" s="7">
+        <v>52</v>
+      </c>
+      <c r="X104" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Y104" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="1">
+        <v>42404</v>
+      </c>
       <c r="B105" s="1">
         <v>20284</v>
       </c>
@@ -4784,8 +5499,41 @@
       <c r="L105" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N105">
+        <v>37</v>
+      </c>
+      <c r="O105">
+        <v>2.91</v>
+      </c>
+      <c r="P105">
+        <v>0.47</v>
+      </c>
+      <c r="S105">
+        <v>0.4</v>
+      </c>
+      <c r="T105">
+        <v>1.85</v>
+      </c>
+      <c r="U105">
+        <v>11.83</v>
+      </c>
+      <c r="V105">
+        <v>182.44</v>
+      </c>
+      <c r="W105" s="7">
+        <v>47</v>
+      </c>
+      <c r="X105" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="Y105" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8"/>
@@ -4797,7 +5545,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8"/>
@@ -4809,17 +5557,17 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25">
       <c r="B111" s="1">
         <v>20284</v>
       </c>
@@ -4835,11 +5583,8 @@
       <c r="N111">
         <v>48.2</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>0.12</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
       </c>
       <c r="Q111">
         <v>0</v>
@@ -4851,18 +5596,21 @@
         <v>0</v>
       </c>
       <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
         <v>-0.45</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>2.85</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22">
       <c r="B113" s="1">
         <v>24475</v>
       </c>
@@ -4878,34 +5626,34 @@
       <c r="N113">
         <v>56.7</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>0.12</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S113">
         <v>0.05</v>
       </c>
       <c r="T113">
+        <v>0.05</v>
+      </c>
+      <c r="U113">
         <v>-0.45</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>2.46</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22">
       <c r="B115" s="1">
         <v>30842</v>
       </c>
@@ -4921,34 +5669,34 @@
       <c r="N115">
         <v>56.7</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="P115">
-        <v>0.05</v>
       </c>
       <c r="Q115">
         <v>0.05</v>
       </c>
       <c r="R115">
+        <v>0.05</v>
+      </c>
+      <c r="S115">
         <v>0.32</v>
       </c>
-      <c r="S115">
+      <c r="T115">
         <v>0.33</v>
       </c>
-      <c r="T115">
+      <c r="U115">
         <v>-0.38</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>1.53</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22">
       <c r="B117" s="1">
         <v>20284</v>
       </c>
@@ -4967,34 +5715,34 @@
       <c r="N117">
         <v>56.7</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>0.12</v>
-      </c>
-      <c r="P117">
-        <v>0.01</v>
       </c>
       <c r="Q117">
         <v>0.01</v>
       </c>
       <c r="R117">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S117">
         <v>0.13</v>
       </c>
       <c r="T117">
+        <v>0.13</v>
+      </c>
+      <c r="U117">
         <v>-0.42</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22">
       <c r="A119" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22">
       <c r="B120" s="1">
         <v>31413</v>
       </c>

--- a/scripts/results_notes.xlsx
+++ b/scripts/results_notes.xlsx
@@ -666,9 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3110,7 +3110,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>42391</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>42391</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>42391</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>42391</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -3366,7 +3366,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -3374,7 +3374,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>42404</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:25">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -3404,7 +3404,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:25">
       <c r="B58" s="1">
         <v>20284</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -3450,7 +3450,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>42404</v>
       </c>
@@ -3487,8 +3487,41 @@
       <c r="L60" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="M60">
+        <v>12.13</v>
+      </c>
+      <c r="N60">
+        <v>34.1</v>
+      </c>
+      <c r="O60">
+        <v>1.69</v>
+      </c>
+      <c r="P60">
+        <v>0.36</v>
+      </c>
+      <c r="S60">
+        <v>0.39</v>
+      </c>
+      <c r="T60">
+        <v>0.4</v>
+      </c>
+      <c r="U60">
+        <v>0.91</v>
+      </c>
+      <c r="V60">
+        <v>2.94</v>
+      </c>
+      <c r="W60">
+        <v>56</v>
+      </c>
+      <c r="X60">
+        <v>26.2</v>
+      </c>
+      <c r="Y60">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>42404</v>
       </c>
@@ -3525,8 +3558,41 @@
       <c r="L61" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="M61">
+        <v>17.68</v>
+      </c>
+      <c r="N61">
+        <v>28.7</v>
+      </c>
+      <c r="O61">
+        <v>1.64</v>
+      </c>
+      <c r="P61">
+        <v>0.62</v>
+      </c>
+      <c r="S61">
+        <v>0.61</v>
+      </c>
+      <c r="T61">
+        <v>1.27</v>
+      </c>
+      <c r="U61">
+        <v>3.23</v>
+      </c>
+      <c r="V61">
+        <v>17.8</v>
+      </c>
+      <c r="W61">
+        <v>56</v>
+      </c>
+      <c r="X61">
+        <v>26.2</v>
+      </c>
+      <c r="Y61">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>42404</v>
       </c>
@@ -3563,8 +3629,41 @@
       <c r="L62" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="M62">
+        <v>22.7</v>
+      </c>
+      <c r="N62">
+        <v>24.27</v>
+      </c>
+      <c r="O62">
+        <v>1.58</v>
+      </c>
+      <c r="P62">
+        <v>0.94</v>
+      </c>
+      <c r="S62">
+        <v>0.64</v>
+      </c>
+      <c r="T62">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U62">
+        <v>5.05</v>
+      </c>
+      <c r="V62">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="W62">
+        <v>56</v>
+      </c>
+      <c r="X62">
+        <v>26.2</v>
+      </c>
+      <c r="Y62">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>42404</v>
       </c>
@@ -3601,8 +3700,41 @@
       <c r="L63" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="M63">
+        <v>27.3</v>
+      </c>
+      <c r="N63">
+        <v>23.1</v>
+      </c>
+      <c r="O63">
+        <v>1.58</v>
+      </c>
+      <c r="P63">
+        <v>1.18</v>
+      </c>
+      <c r="S63">
+        <v>0.63</v>
+      </c>
+      <c r="T63">
+        <v>2.48</v>
+      </c>
+      <c r="U63">
+        <v>6.1</v>
+      </c>
+      <c r="V63">
+        <v>49.8</v>
+      </c>
+      <c r="W63">
+        <v>56</v>
+      </c>
+      <c r="X63">
+        <v>26.2</v>
+      </c>
+      <c r="Y63">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>42404</v>
       </c>
@@ -3639,8 +3771,41 @@
       <c r="L64" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>31.5</v>
+      </c>
+      <c r="N64">
+        <v>25.2</v>
+      </c>
+      <c r="O64">
+        <v>1.58</v>
+      </c>
+      <c r="P64">
+        <v>1.25</v>
+      </c>
+      <c r="S64">
+        <v>0.62</v>
+      </c>
+      <c r="T64">
+        <v>3.26</v>
+      </c>
+      <c r="U64">
+        <v>6.8</v>
+      </c>
+      <c r="V64">
+        <v>60</v>
+      </c>
+      <c r="W64">
+        <v>56</v>
+      </c>
+      <c r="X64">
+        <v>26.2</v>
+      </c>
+      <c r="Y64">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>42404</v>
       </c>
@@ -3677,8 +3842,41 @@
       <c r="L65" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="N65">
+        <v>27.2</v>
+      </c>
+      <c r="O65">
+        <v>1.58</v>
+      </c>
+      <c r="P65">
+        <v>1.3</v>
+      </c>
+      <c r="S65">
+        <v>0.61</v>
+      </c>
+      <c r="T65">
+        <v>3.2</v>
+      </c>
+      <c r="U65">
+        <v>7.34</v>
+      </c>
+      <c r="V65">
+        <v>68</v>
+      </c>
+      <c r="W65">
+        <v>56</v>
+      </c>
+      <c r="X65">
+        <v>26.2</v>
+      </c>
+      <c r="Y65">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -3686,7 +3884,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>42404</v>
       </c>
@@ -3723,8 +3921,41 @@
       <c r="L67" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>51.4</v>
+      </c>
+      <c r="N67">
+        <v>21.6</v>
+      </c>
+      <c r="O67">
+        <v>0.85</v>
+      </c>
+      <c r="P67">
+        <v>2.38</v>
+      </c>
+      <c r="S67">
+        <v>0.78</v>
+      </c>
+      <c r="T67">
+        <v>1.99</v>
+      </c>
+      <c r="U67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V67">
+        <v>36.5</v>
+      </c>
+      <c r="W67">
+        <v>82</v>
+      </c>
+      <c r="X67">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>42404</v>
       </c>
@@ -3761,8 +3992,41 @@
       <c r="L68" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>22.7</v>
+      </c>
+      <c r="N68">
+        <v>24.27</v>
+      </c>
+      <c r="O68">
+        <v>1.58</v>
+      </c>
+      <c r="P68">
+        <v>0.94</v>
+      </c>
+      <c r="S68">
+        <v>0.64</v>
+      </c>
+      <c r="T68">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U68">
+        <v>5.05</v>
+      </c>
+      <c r="V68">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="W68">
+        <v>56</v>
+      </c>
+      <c r="X68">
+        <v>26.2</v>
+      </c>
+      <c r="Y68">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>42404</v>
       </c>
@@ -3799,8 +4063,41 @@
       <c r="L69" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>33.1</v>
+      </c>
+      <c r="O69">
+        <v>1.34</v>
+      </c>
+      <c r="P69">
+        <v>0.36</v>
+      </c>
+      <c r="S69">
+        <v>0.36</v>
+      </c>
+      <c r="T69">
+        <v>0.63</v>
+      </c>
+      <c r="U69">
+        <v>2.82</v>
+      </c>
+      <c r="V69">
+        <v>13.7</v>
+      </c>
+      <c r="W69">
+        <v>54</v>
+      </c>
+      <c r="X69">
+        <v>26.2</v>
+      </c>
+      <c r="Y69">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -3808,7 +4105,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>42404</v>
       </c>
@@ -3845,8 +4142,41 @@
       <c r="L71" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>22.7</v>
+      </c>
+      <c r="N71">
+        <v>24.27</v>
+      </c>
+      <c r="O71">
+        <v>1.58</v>
+      </c>
+      <c r="P71">
+        <v>0.94</v>
+      </c>
+      <c r="S71">
+        <v>0.64</v>
+      </c>
+      <c r="T71">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U71">
+        <v>5.05</v>
+      </c>
+      <c r="V71">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="W71">
+        <v>56</v>
+      </c>
+      <c r="X71">
+        <v>26.2</v>
+      </c>
+      <c r="Y71">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>42404</v>
       </c>
@@ -3883,8 +4213,41 @@
       <c r="L72" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>20.8</v>
+      </c>
+      <c r="N72">
+        <v>27.3</v>
+      </c>
+      <c r="O72">
+        <v>1.58</v>
+      </c>
+      <c r="P72">
+        <v>0.76</v>
+      </c>
+      <c r="S72">
+        <v>0.69</v>
+      </c>
+      <c r="T72">
+        <v>1.92</v>
+      </c>
+      <c r="U72">
+        <v>3.39</v>
+      </c>
+      <c r="V72">
+        <v>15.59</v>
+      </c>
+      <c r="W72">
+        <v>57</v>
+      </c>
+      <c r="X72">
+        <v>28.5</v>
+      </c>
+      <c r="Y72">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>42404</v>
       </c>
@@ -3921,8 +4284,41 @@
       <c r="L73" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>20.8</v>
+      </c>
+      <c r="N73">
+        <v>27.3</v>
+      </c>
+      <c r="O73">
+        <v>1.58</v>
+      </c>
+      <c r="P73">
+        <v>0.76</v>
+      </c>
+      <c r="S73">
+        <v>0.7</v>
+      </c>
+      <c r="T73">
+        <v>1.95</v>
+      </c>
+      <c r="U73">
+        <v>3.4</v>
+      </c>
+      <c r="V73">
+        <v>15.66</v>
+      </c>
+      <c r="W73">
+        <v>54</v>
+      </c>
+      <c r="X73">
+        <v>27.6</v>
+      </c>
+      <c r="Y73">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>42404</v>
       </c>
@@ -3959,8 +4355,41 @@
       <c r="L74" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N74">
+        <v>25.4</v>
+      </c>
+      <c r="O74">
+        <v>1.58</v>
+      </c>
+      <c r="P74">
+        <v>0.7</v>
+      </c>
+      <c r="S74">
+        <v>0.52</v>
+      </c>
+      <c r="T74">
+        <v>1.74</v>
+      </c>
+      <c r="U74">
+        <v>5.09</v>
+      </c>
+      <c r="V74">
+        <v>37.76</v>
+      </c>
+      <c r="W74">
+        <v>59</v>
+      </c>
+      <c r="X74">
+        <v>27.7</v>
+      </c>
+      <c r="Y74">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -3968,7 +4397,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>42404</v>
       </c>
@@ -4005,8 +4434,41 @@
       <c r="L76" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>22.7</v>
+      </c>
+      <c r="N76">
+        <v>24.27</v>
+      </c>
+      <c r="O76">
+        <v>1.58</v>
+      </c>
+      <c r="P76">
+        <v>0.94</v>
+      </c>
+      <c r="S76">
+        <v>0.64</v>
+      </c>
+      <c r="T76">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U76">
+        <v>5.05</v>
+      </c>
+      <c r="V76">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="W76">
+        <v>56</v>
+      </c>
+      <c r="X76">
+        <v>26.2</v>
+      </c>
+      <c r="Y76">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>42404</v>
       </c>
@@ -4043,8 +4505,41 @@
       <c r="L77" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>23.4</v>
+      </c>
+      <c r="N77">
+        <v>28.7</v>
+      </c>
+      <c r="O77">
+        <v>1.58</v>
+      </c>
+      <c r="P77">
+        <v>0.82</v>
+      </c>
+      <c r="S77">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T77">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="U77">
+        <v>6.23</v>
+      </c>
+      <c r="V77">
+        <v>52.4</v>
+      </c>
+      <c r="W77">
+        <v>52</v>
+      </c>
+      <c r="X77">
+        <v>25.2</v>
+      </c>
+      <c r="Y77">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>42404</v>
       </c>
@@ -4081,8 +4576,41 @@
       <c r="L78" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>25.4</v>
+      </c>
+      <c r="N78">
+        <v>31.6</v>
+      </c>
+      <c r="O78">
+        <v>1.49</v>
+      </c>
+      <c r="P78">
+        <v>0.8</v>
+      </c>
+      <c r="S78">
+        <v>0.39</v>
+      </c>
+      <c r="T78">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U78">
+        <v>11.19</v>
+      </c>
+      <c r="V78">
+        <v>155.4</v>
+      </c>
+      <c r="W78">
+        <v>53</v>
+      </c>
+      <c r="X78">
+        <v>26</v>
+      </c>
+      <c r="Y78">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>42404</v>
       </c>
@@ -4119,8 +4647,41 @@
       <c r="L79" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>29.4</v>
+      </c>
+      <c r="N79">
+        <v>27.4</v>
+      </c>
+      <c r="O79">
+        <v>1.58</v>
+      </c>
+      <c r="P79">
+        <v>1.07</v>
+      </c>
+      <c r="S79">
+        <v>0.45</v>
+      </c>
+      <c r="T79">
+        <v>2.86</v>
+      </c>
+      <c r="U79">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="V79">
+        <v>101</v>
+      </c>
+      <c r="W79">
+        <v>52</v>
+      </c>
+      <c r="X79">
+        <v>25.5</v>
+      </c>
+      <c r="Y79">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>42404</v>
       </c>
@@ -4156,6 +4717,39 @@
       </c>
       <c r="L80" s="11" t="s">
         <v>55</v>
+      </c>
+      <c r="M80">
+        <v>24.8</v>
+      </c>
+      <c r="N80">
+        <v>32.5</v>
+      </c>
+      <c r="O80">
+        <v>1.58</v>
+      </c>
+      <c r="P80">
+        <v>0.76</v>
+      </c>
+      <c r="S80">
+        <v>0.46</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>9.9</v>
+      </c>
+      <c r="V80">
+        <v>117.3</v>
+      </c>
+      <c r="W80">
+        <v>47</v>
+      </c>
+      <c r="X80">
+        <v>23.3</v>
+      </c>
+      <c r="Y80">
+        <v>7.34</v>
       </c>
     </row>
     <row r="81" spans="1:26">

--- a/scripts/results_notes.xlsx
+++ b/scripts/results_notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="25540" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25545" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="79">
   <si>
     <t>Inputs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,19 +260,61 @@
   <si>
     <t>need to look at this one some more</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1:</t>
+  </si>
+  <si>
+    <t>sim2:</t>
+  </si>
+  <si>
+    <t>sim3:</t>
+  </si>
+  <si>
+    <t>sim4:</t>
+  </si>
+  <si>
+    <t>sim5:</t>
+  </si>
+  <si>
+    <t>sim6:</t>
+  </si>
+  <si>
+    <t>sim7:</t>
+  </si>
+  <si>
+    <t>sim8:</t>
+  </si>
+  <si>
+    <t>sim9:</t>
+  </si>
+  <si>
+    <t>sim10:</t>
+  </si>
+  <si>
+    <t>sim11:</t>
+  </si>
+  <si>
+    <t>sim12:</t>
+  </si>
+  <si>
+    <t>sim13:</t>
+  </si>
+  <si>
+    <t>sim14:</t>
+  </si>
+  <si>
+    <t>sim 15:</t>
+  </si>
+  <si>
+    <t>sim16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -313,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -327,6 +374,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,26 +713,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:Z120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -782,7 +832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>30842</v>
       </c>
@@ -820,7 +870,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42391</v>
       </c>
@@ -876,7 +926,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="7" customFormat="1">
+    <row r="7" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>42391</v>
       </c>
@@ -938,7 +988,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42391</v>
       </c>
@@ -994,7 +1044,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42391</v>
       </c>
@@ -1056,7 +1106,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42391</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42391</v>
       </c>
@@ -1180,7 +1230,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42391</v>
       </c>
@@ -1242,7 +1292,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42391</v>
       </c>
@@ -1304,7 +1354,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42391</v>
       </c>
@@ -1366,7 +1416,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42391</v>
       </c>
@@ -1428,7 +1478,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42391</v>
       </c>
@@ -1490,7 +1540,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="7" customFormat="1">
+    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42391</v>
       </c>
@@ -1552,7 +1602,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42391</v>
       </c>
@@ -1614,7 +1664,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42391</v>
       </c>
@@ -1676,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42391</v>
       </c>
@@ -1738,7 +1788,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42391</v>
       </c>
@@ -1800,7 +1850,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42391</v>
       </c>
@@ -1862,7 +1912,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="7" customFormat="1">
+    <row r="26" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>42391</v>
       </c>
@@ -1924,7 +1974,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42391</v>
       </c>
@@ -1986,7 +2036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42391</v>
       </c>
@@ -2048,7 +2098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42391</v>
       </c>
@@ -2110,7 +2160,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42391</v>
       </c>
@@ -2172,7 +2222,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42391</v>
       </c>
@@ -2234,7 +2284,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42391</v>
       </c>
@@ -2296,7 +2346,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="7" customFormat="1">
+    <row r="34" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42391</v>
       </c>
@@ -2358,7 +2408,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42391</v>
       </c>
@@ -2420,7 +2470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42391</v>
       </c>
@@ -2482,7 +2532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42391</v>
       </c>
@@ -2544,7 +2594,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -2552,7 +2602,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42391</v>
       </c>
@@ -2614,7 +2664,7 @@
         <v>58.66</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42391</v>
       </c>
@@ -2676,7 +2726,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42391</v>
       </c>
@@ -2738,7 +2788,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42391</v>
       </c>
@@ -2800,7 +2850,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42391</v>
       </c>
@@ -2862,7 +2912,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42391</v>
       </c>
@@ -2924,7 +2974,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42391</v>
       </c>
@@ -2986,7 +3036,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42391</v>
       </c>
@@ -3048,7 +3098,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42391</v>
       </c>
@@ -3110,7 +3160,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42391</v>
       </c>
@@ -3172,7 +3222,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42391</v>
       </c>
@@ -3234,7 +3284,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42391</v>
       </c>
@@ -3296,7 +3346,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42391</v>
       </c>
@@ -3358,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -3366,7 +3416,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -3374,7 +3424,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42404</v>
       </c>
@@ -3385,7 +3435,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
@@ -3396,7 +3446,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -3404,7 +3454,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>20284</v>
       </c>
@@ -3442,7 +3492,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -3450,7 +3500,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42404</v>
       </c>
@@ -3491,7 +3541,7 @@
         <v>12.13</v>
       </c>
       <c r="N60">
-        <v>34.1</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="O60">
         <v>1.69</v>
@@ -3512,16 +3562,16 @@
         <v>2.94</v>
       </c>
       <c r="W60">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="X60">
-        <v>26.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y60">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42404</v>
       </c>
@@ -3562,7 +3612,7 @@
         <v>17.68</v>
       </c>
       <c r="N61">
-        <v>28.7</v>
+        <v>28.72</v>
       </c>
       <c r="O61">
         <v>1.64</v>
@@ -3580,19 +3630,19 @@
         <v>3.23</v>
       </c>
       <c r="V61">
-        <v>17.8</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="W61">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="X61">
-        <v>26.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y61">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42404</v>
       </c>
@@ -3630,7 +3680,7 @@
         <v>43</v>
       </c>
       <c r="M62">
-        <v>22.7</v>
+        <v>22.73</v>
       </c>
       <c r="N62">
         <v>24.27</v>
@@ -3651,19 +3701,19 @@
         <v>5.05</v>
       </c>
       <c r="V62">
-        <v>36.299999999999997</v>
+        <v>36.28</v>
       </c>
       <c r="W62">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="X62">
-        <v>26.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y62">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42404</v>
       </c>
@@ -3701,10 +3751,10 @@
         <v>44</v>
       </c>
       <c r="M63">
-        <v>27.3</v>
+        <v>27.33</v>
       </c>
       <c r="N63">
-        <v>23.1</v>
+        <v>23.12</v>
       </c>
       <c r="O63">
         <v>1.58</v>
@@ -3719,22 +3769,22 @@
         <v>2.48</v>
       </c>
       <c r="U63">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="V63">
-        <v>49.8</v>
+        <v>49.86</v>
       </c>
       <c r="W63">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="X63">
-        <v>26.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y63">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42404</v>
       </c>
@@ -3772,10 +3822,10 @@
         <v>45</v>
       </c>
       <c r="M64">
-        <v>31.5</v>
+        <v>31.53</v>
       </c>
       <c r="N64">
-        <v>25.2</v>
+        <v>25.21</v>
       </c>
       <c r="O64">
         <v>1.58</v>
@@ -3790,22 +3840,22 @@
         <v>3.26</v>
       </c>
       <c r="U64">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="V64">
-        <v>60</v>
+        <v>60.04</v>
       </c>
       <c r="W64">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="X64">
-        <v>26.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y64">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42404</v>
       </c>
@@ -3843,10 +3893,10 @@
         <v>46</v>
       </c>
       <c r="M65">
-        <v>35.299999999999997</v>
+        <v>35.36</v>
       </c>
       <c r="N65">
-        <v>27.2</v>
+        <v>27.26</v>
       </c>
       <c r="O65">
         <v>1.58</v>
@@ -3864,19 +3914,19 @@
         <v>7.34</v>
       </c>
       <c r="V65">
-        <v>68</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="W65">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="X65">
-        <v>26.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y65">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -3884,7 +3934,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42404</v>
       </c>
@@ -3898,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F67" s="9">
         <v>10</v>
@@ -3918,44 +3968,44 @@
       <c r="K67" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L67" s="11" t="s">
-        <v>47</v>
+      <c r="L67" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="M67">
-        <v>51.4</v>
+        <v>157.85</v>
       </c>
       <c r="N67">
-        <v>21.6</v>
+        <v>22.12</v>
       </c>
       <c r="O67">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="P67">
-        <v>2.38</v>
+        <v>7.14</v>
       </c>
       <c r="S67">
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
       <c r="T67">
-        <v>1.99</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>5.0999999999999996</v>
+        <v>18.32</v>
       </c>
       <c r="V67">
-        <v>36.5</v>
+        <v>341.18</v>
       </c>
       <c r="W67">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="X67">
-        <v>34.700000000000003</v>
+        <v>42.3</v>
       </c>
       <c r="Y67">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42404</v>
       </c>
@@ -3969,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F68" s="9">
         <v>10</v>
@@ -3989,44 +4039,44 @@
       <c r="K68" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L68" s="12" t="s">
-        <v>43</v>
+      <c r="L68" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M68">
-        <v>22.7</v>
+        <v>51.37</v>
       </c>
       <c r="N68">
-        <v>24.27</v>
+        <v>21.62</v>
       </c>
       <c r="O68">
-        <v>1.58</v>
+        <v>0.85</v>
       </c>
       <c r="P68">
-        <v>0.94</v>
+        <v>2.38</v>
       </c>
       <c r="S68">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="T68">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="U68">
-        <v>5.05</v>
+        <v>5.15</v>
       </c>
       <c r="V68">
-        <v>36.299999999999997</v>
+        <v>36.56</v>
       </c>
       <c r="W68">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="X68">
-        <v>26.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="Y68">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42404</v>
       </c>
@@ -4040,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F69" s="9">
         <v>10</v>
@@ -4060,123 +4110,123 @@
       <c r="K69" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M69">
+        <v>22.73</v>
+      </c>
+      <c r="N69">
+        <v>24.27</v>
+      </c>
+      <c r="O69">
+        <v>1.58</v>
+      </c>
+      <c r="P69">
+        <v>0.94</v>
+      </c>
+      <c r="S69">
+        <v>0.64</v>
+      </c>
+      <c r="T69">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U69">
+        <v>5.05</v>
+      </c>
+      <c r="V69">
+        <v>36.28</v>
+      </c>
+      <c r="W69">
+        <v>34</v>
+      </c>
+      <c r="X69">
+        <v>31.8</v>
+      </c>
+      <c r="Y69">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B70" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C70" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D70" s="8">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9">
+        <v>10</v>
+      </c>
+      <c r="F70" s="9">
+        <v>10</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M69">
+      <c r="M70">
         <v>12</v>
       </c>
-      <c r="N69">
-        <v>33.1</v>
-      </c>
-      <c r="O69">
+      <c r="N70">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="O70">
         <v>1.34</v>
       </c>
-      <c r="P69">
+      <c r="P70">
         <v>0.36</v>
       </c>
-      <c r="S69">
+      <c r="S70">
         <v>0.36</v>
       </c>
-      <c r="T69">
+      <c r="T70">
         <v>0.63</v>
       </c>
-      <c r="U69">
+      <c r="U70">
         <v>2.82</v>
       </c>
-      <c r="V69">
+      <c r="V70">
         <v>13.7</v>
       </c>
-      <c r="W69">
-        <v>54</v>
-      </c>
-      <c r="X69">
-        <v>26.2</v>
-      </c>
-      <c r="Y69">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="1">
-        <v>42404</v>
-      </c>
-      <c r="B71" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C71" s="1">
-        <v>31409</v>
-      </c>
-      <c r="D71" s="8">
-        <v>3</v>
-      </c>
-      <c r="E71" s="9">
-        <v>20</v>
-      </c>
-      <c r="F71" s="9">
-        <v>10</v>
-      </c>
-      <c r="G71" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H71" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71">
-        <v>22.7</v>
-      </c>
-      <c r="N71">
-        <v>24.27</v>
-      </c>
-      <c r="O71">
-        <v>1.58</v>
-      </c>
-      <c r="P71">
-        <v>0.94</v>
-      </c>
-      <c r="S71">
-        <v>0.64</v>
-      </c>
-      <c r="T71">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="U71">
-        <v>5.05</v>
-      </c>
-      <c r="V71">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="W71">
-        <v>56</v>
-      </c>
-      <c r="X71">
-        <v>26.2</v>
-      </c>
-      <c r="Y71">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="W70">
+        <v>31</v>
+      </c>
+      <c r="X70">
+        <v>30.7</v>
+      </c>
+      <c r="Y70">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42404</v>
       </c>
@@ -4195,59 +4245,59 @@
       <c r="F72" s="9">
         <v>10</v>
       </c>
-      <c r="G72" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H72" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="10" t="s">
+      <c r="G72" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H72" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>49</v>
+      <c r="K72" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="M72">
-        <v>20.8</v>
+        <v>22.73</v>
       </c>
       <c r="N72">
-        <v>27.3</v>
+        <v>24.27</v>
       </c>
       <c r="O72">
         <v>1.58</v>
       </c>
       <c r="P72">
-        <v>0.76</v>
+        <v>0.94</v>
       </c>
       <c r="S72">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="T72">
-        <v>1.92</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="U72">
-        <v>3.39</v>
+        <v>5.05</v>
       </c>
       <c r="V72">
-        <v>15.59</v>
+        <v>36.28</v>
       </c>
       <c r="W72">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="X72">
-        <v>28.5</v>
+        <v>31.8</v>
       </c>
       <c r="Y72">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42404</v>
       </c>
@@ -4267,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H73" s="9">
         <v>0.4</v>
@@ -4276,16 +4326,16 @@
         <v>20</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M73">
-        <v>20.8</v>
+        <v>20.81</v>
       </c>
       <c r="N73">
         <v>27.3</v>
@@ -4297,28 +4347,28 @@
         <v>0.76</v>
       </c>
       <c r="S73">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="T73">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U73">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="V73">
-        <v>15.66</v>
+        <v>15.59</v>
       </c>
       <c r="W73">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="X73">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="Y73">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42404</v>
       </c>
@@ -4328,147 +4378,147 @@
       <c r="C74" s="1">
         <v>31409</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="8">
         <v>3</v>
       </c>
-      <c r="E74">
-        <v>20</v>
-      </c>
-      <c r="F74">
+      <c r="E74" s="9">
+        <v>20</v>
+      </c>
+      <c r="F74" s="9">
         <v>10</v>
       </c>
-      <c r="G74">
-        <v>0.2</v>
-      </c>
-      <c r="H74">
-        <v>0.4</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>40</v>
+      <c r="G74" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M74">
-        <v>17.899999999999999</v>
+        <v>20.81</v>
       </c>
       <c r="N74">
-        <v>25.4</v>
+        <v>27.3</v>
       </c>
       <c r="O74">
         <v>1.58</v>
       </c>
       <c r="P74">
+        <v>0.76</v>
+      </c>
+      <c r="S74">
         <v>0.7</v>
       </c>
-      <c r="S74">
+      <c r="T74">
+        <v>1.95</v>
+      </c>
+      <c r="U74">
+        <v>3.4</v>
+      </c>
+      <c r="V74">
+        <v>15.66</v>
+      </c>
+      <c r="W74">
+        <v>29</v>
+      </c>
+      <c r="X74">
+        <v>29.3</v>
+      </c>
+      <c r="Y74">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C75" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <v>0.4</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75">
+        <v>17.87</v>
+      </c>
+      <c r="N75">
+        <v>25.42</v>
+      </c>
+      <c r="O75">
+        <v>1.58</v>
+      </c>
+      <c r="P75">
+        <v>0.7</v>
+      </c>
+      <c r="S75">
         <v>0.52</v>
       </c>
-      <c r="T74">
+      <c r="T75">
         <v>1.74</v>
       </c>
-      <c r="U74">
+      <c r="U75">
         <v>5.09</v>
       </c>
-      <c r="V74">
+      <c r="V75">
         <v>37.76</v>
       </c>
-      <c r="W74">
-        <v>59</v>
-      </c>
-      <c r="X74">
-        <v>27.7</v>
-      </c>
-      <c r="Y74">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="A76" s="1">
-        <v>42404</v>
-      </c>
-      <c r="B76" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C76" s="1">
-        <v>31409</v>
-      </c>
-      <c r="D76" s="8">
-        <v>3</v>
-      </c>
-      <c r="E76" s="9">
-        <v>20</v>
-      </c>
-      <c r="F76" s="9">
-        <v>10</v>
-      </c>
-      <c r="G76" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M76">
-        <v>22.7</v>
-      </c>
-      <c r="N76">
-        <v>24.27</v>
-      </c>
-      <c r="O76">
-        <v>1.58</v>
-      </c>
-      <c r="P76">
-        <v>0.94</v>
-      </c>
-      <c r="S76">
-        <v>0.64</v>
-      </c>
-      <c r="T76">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="U76">
-        <v>5.05</v>
-      </c>
-      <c r="V76">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="W76">
-        <v>56</v>
-      </c>
-      <c r="X76">
-        <v>26.2</v>
-      </c>
-      <c r="Y76">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="W75">
+        <v>36</v>
+      </c>
+      <c r="X75">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Y75">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42404</v>
       </c>
@@ -4484,8 +4534,8 @@
       <c r="E77" s="9">
         <v>20</v>
       </c>
-      <c r="F77" s="9">
-        <v>20</v>
+      <c r="F77" s="14">
+        <v>10</v>
       </c>
       <c r="G77" s="9">
         <v>0.2</v>
@@ -4502,44 +4552,44 @@
       <c r="K77" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L77" s="11" t="s">
-        <v>52</v>
+      <c r="L77" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="M77">
-        <v>23.4</v>
+        <v>22.73</v>
       </c>
       <c r="N77">
-        <v>28.7</v>
+        <v>24.27</v>
       </c>
       <c r="O77">
         <v>1.58</v>
       </c>
       <c r="P77">
-        <v>0.82</v>
+        <v>0.94</v>
       </c>
       <c r="S77">
-        <v>0.56999999999999995</v>
+        <v>0.64</v>
       </c>
       <c r="T77">
-        <v>2.0699999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="U77">
-        <v>6.23</v>
+        <v>5.05</v>
       </c>
       <c r="V77">
-        <v>52.4</v>
+        <v>36.28</v>
       </c>
       <c r="W77">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="X77">
-        <v>25.2</v>
+        <v>31.8</v>
       </c>
       <c r="Y77">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42404</v>
       </c>
@@ -4556,7 +4606,7 @@
         <v>20</v>
       </c>
       <c r="F78" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G78" s="9">
         <v>0.2</v>
@@ -4574,43 +4624,43 @@
         <v>22</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M78">
-        <v>25.4</v>
+        <v>23.47</v>
       </c>
       <c r="N78">
-        <v>31.6</v>
+        <v>28.77</v>
       </c>
       <c r="O78">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="P78">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="S78">
-        <v>0.39</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T78">
-        <v>2.2799999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="U78">
-        <v>11.19</v>
+        <v>6.23</v>
       </c>
       <c r="V78">
-        <v>155.4</v>
+        <v>52.45</v>
       </c>
       <c r="W78">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="X78">
-        <v>26</v>
+        <v>31.7</v>
       </c>
       <c r="Y78">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42404</v>
       </c>
@@ -4627,7 +4677,7 @@
         <v>20</v>
       </c>
       <c r="F79" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G79" s="9">
         <v>0.2</v>
@@ -4645,43 +4695,43 @@
         <v>22</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M79">
-        <v>29.4</v>
+        <v>25.41</v>
       </c>
       <c r="N79">
-        <v>27.4</v>
+        <v>31.58</v>
       </c>
       <c r="O79">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="P79">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="S79">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="T79">
-        <v>2.86</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="U79">
-        <v>9.2100000000000009</v>
+        <v>11.19</v>
       </c>
       <c r="V79">
-        <v>101</v>
+        <v>155.44999999999999</v>
       </c>
       <c r="W79">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="X79">
-        <v>25.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="Y79">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42404</v>
       </c>
@@ -4697,8 +4747,8 @@
       <c r="E80" s="9">
         <v>20</v>
       </c>
-      <c r="F80" s="9">
-        <v>50</v>
+      <c r="F80" s="14">
+        <v>40</v>
       </c>
       <c r="G80" s="9">
         <v>0.2</v>
@@ -4716,55 +4766,114 @@
         <v>22</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M80">
-        <v>24.8</v>
+        <v>29.38</v>
       </c>
       <c r="N80">
-        <v>32.5</v>
+        <v>27.47</v>
       </c>
       <c r="O80">
         <v>1.58</v>
       </c>
       <c r="P80">
+        <v>1.07</v>
+      </c>
+      <c r="S80">
+        <v>0.45</v>
+      </c>
+      <c r="T80">
+        <v>2.86</v>
+      </c>
+      <c r="U80">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="V80">
+        <v>101.08</v>
+      </c>
+      <c r="W80">
+        <v>32</v>
+      </c>
+      <c r="X80">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y80">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B81" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C81" s="1">
+        <v>31409</v>
+      </c>
+      <c r="D81" s="8">
+        <v>3</v>
+      </c>
+      <c r="E81" s="9">
+        <v>20</v>
+      </c>
+      <c r="F81" s="9">
+        <v>50</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M81">
+        <v>24.79</v>
+      </c>
+      <c r="N81">
+        <v>32.5</v>
+      </c>
+      <c r="O81">
+        <v>1.58</v>
+      </c>
+      <c r="P81">
         <v>0.76</v>
       </c>
-      <c r="S80">
+      <c r="S81">
         <v>0.46</v>
       </c>
-      <c r="T80">
+      <c r="T81">
         <v>2.5</v>
       </c>
-      <c r="U80">
-        <v>9.9</v>
-      </c>
-      <c r="V80">
-        <v>117.3</v>
-      </c>
-      <c r="W80">
-        <v>47</v>
-      </c>
-      <c r="X80">
-        <v>23.3</v>
-      </c>
-      <c r="Y80">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="U81">
+        <v>9.91</v>
+      </c>
+      <c r="V81">
+        <v>117.28</v>
+      </c>
+      <c r="W81">
+        <v>27</v>
+      </c>
+      <c r="X81">
+        <v>27.8</v>
+      </c>
+      <c r="Y81">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="8"/>
@@ -4776,124 +4885,65 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:26">
-      <c r="B83" s="1">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
         <v>20284</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C84" s="1">
         <v>42073</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>29</v>
       </c>
-      <c r="M83">
+      <c r="M84">
         <v>6.66</v>
       </c>
-      <c r="N83">
+      <c r="N84">
         <v>56.7</v>
       </c>
-      <c r="P83">
+      <c r="P84">
         <v>0.12</v>
       </c>
-      <c r="Q83">
+      <c r="Q84">
         <v>0.01</v>
       </c>
-      <c r="R83">
+      <c r="R84">
         <v>0.01</v>
       </c>
-      <c r="S83">
+      <c r="S84">
         <v>0.13</v>
       </c>
-      <c r="T83">
+      <c r="T84">
         <v>0.13</v>
       </c>
-      <c r="U83">
+      <c r="U84">
         <v>-0.42</v>
       </c>
-      <c r="V83">
+      <c r="V84">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:26">
-      <c r="A85" s="1">
-        <v>42404</v>
-      </c>
-      <c r="B85" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C85" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D85" s="8">
-        <v>1</v>
-      </c>
-      <c r="E85" s="9">
-        <v>20</v>
-      </c>
-      <c r="F85" s="9">
-        <v>10</v>
-      </c>
-      <c r="G85" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M85">
-        <v>10.5</v>
-      </c>
-      <c r="N85">
-        <v>48.14</v>
-      </c>
-      <c r="O85">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="P85">
-        <v>0.22</v>
-      </c>
-      <c r="S85">
-        <v>0.41</v>
-      </c>
-      <c r="T85">
-        <v>0.45</v>
-      </c>
-      <c r="U85">
-        <v>0.68</v>
-      </c>
-      <c r="V85">
-        <v>2.7</v>
-      </c>
-      <c r="W85" s="7">
-        <v>56</v>
-      </c>
-      <c r="X85" s="7">
-        <v>26.2</v>
-      </c>
-      <c r="Y85" s="7">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42404</v>
       </c>
@@ -4904,7 +4954,7 @@
         <v>42073</v>
       </c>
       <c r="D86" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="9">
         <v>20</v>
@@ -4928,31 +4978,31 @@
         <v>22</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M86">
-        <v>13.85</v>
+        <v>10.5</v>
       </c>
       <c r="N86">
-        <v>40.200000000000003</v>
+        <v>48.14</v>
       </c>
       <c r="O86">
-        <v>1.64</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="P86">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="S86">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="T86">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="U86">
-        <v>2.85</v>
+        <v>0.68</v>
       </c>
       <c r="V86">
-        <v>16.86</v>
+        <v>2.7</v>
       </c>
       <c r="W86" s="7">
         <v>56</v>
@@ -4964,7 +5014,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42404</v>
       </c>
@@ -4975,7 +5025,7 @@
         <v>42073</v>
       </c>
       <c r="D87" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="9">
         <v>20</v>
@@ -4999,31 +5049,31 @@
         <v>22</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M87">
-        <v>16.78</v>
+        <v>13.85</v>
       </c>
       <c r="N87">
-        <v>32.9</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="O87">
-        <v>2.91</v>
+        <v>1.64</v>
       </c>
       <c r="P87">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="S87">
         <v>0.54</v>
       </c>
       <c r="T87">
-        <v>1.54</v>
+        <v>0.99</v>
       </c>
       <c r="U87">
-        <v>4.92</v>
+        <v>2.85</v>
       </c>
       <c r="V87">
-        <v>39.29</v>
+        <v>16.86</v>
       </c>
       <c r="W87" s="7">
         <v>56</v>
@@ -5035,7 +5085,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42404</v>
       </c>
@@ -5046,7 +5096,7 @@
         <v>42073</v>
       </c>
       <c r="D88" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" s="9">
         <v>20</v>
@@ -5070,31 +5120,31 @@
         <v>22</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M88">
-        <v>19.34</v>
+        <v>16.78</v>
       </c>
       <c r="N88">
-        <v>32.200000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="O88">
         <v>2.91</v>
       </c>
       <c r="P88">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="S88">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="T88">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="U88">
-        <v>6.29</v>
+        <v>4.92</v>
       </c>
       <c r="V88">
-        <v>58.9</v>
+        <v>39.29</v>
       </c>
       <c r="W88" s="7">
         <v>56</v>
@@ -5106,7 +5156,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42404</v>
       </c>
@@ -5117,7 +5167,7 @@
         <v>42073</v>
       </c>
       <c r="D89" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" s="9">
         <v>20</v>
@@ -5141,31 +5191,31 @@
         <v>22</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M89">
-        <v>21.5</v>
+        <v>19.34</v>
       </c>
       <c r="N89">
-        <v>32</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="O89">
-        <v>3.77</v>
+        <v>2.91</v>
       </c>
       <c r="P89">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="S89">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="T89">
-        <v>2.2000000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="U89">
-        <v>7.24</v>
+        <v>6.29</v>
       </c>
       <c r="V89">
-        <v>75</v>
+        <v>58.9</v>
       </c>
       <c r="W89" s="7">
         <v>56</v>
@@ -5177,7 +5227,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42404</v>
       </c>
@@ -5188,7 +5238,7 @@
         <v>42073</v>
       </c>
       <c r="D90" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E90" s="9">
         <v>20</v>
@@ -5212,31 +5262,31 @@
         <v>22</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M90">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="N90">
-        <v>32.700000000000003</v>
+        <v>32</v>
       </c>
       <c r="O90">
         <v>3.77</v>
       </c>
       <c r="P90">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="S90">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U90">
-        <v>7.97</v>
+        <v>7.24</v>
       </c>
       <c r="V90">
-        <v>88.8</v>
+        <v>75</v>
       </c>
       <c r="W90" s="7">
         <v>56</v>
@@ -5248,89 +5298,86 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:26">
-      <c r="A92" s="1">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>42404</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B91" s="1">
         <v>20284</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C91" s="1">
         <v>42073</v>
       </c>
-      <c r="D92" s="8">
-        <v>3</v>
-      </c>
-      <c r="E92" s="9">
-        <v>30</v>
-      </c>
-      <c r="F92" s="9">
+      <c r="D91" s="8">
+        <v>6</v>
+      </c>
+      <c r="E91" s="9">
+        <v>20</v>
+      </c>
+      <c r="F91" s="9">
         <v>10</v>
       </c>
-      <c r="G92" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J92" s="10" t="s">
+      <c r="G91" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K92" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M92">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="N92">
-        <v>35</v>
-      </c>
-      <c r="O92">
-        <v>0.85</v>
-      </c>
-      <c r="P92">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="S92">
+      <c r="K91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M91">
+        <v>23.5</v>
+      </c>
+      <c r="N91">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="O91">
+        <v>3.77</v>
+      </c>
+      <c r="P91">
         <v>0.72</v>
       </c>
-      <c r="T92">
-        <v>2.54</v>
-      </c>
-      <c r="U92">
-        <v>5.41</v>
-      </c>
-      <c r="V92">
-        <v>44.28</v>
-      </c>
-      <c r="W92">
-        <v>82</v>
-      </c>
-      <c r="X92">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="Y92">
-        <v>4.34</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="S91">
+        <v>0.47</v>
+      </c>
+      <c r="T91">
+        <v>2.5</v>
+      </c>
+      <c r="U91">
+        <v>7.97</v>
+      </c>
+      <c r="V91">
+        <v>88.8</v>
+      </c>
+      <c r="W91" s="7">
+        <v>56</v>
+      </c>
+      <c r="X91" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Y91" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42404</v>
       </c>
@@ -5344,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F93" s="9">
         <v>10</v>
@@ -5364,44 +5411,44 @@
       <c r="K93" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L93" s="12" t="s">
-        <v>43</v>
+      <c r="L93" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="M93">
-        <v>16.78</v>
+        <v>111.95</v>
       </c>
       <c r="N93">
-        <v>32.9</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="O93">
-        <v>2.91</v>
+        <v>0.38</v>
       </c>
       <c r="P93">
-        <v>0.51</v>
+        <v>3.27</v>
       </c>
       <c r="S93">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="T93">
-        <v>1.54</v>
+        <v>3.94</v>
       </c>
       <c r="U93">
-        <v>4.92</v>
+        <v>24.16</v>
       </c>
       <c r="V93">
-        <v>39.29</v>
-      </c>
-      <c r="W93" s="7">
-        <v>56</v>
-      </c>
-      <c r="X93" s="7">
-        <v>26.2</v>
-      </c>
-      <c r="Y93" s="7">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26">
+        <v>616.86</v>
+      </c>
+      <c r="W93">
+        <v>107</v>
+      </c>
+      <c r="X93">
+        <v>38.5</v>
+      </c>
+      <c r="Y93">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42404</v>
       </c>
@@ -5415,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F94" s="9">
         <v>10</v>
@@ -5436,51 +5483,117 @@
         <v>22</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M94">
-        <v>8.9</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="N94">
-        <v>39.4</v>
+        <v>35</v>
       </c>
       <c r="O94">
-        <v>1.46</v>
+        <v>0.85</v>
       </c>
       <c r="P94">
-        <v>0.23</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="S94">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
       <c r="T94">
-        <v>0.46</v>
+        <v>2.54</v>
       </c>
       <c r="U94">
-        <v>2.27</v>
+        <v>5.41</v>
       </c>
       <c r="V94">
-        <v>12.65</v>
-      </c>
-      <c r="W94" s="7">
-        <v>54</v>
-      </c>
-      <c r="X94" s="7">
+        <v>44.28</v>
+      </c>
+      <c r="W94">
+        <v>82</v>
+      </c>
+      <c r="X94">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="Y94">
+        <v>4.34</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D95" s="8">
+        <v>3</v>
+      </c>
+      <c r="E95" s="9">
+        <v>20</v>
+      </c>
+      <c r="F95" s="9">
+        <v>10</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M95">
+        <v>16.78</v>
+      </c>
+      <c r="N95">
+        <v>32.9</v>
+      </c>
+      <c r="O95">
+        <v>2.91</v>
+      </c>
+      <c r="P95">
+        <v>0.51</v>
+      </c>
+      <c r="S95">
+        <v>0.54</v>
+      </c>
+      <c r="T95">
+        <v>1.54</v>
+      </c>
+      <c r="U95">
+        <v>4.92</v>
+      </c>
+      <c r="V95">
+        <v>39.29</v>
+      </c>
+      <c r="W95" s="7">
+        <v>56</v>
+      </c>
+      <c r="X95" s="7">
         <v>26.2</v>
       </c>
-      <c r="Y94" s="7">
+      <c r="Y95" s="7">
         <v>7.34</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42404</v>
       </c>
@@ -5494,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F96" s="9">
         <v>10</v>
@@ -5514,35 +5627,35 @@
       <c r="K96" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L96" s="12" t="s">
-        <v>43</v>
+      <c r="L96" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="M96">
-        <v>16.78</v>
+        <v>8.9</v>
       </c>
       <c r="N96">
-        <v>32.9</v>
+        <v>39.4</v>
       </c>
       <c r="O96">
-        <v>2.91</v>
+        <v>1.46</v>
       </c>
       <c r="P96">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="S96">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="T96">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="U96">
-        <v>4.92</v>
+        <v>2.27</v>
       </c>
       <c r="V96">
-        <v>39.29</v>
+        <v>12.65</v>
       </c>
       <c r="W96" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X96" s="7">
         <v>26.2</v>
@@ -5551,78 +5664,15 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
-      <c r="A97" s="1">
-        <v>42404</v>
-      </c>
-      <c r="B97" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C97" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D97" s="8">
-        <v>3</v>
-      </c>
-      <c r="E97" s="9">
-        <v>20</v>
-      </c>
-      <c r="F97" s="9">
-        <v>10</v>
-      </c>
-      <c r="G97" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H97" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M97">
-        <v>16.63</v>
-      </c>
-      <c r="N97">
-        <v>37.1</v>
-      </c>
-      <c r="O97">
-        <v>2.54</v>
-      </c>
-      <c r="P97">
-        <v>0.45</v>
-      </c>
-      <c r="S97">
-        <v>0.62</v>
-      </c>
-      <c r="T97">
-        <v>1.53</v>
-      </c>
-      <c r="U97">
-        <v>3.3</v>
-      </c>
-      <c r="V97">
-        <v>17.5</v>
-      </c>
-      <c r="W97" s="7">
-        <v>57</v>
-      </c>
-      <c r="X97" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="Y97" s="7">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="2"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42404</v>
       </c>
@@ -5642,7 +5692,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H98" s="9">
         <v>0.4</v>
@@ -5651,49 +5701,49 @@
         <v>20</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L98" s="11" t="s">
-        <v>50</v>
+      <c r="L98" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="M98">
-        <v>15.73</v>
+        <v>16.78</v>
       </c>
       <c r="N98">
-        <v>39.200000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="O98">
-        <v>2.2999999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="P98">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="S98">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="T98">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="U98">
-        <v>3.3</v>
+        <v>4.92</v>
       </c>
       <c r="V98">
-        <v>18.100000000000001</v>
+        <v>39.29</v>
       </c>
       <c r="W98" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X98" s="7">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="Y98" s="7">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42404</v>
       </c>
@@ -5703,76 +5753,139 @@
       <c r="C99" s="1">
         <v>42073</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="8">
         <v>3</v>
       </c>
-      <c r="E99">
-        <v>20</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="9">
+        <v>20</v>
+      </c>
+      <c r="F99" s="9">
         <v>10</v>
       </c>
-      <c r="G99">
-        <v>0.2</v>
-      </c>
-      <c r="H99">
-        <v>0.4</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>40</v>
+      <c r="G99" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M99">
-        <v>14.65</v>
+        <v>16.63</v>
       </c>
       <c r="N99">
-        <v>32.9</v>
+        <v>37.1</v>
       </c>
       <c r="O99">
-        <v>1.6</v>
+        <v>2.54</v>
       </c>
       <c r="P99">
         <v>0.45</v>
       </c>
       <c r="S99">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="T99">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="U99">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="V99">
-        <v>33.299999999999997</v>
+        <v>17.5</v>
       </c>
       <c r="W99" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X99" s="7">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="Y99" s="7">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="2"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:25">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B100" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D100" s="8">
+        <v>3</v>
+      </c>
+      <c r="E100" s="9">
+        <v>20</v>
+      </c>
+      <c r="F100" s="9">
+        <v>10</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <v>15.73</v>
+      </c>
+      <c r="N100">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="O100">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P100">
+        <v>0.4</v>
+      </c>
+      <c r="S100">
+        <v>0.61</v>
+      </c>
+      <c r="T100">
+        <v>1.66</v>
+      </c>
+      <c r="U100">
+        <v>3.3</v>
+      </c>
+      <c r="V100">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W100" s="7">
+        <v>54</v>
+      </c>
+      <c r="X100" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="Y100" s="7">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42404</v>
       </c>
@@ -5782,139 +5895,76 @@
       <c r="C101" s="1">
         <v>42073</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="2">
         <v>3</v>
       </c>
-      <c r="E101" s="9">
-        <v>20</v>
-      </c>
-      <c r="F101" s="9">
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101">
         <v>10</v>
       </c>
-      <c r="G101" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>43</v>
+      <c r="G101">
+        <v>0.2</v>
+      </c>
+      <c r="H101">
+        <v>0.4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="M101">
-        <v>16.78</v>
+        <v>14.65</v>
       </c>
       <c r="N101">
         <v>32.9</v>
       </c>
       <c r="O101">
-        <v>2.91</v>
+        <v>1.6</v>
       </c>
       <c r="P101">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="S101">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="T101">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="U101">
-        <v>4.92</v>
+        <v>4.51</v>
       </c>
       <c r="V101">
-        <v>39.29</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="W101" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X101" s="7">
-        <v>26.2</v>
+        <v>27.7</v>
       </c>
       <c r="Y101" s="7">
         <v>7.34</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
-      <c r="A102" s="1">
-        <v>42404</v>
-      </c>
-      <c r="B102" s="1">
-        <v>20284</v>
-      </c>
-      <c r="C102" s="1">
-        <v>42073</v>
-      </c>
-      <c r="D102" s="8">
-        <v>3</v>
-      </c>
-      <c r="E102" s="9">
-        <v>20</v>
-      </c>
-      <c r="F102" s="9">
-        <v>20</v>
-      </c>
-      <c r="G102" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H102" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L102" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M102">
-        <v>17.2</v>
-      </c>
-      <c r="N102">
-        <v>35</v>
-      </c>
-      <c r="O102">
-        <v>2.91</v>
-      </c>
-      <c r="P102">
-        <v>0.49</v>
-      </c>
-      <c r="S102">
-        <v>0.48</v>
-      </c>
-      <c r="T102">
-        <v>1.65</v>
-      </c>
-      <c r="U102">
-        <v>6.4</v>
-      </c>
-      <c r="V102">
-        <v>60.1</v>
-      </c>
-      <c r="W102" s="7">
-        <v>52</v>
-      </c>
-      <c r="X102" s="7">
-        <v>25.2</v>
-      </c>
-      <c r="Y102" s="7">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42404</v>
       </c>
@@ -5931,7 +5981,7 @@
         <v>20</v>
       </c>
       <c r="F103" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G103" s="9">
         <v>0.2</v>
@@ -5948,44 +5998,44 @@
       <c r="K103" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L103" s="11" t="s">
-        <v>53</v>
+      <c r="L103" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="M103">
-        <v>18.2</v>
+        <v>16.78</v>
       </c>
       <c r="N103">
-        <v>37</v>
+        <v>32.9</v>
       </c>
       <c r="O103">
         <v>2.91</v>
       </c>
       <c r="P103">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="S103">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="T103">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="U103">
-        <v>12.6</v>
+        <v>4.92</v>
       </c>
       <c r="V103">
-        <v>219</v>
+        <v>39.29</v>
       </c>
       <c r="W103" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X103" s="7">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="Y103" s="7">
         <v>7.34</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42404</v>
       </c>
@@ -6002,7 +6052,7 @@
         <v>20</v>
       </c>
       <c r="F104" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G104" s="9">
         <v>0.2</v>
@@ -6020,43 +6070,43 @@
         <v>22</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M104">
-        <v>20.3</v>
+        <v>17.2</v>
       </c>
       <c r="N104">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O104">
         <v>2.91</v>
       </c>
       <c r="P104">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="S104">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="T104">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="U104">
-        <v>10.8</v>
+        <v>6.4</v>
       </c>
       <c r="V104">
-        <v>150</v>
+        <v>60.1</v>
       </c>
       <c r="W104" s="7">
         <v>52</v>
       </c>
       <c r="X104" s="7">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Y104" s="7">
         <v>7.34</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42404</v>
       </c>
@@ -6073,7 +6123,7 @@
         <v>20</v>
       </c>
       <c r="F105" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G105" s="9">
         <v>0.2</v>
@@ -6091,10 +6141,10 @@
         <v>22</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M105">
-        <v>17.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="N105">
         <v>37</v>
@@ -6103,122 +6153,221 @@
         <v>2.91</v>
       </c>
       <c r="P105">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="S105">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="T105">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="U105">
-        <v>11.83</v>
+        <v>12.6</v>
       </c>
       <c r="V105">
-        <v>182.44</v>
+        <v>219</v>
       </c>
       <c r="W105" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="X105" s="7">
-        <v>23.3</v>
+        <v>26</v>
       </c>
       <c r="Y105" s="7">
         <v>7.34</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-    </row>
-    <row r="107" spans="1:25">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-    </row>
-    <row r="108" spans="1:25">
-      <c r="A108" t="s">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B106" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C106" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D106" s="8">
+        <v>3</v>
+      </c>
+      <c r="E106" s="9">
+        <v>20</v>
+      </c>
+      <c r="F106" s="9">
+        <v>40</v>
+      </c>
+      <c r="G106" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H106" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M106">
+        <v>20.3</v>
+      </c>
+      <c r="N106">
+        <v>37</v>
+      </c>
+      <c r="O106">
+        <v>2.91</v>
+      </c>
+      <c r="P106">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S106">
+        <v>0.37</v>
+      </c>
+      <c r="T106">
+        <v>2.02</v>
+      </c>
+      <c r="U106">
+        <v>10.8</v>
+      </c>
+      <c r="V106">
+        <v>150</v>
+      </c>
+      <c r="W106" s="7">
+        <v>52</v>
+      </c>
+      <c r="X106" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="Y106" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B107" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3</v>
+      </c>
+      <c r="E107" s="9">
+        <v>20</v>
+      </c>
+      <c r="F107" s="9">
+        <v>50</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H107" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M107">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N107">
+        <v>37</v>
+      </c>
+      <c r="O107">
+        <v>2.91</v>
+      </c>
+      <c r="P107">
+        <v>0.47</v>
+      </c>
+      <c r="S107">
+        <v>0.4</v>
+      </c>
+      <c r="T107">
+        <v>1.85</v>
+      </c>
+      <c r="U107">
+        <v>11.83</v>
+      </c>
+      <c r="V107">
+        <v>182.44</v>
+      </c>
+      <c r="W107" s="7">
+        <v>47</v>
+      </c>
+      <c r="X107" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="Y107" s="7">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
-      <c r="A110" t="s">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
-      <c r="B111" s="1">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
         <v>20284</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C113" s="1">
         <v>31409</v>
-      </c>
-      <c r="E111" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111">
-        <v>6.02</v>
-      </c>
-      <c r="N111">
-        <v>48.2</v>
-      </c>
-      <c r="P111">
-        <v>0.12</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <v>-0.45</v>
-      </c>
-      <c r="V111">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25">
-      <c r="A112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22">
-      <c r="B113" s="1">
-        <v>24475</v>
-      </c>
-      <c r="C113" s="1">
-        <v>38716</v>
       </c>
       <c r="E113" t="s">
         <v>29</v>
       </c>
       <c r="M113">
-        <v>6.63</v>
+        <v>6.02</v>
       </c>
       <c r="N113">
-        <v>56.7</v>
+        <v>48.2</v>
       </c>
       <c r="P113">
         <v>0.12</v>
@@ -6230,69 +6379,69 @@
         <v>0</v>
       </c>
       <c r="S113">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T113">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="U113">
         <v>-0.45</v>
       </c>
       <c r="V113">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
-        <v>30842</v>
+        <v>24475</v>
       </c>
       <c r="C115" s="1">
-        <v>42073</v>
+        <v>38716</v>
       </c>
       <c r="E115" t="s">
         <v>29</v>
       </c>
       <c r="M115">
-        <v>7.87</v>
+        <v>6.63</v>
       </c>
       <c r="N115">
         <v>56.7</v>
       </c>
       <c r="P115">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
         <v>0.05</v>
       </c>
-      <c r="R115">
+      <c r="T115">
         <v>0.05</v>
       </c>
-      <c r="S115">
-        <v>0.32</v>
-      </c>
-      <c r="T115">
-        <v>0.33</v>
-      </c>
       <c r="U115">
-        <v>-0.38</v>
+        <v>-0.45</v>
       </c>
       <c r="V115">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
-        <v>20284</v>
+        <v>30842</v>
       </c>
       <c r="C117" s="1">
         <v>42073</v>
@@ -6300,51 +6449,848 @@
       <c r="E117" t="s">
         <v>29</v>
       </c>
-      <c r="G117" t="s">
-        <v>31</v>
-      </c>
       <c r="M117">
-        <v>6.66</v>
+        <v>7.87</v>
       </c>
       <c r="N117">
         <v>56.7</v>
       </c>
       <c r="P117">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q117">
+        <v>0.05</v>
+      </c>
+      <c r="R117">
+        <v>0.05</v>
+      </c>
+      <c r="S117">
+        <v>0.32</v>
+      </c>
+      <c r="T117">
+        <v>0.33</v>
+      </c>
+      <c r="U117">
+        <v>-0.38</v>
+      </c>
+      <c r="V117">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C119" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119">
+        <v>6.66</v>
+      </c>
+      <c r="N119">
+        <v>56.7</v>
+      </c>
+      <c r="P119">
         <v>0.12</v>
       </c>
-      <c r="Q117">
+      <c r="Q119">
         <v>0.01</v>
       </c>
-      <c r="R117">
+      <c r="R119">
         <v>0.01</v>
       </c>
-      <c r="S117">
+      <c r="S119">
         <v>0.13</v>
       </c>
-      <c r="T117">
+      <c r="T119">
         <v>0.13</v>
       </c>
-      <c r="U117">
+      <c r="U119">
         <v>-0.42</v>
       </c>
-      <c r="V117">
+      <c r="V119">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
-      <c r="A119" t="s">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
-      <c r="B120" s="1">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B122" s="1">
         <v>31413</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C122" s="1">
         <v>35063</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E122" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133">
+        <v>12.13</v>
+      </c>
+      <c r="D133">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="E133">
+        <v>1.69</v>
+      </c>
+      <c r="F133">
+        <v>0.36</v>
+      </c>
+      <c r="I133">
+        <v>0.39</v>
+      </c>
+      <c r="J133">
+        <v>0.4</v>
+      </c>
+      <c r="K133">
+        <v>0.91</v>
+      </c>
+      <c r="L133">
+        <v>2.94</v>
+      </c>
+      <c r="M133">
+        <v>34</v>
+      </c>
+      <c r="N133">
+        <v>31.8</v>
+      </c>
+      <c r="O133">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134">
+        <v>17.68</v>
+      </c>
+      <c r="D134">
+        <v>28.72</v>
+      </c>
+      <c r="E134">
+        <v>1.64</v>
+      </c>
+      <c r="F134">
+        <v>0.62</v>
+      </c>
+      <c r="I134">
+        <v>0.61</v>
+      </c>
+      <c r="J134">
+        <v>1.27</v>
+      </c>
+      <c r="K134">
+        <v>3.23</v>
+      </c>
+      <c r="L134">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="M134">
+        <v>34</v>
+      </c>
+      <c r="N134">
+        <v>31.8</v>
+      </c>
+      <c r="O134">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135">
+        <v>22.73</v>
+      </c>
+      <c r="D135">
+        <v>24.27</v>
+      </c>
+      <c r="E135">
+        <v>1.58</v>
+      </c>
+      <c r="F135">
+        <v>0.94</v>
+      </c>
+      <c r="I135">
+        <v>0.64</v>
+      </c>
+      <c r="J135">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K135">
+        <v>5.05</v>
+      </c>
+      <c r="L135">
+        <v>36.28</v>
+      </c>
+      <c r="M135">
+        <v>34</v>
+      </c>
+      <c r="N135">
+        <v>31.8</v>
+      </c>
+      <c r="O135">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136">
+        <v>27.33</v>
+      </c>
+      <c r="D136">
+        <v>23.12</v>
+      </c>
+      <c r="E136">
+        <v>1.58</v>
+      </c>
+      <c r="F136">
+        <v>1.18</v>
+      </c>
+      <c r="I136">
+        <v>0.63</v>
+      </c>
+      <c r="J136">
+        <v>2.48</v>
+      </c>
+      <c r="K136">
+        <v>6.12</v>
+      </c>
+      <c r="L136">
+        <v>49.86</v>
+      </c>
+      <c r="M136">
+        <v>34</v>
+      </c>
+      <c r="N136">
+        <v>31.8</v>
+      </c>
+      <c r="O136">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137">
+        <v>31.53</v>
+      </c>
+      <c r="D137">
+        <v>25.21</v>
+      </c>
+      <c r="E137">
+        <v>1.58</v>
+      </c>
+      <c r="F137">
+        <v>1.25</v>
+      </c>
+      <c r="I137">
+        <v>0.62</v>
+      </c>
+      <c r="J137">
+        <v>3.26</v>
+      </c>
+      <c r="K137">
+        <v>6.82</v>
+      </c>
+      <c r="L137">
+        <v>60.04</v>
+      </c>
+      <c r="M137">
+        <v>34</v>
+      </c>
+      <c r="N137">
+        <v>31.8</v>
+      </c>
+      <c r="O137">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138">
+        <v>35.36</v>
+      </c>
+      <c r="D138">
+        <v>27.26</v>
+      </c>
+      <c r="E138">
+        <v>1.58</v>
+      </c>
+      <c r="F138">
+        <v>1.3</v>
+      </c>
+      <c r="I138">
+        <v>0.61</v>
+      </c>
+      <c r="J138">
+        <v>3.2</v>
+      </c>
+      <c r="K138">
+        <v>7.34</v>
+      </c>
+      <c r="L138">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="M138">
+        <v>34</v>
+      </c>
+      <c r="N138">
+        <v>31.8</v>
+      </c>
+      <c r="O138">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140">
+        <v>51.37</v>
+      </c>
+      <c r="D140">
+        <v>21.62</v>
+      </c>
+      <c r="E140">
+        <v>0.85</v>
+      </c>
+      <c r="F140">
+        <v>2.38</v>
+      </c>
+      <c r="I140">
+        <v>0.78</v>
+      </c>
+      <c r="J140">
+        <v>1.99</v>
+      </c>
+      <c r="K140">
+        <v>5.15</v>
+      </c>
+      <c r="L140">
+        <v>36.56</v>
+      </c>
+      <c r="M140">
+        <v>49</v>
+      </c>
+      <c r="N140">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O140">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141">
+        <v>22.73</v>
+      </c>
+      <c r="D141">
+        <v>24.27</v>
+      </c>
+      <c r="E141">
+        <v>1.58</v>
+      </c>
+      <c r="F141">
+        <v>0.94</v>
+      </c>
+      <c r="I141">
+        <v>0.64</v>
+      </c>
+      <c r="J141">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K141">
+        <v>5.05</v>
+      </c>
+      <c r="L141">
+        <v>36.28</v>
+      </c>
+      <c r="M141">
+        <v>34</v>
+      </c>
+      <c r="N141">
+        <v>31.8</v>
+      </c>
+      <c r="O141">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="E142">
+        <v>1.34</v>
+      </c>
+      <c r="F142">
+        <v>0.36</v>
+      </c>
+      <c r="I142">
+        <v>0.36</v>
+      </c>
+      <c r="J142">
+        <v>0.63</v>
+      </c>
+      <c r="K142">
+        <v>2.82</v>
+      </c>
+      <c r="L142">
+        <v>13.7</v>
+      </c>
+      <c r="M142">
+        <v>31</v>
+      </c>
+      <c r="N142">
+        <v>30.7</v>
+      </c>
+      <c r="O142">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>65</v>
+      </c>
+      <c r="C144">
+        <v>22.73</v>
+      </c>
+      <c r="D144">
+        <v>24.27</v>
+      </c>
+      <c r="E144">
+        <v>1.58</v>
+      </c>
+      <c r="F144">
+        <v>0.94</v>
+      </c>
+      <c r="I144">
+        <v>0.64</v>
+      </c>
+      <c r="J144">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K144">
+        <v>5.05</v>
+      </c>
+      <c r="L144">
+        <v>36.28</v>
+      </c>
+      <c r="M144">
+        <v>34</v>
+      </c>
+      <c r="N144">
+        <v>31.8</v>
+      </c>
+      <c r="O144">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145">
+        <v>20.81</v>
+      </c>
+      <c r="D145">
+        <v>27.3</v>
+      </c>
+      <c r="E145">
+        <v>1.58</v>
+      </c>
+      <c r="F145">
+        <v>0.76</v>
+      </c>
+      <c r="I145">
+        <v>0.69</v>
+      </c>
+      <c r="J145">
+        <v>1.92</v>
+      </c>
+      <c r="K145">
+        <v>3.39</v>
+      </c>
+      <c r="L145">
+        <v>15.59</v>
+      </c>
+      <c r="M145">
+        <v>29</v>
+      </c>
+      <c r="N145">
+        <v>29</v>
+      </c>
+      <c r="O145">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146">
+        <v>20.81</v>
+      </c>
+      <c r="D146">
+        <v>27.3</v>
+      </c>
+      <c r="E146">
+        <v>1.58</v>
+      </c>
+      <c r="F146">
+        <v>0.76</v>
+      </c>
+      <c r="I146">
+        <v>0.7</v>
+      </c>
+      <c r="J146">
+        <v>1.95</v>
+      </c>
+      <c r="K146">
+        <v>3.4</v>
+      </c>
+      <c r="L146">
+        <v>15.66</v>
+      </c>
+      <c r="M146">
+        <v>29</v>
+      </c>
+      <c r="N146">
+        <v>29.3</v>
+      </c>
+      <c r="O146">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147">
+        <v>17.87</v>
+      </c>
+      <c r="D147">
+        <v>25.42</v>
+      </c>
+      <c r="E147">
+        <v>1.58</v>
+      </c>
+      <c r="F147">
+        <v>0.7</v>
+      </c>
+      <c r="I147">
+        <v>0.52</v>
+      </c>
+      <c r="J147">
+        <v>1.74</v>
+      </c>
+      <c r="K147">
+        <v>5.09</v>
+      </c>
+      <c r="L147">
+        <v>37.76</v>
+      </c>
+      <c r="M147">
+        <v>36</v>
+      </c>
+      <c r="N147">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="O147">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149">
+        <v>22.73</v>
+      </c>
+      <c r="D149">
+        <v>24.27</v>
+      </c>
+      <c r="E149">
+        <v>1.58</v>
+      </c>
+      <c r="F149">
+        <v>0.94</v>
+      </c>
+      <c r="I149">
+        <v>0.64</v>
+      </c>
+      <c r="J149">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K149">
+        <v>5.05</v>
+      </c>
+      <c r="L149">
+        <v>36.28</v>
+      </c>
+      <c r="M149">
+        <v>34</v>
+      </c>
+      <c r="N149">
+        <v>31.8</v>
+      </c>
+      <c r="O149">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150">
+        <v>23.47</v>
+      </c>
+      <c r="D150">
+        <v>28.77</v>
+      </c>
+      <c r="E150">
+        <v>1.58</v>
+      </c>
+      <c r="F150">
+        <v>0.82</v>
+      </c>
+      <c r="I150">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J150">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K150">
+        <v>6.23</v>
+      </c>
+      <c r="L150">
+        <v>52.45</v>
+      </c>
+      <c r="M150">
+        <v>32</v>
+      </c>
+      <c r="N150">
+        <v>31.7</v>
+      </c>
+      <c r="O150">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151">
+        <v>25.41</v>
+      </c>
+      <c r="D151">
+        <v>31.58</v>
+      </c>
+      <c r="E151">
+        <v>1.49</v>
+      </c>
+      <c r="F151">
+        <v>0.8</v>
+      </c>
+      <c r="I151">
+        <v>0.39</v>
+      </c>
+      <c r="J151">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K151">
+        <v>11.19</v>
+      </c>
+      <c r="L151">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="M151">
+        <v>33</v>
+      </c>
+      <c r="N151">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O151">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152">
+        <v>29.38</v>
+      </c>
+      <c r="D152">
+        <v>27.47</v>
+      </c>
+      <c r="E152">
+        <v>1.58</v>
+      </c>
+      <c r="F152">
+        <v>1.07</v>
+      </c>
+      <c r="I152">
+        <v>0.45</v>
+      </c>
+      <c r="J152">
+        <v>2.86</v>
+      </c>
+      <c r="K152">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="L152">
+        <v>101.08</v>
+      </c>
+      <c r="M152">
+        <v>32</v>
+      </c>
+      <c r="N152">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="O152">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153">
+        <v>24.79</v>
+      </c>
+      <c r="D153">
+        <v>32.5</v>
+      </c>
+      <c r="E153">
+        <v>1.58</v>
+      </c>
+      <c r="F153">
+        <v>0.76</v>
+      </c>
+      <c r="I153">
+        <v>0.46</v>
+      </c>
+      <c r="J153">
+        <v>2.5</v>
+      </c>
+      <c r="K153">
+        <v>9.91</v>
+      </c>
+      <c r="L153">
+        <v>117.28</v>
+      </c>
+      <c r="M153">
+        <v>27</v>
+      </c>
+      <c r="N153">
+        <v>27.8</v>
+      </c>
+      <c r="O153">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>111.95</v>
+      </c>
+      <c r="D158">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="E158">
+        <v>0.38</v>
+      </c>
+      <c r="F158">
+        <v>3.27</v>
+      </c>
+      <c r="I158">
+        <v>0.26</v>
+      </c>
+      <c r="J158">
+        <v>3.94</v>
+      </c>
+      <c r="K158">
+        <v>24.16</v>
+      </c>
+      <c r="L158">
+        <v>616.86</v>
+      </c>
+      <c r="M158">
+        <v>107</v>
+      </c>
+      <c r="N158">
+        <v>38.5</v>
+      </c>
+      <c r="O158">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>157.85</v>
+      </c>
+      <c r="D159">
+        <v>22.12</v>
+      </c>
+      <c r="E159">
+        <v>0.38</v>
+      </c>
+      <c r="F159">
+        <v>7.14</v>
+      </c>
+      <c r="I159">
+        <v>0.3</v>
+      </c>
+      <c r="J159">
+        <v>3</v>
+      </c>
+      <c r="K159">
+        <v>18.32</v>
+      </c>
+      <c r="L159">
+        <v>341.18</v>
+      </c>
+      <c r="M159">
+        <v>63</v>
+      </c>
+      <c r="N159">
+        <v>42.3</v>
+      </c>
+      <c r="O159">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/results_notes.xlsx
+++ b/scripts/results_notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25545" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="25160" windowHeight="11040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="83">
+  <si>
+    <t>sim15:</t>
+  </si>
+  <si>
+    <t>sim16:</t>
+  </si>
   <si>
     <t>Inputs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,17 +305,32 @@
     <t>sim14:</t>
   </si>
   <si>
-    <t>sim 15:</t>
+    <t>sim16</t>
   </si>
   <si>
-    <t>sim16</t>
+    <t>90s-00s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to rerun 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t think these results are the most accurate because the simulations didn’t have the best model for IV premium over 40d vol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -328,7 +344,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +363,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -377,6 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,126 +736,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:Z238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="3" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
         <v>59</v>
       </c>
-      <c r="O2" t="s">
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
       <c r="Y3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="B4" s="1">
         <v>30842</v>
       </c>
@@ -840,7 +863,7 @@
         <v>42073</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>7.87</v>
@@ -870,7 +893,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>42391</v>
       </c>
@@ -896,13 +919,13 @@
         <v>0.4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6">
         <v>7.95</v>
@@ -926,7 +949,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="7" customFormat="1">
       <c r="A7" s="5">
         <v>42391</v>
       </c>
@@ -952,13 +975,13 @@
         <v>0.4</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>9.65</v>
@@ -988,7 +1011,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>42391</v>
       </c>
@@ -1014,13 +1037,13 @@
         <v>0.4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8">
         <v>8.9</v>
@@ -1044,7 +1067,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>42391</v>
       </c>
@@ -1070,13 +1093,13 @@
         <v>0.4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M10">
         <v>9.65</v>
@@ -1106,7 +1129,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>42391</v>
       </c>
@@ -1132,13 +1155,13 @@
         <v>0.4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M11">
         <v>10.38</v>
@@ -1168,7 +1191,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>42391</v>
       </c>
@@ -1194,13 +1217,13 @@
         <v>0.4</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M12">
         <v>10.83</v>
@@ -1230,7 +1253,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>42391</v>
       </c>
@@ -1256,13 +1279,13 @@
         <v>0.4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M14">
         <v>10.38</v>
@@ -1292,7 +1315,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>42391</v>
       </c>
@@ -1318,13 +1341,13 @@
         <v>0.4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M15">
         <v>12.79</v>
@@ -1354,7 +1377,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>42391</v>
       </c>
@@ -1380,13 +1403,13 @@
         <v>0.4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16">
         <v>15.08</v>
@@ -1416,7 +1439,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>42391</v>
       </c>
@@ -1442,13 +1465,13 @@
         <v>0.4</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17">
         <v>17.239999999999998</v>
@@ -1478,7 +1501,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>42391</v>
       </c>
@@ -1504,13 +1527,13 @@
         <v>0.4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M18">
         <v>19.29</v>
@@ -1540,7 +1563,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="7" customFormat="1">
       <c r="A19" s="1">
         <v>42391</v>
       </c>
@@ -1566,13 +1589,13 @@
         <v>0.4</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
         <v>21.2</v>
@@ -1602,7 +1625,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>42391</v>
       </c>
@@ -1628,13 +1651,13 @@
         <v>0.4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M20">
         <v>24.73</v>
@@ -1664,7 +1687,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>42391</v>
       </c>
@@ -1690,13 +1713,13 @@
         <v>0.4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M21">
         <v>27.8</v>
@@ -1726,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>42391</v>
       </c>
@@ -1752,13 +1775,13 @@
         <v>0.4</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M22">
         <v>37.799999999999997</v>
@@ -1788,7 +1811,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>42391</v>
       </c>
@@ -1814,13 +1837,13 @@
         <v>0.4</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M23">
         <v>35.4</v>
@@ -1850,7 +1873,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>42391</v>
       </c>
@@ -1876,13 +1899,13 @@
         <v>0.4</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M25">
         <v>15.13</v>
@@ -1912,7 +1935,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="7" customFormat="1">
       <c r="A26" s="5">
         <v>42391</v>
       </c>
@@ -1938,13 +1961,13 @@
         <v>0.4</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M26" s="7">
         <v>21.2</v>
@@ -1974,7 +1997,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>42391</v>
       </c>
@@ -2000,13 +2023,13 @@
         <v>0.4</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M27">
         <v>16.8</v>
@@ -2036,7 +2059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>42391</v>
       </c>
@@ -2062,13 +2085,13 @@
         <v>0.4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M29">
         <v>17.91</v>
@@ -2098,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>42391</v>
       </c>
@@ -2124,13 +2147,13 @@
         <v>0.4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M30">
         <v>21.2</v>
@@ -2160,7 +2183,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>42391</v>
       </c>
@@ -2186,13 +2209,13 @@
         <v>0.4</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M31">
         <v>22.3</v>
@@ -2222,7 +2245,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>42391</v>
       </c>
@@ -2248,13 +2271,13 @@
         <v>0.4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M32">
         <v>23.8</v>
@@ -2284,7 +2307,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>42391</v>
       </c>
@@ -2310,13 +2333,13 @@
         <v>0.4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M33">
         <v>26.2</v>
@@ -2346,7 +2369,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" s="7" customFormat="1">
       <c r="A34" s="1">
         <v>42391</v>
       </c>
@@ -2372,13 +2395,13 @@
         <v>0.4</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M34" s="7">
         <v>28.5</v>
@@ -2408,7 +2431,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>42391</v>
       </c>
@@ -2434,13 +2457,13 @@
         <v>0.4</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M35">
         <v>34.729999999999997</v>
@@ -2470,7 +2493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>42391</v>
       </c>
@@ -2496,13 +2519,13 @@
         <v>0.4</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M36">
         <v>30</v>
@@ -2532,7 +2555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>42391</v>
       </c>
@@ -2558,13 +2581,13 @@
         <v>0.4</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M37">
         <v>32.299999999999997</v>
@@ -2594,7 +2617,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -2602,7 +2625,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>42391</v>
       </c>
@@ -2628,13 +2651,13 @@
         <v>0.4</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M39">
         <v>23.79</v>
@@ -2664,7 +2687,7 @@
         <v>58.66</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>42391</v>
       </c>
@@ -2690,13 +2713,13 @@
         <v>0.4</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40">
         <v>21.2</v>
@@ -2726,7 +2749,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>42391</v>
       </c>
@@ -2752,13 +2775,13 @@
         <v>0.4</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M41">
         <v>22.8</v>
@@ -2788,7 +2811,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>42391</v>
       </c>
@@ -2814,13 +2837,13 @@
         <v>0.3</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M42">
         <v>21.3</v>
@@ -2850,7 +2873,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>42391</v>
       </c>
@@ -2876,13 +2899,13 @@
         <v>0.4</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M43">
         <v>21.2</v>
@@ -2912,7 +2935,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42391</v>
       </c>
@@ -2938,13 +2961,13 @@
         <v>0.5</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M44">
         <v>21.2</v>
@@ -2974,7 +2997,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>42391</v>
       </c>
@@ -3000,13 +3023,13 @@
         <v>0.4</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M46">
         <v>21.2</v>
@@ -3036,7 +3059,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>42391</v>
       </c>
@@ -3062,13 +3085,13 @@
         <v>0.4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M47">
         <v>21.14</v>
@@ -3098,7 +3121,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>42391</v>
       </c>
@@ -3124,13 +3147,13 @@
         <v>0.4</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M48">
         <v>20.14</v>
@@ -3160,7 +3183,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>42391</v>
       </c>
@@ -3186,13 +3209,13 @@
         <v>0.4</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M49">
         <v>22</v>
@@ -3222,7 +3245,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>42391</v>
       </c>
@@ -3248,13 +3271,13 @@
         <v>0.4</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="K50" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M50">
         <v>15.11</v>
@@ -3284,7 +3307,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>42391</v>
       </c>
@@ -3310,13 +3333,13 @@
         <v>0.4</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M51">
         <v>16.399999999999999</v>
@@ -3346,7 +3369,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>42391</v>
       </c>
@@ -3372,13 +3395,13 @@
         <v>0.4</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M52">
         <v>20.8</v>
@@ -3408,7 +3431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -3416,7 +3439,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -3424,7 +3447,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>42404</v>
       </c>
@@ -3435,9 +3458,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25">
       <c r="A56" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3446,7 +3469,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -3454,7 +3477,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25">
       <c r="B58" s="1">
         <v>20284</v>
       </c>
@@ -3462,7 +3485,7 @@
         <v>31409</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M58">
         <v>6.02</v>
@@ -3492,7 +3515,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -3500,7 +3523,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>42404</v>
       </c>
@@ -3526,16 +3549,16 @@
         <v>0.4</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M60">
         <v>12.13</v>
@@ -3571,7 +3594,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>42404</v>
       </c>
@@ -3597,16 +3620,16 @@
         <v>0.4</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M61">
         <v>17.68</v>
@@ -3642,7 +3665,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>42404</v>
       </c>
@@ -3668,16 +3691,16 @@
         <v>0.4</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M62">
         <v>22.73</v>
@@ -3713,7 +3736,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>42404</v>
       </c>
@@ -3739,16 +3762,16 @@
         <v>0.4</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M63">
         <v>27.33</v>
@@ -3784,7 +3807,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>42404</v>
       </c>
@@ -3810,16 +3833,16 @@
         <v>0.4</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M64">
         <v>31.53</v>
@@ -3855,7 +3878,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>42404</v>
       </c>
@@ -3881,16 +3904,16 @@
         <v>0.4</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M65">
         <v>35.36</v>
@@ -3926,7 +3949,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -3934,7 +3957,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>42404</v>
       </c>
@@ -3960,16 +3983,16 @@
         <v>0.4</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M67">
         <v>157.85</v>
@@ -4005,7 +4028,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>42404</v>
       </c>
@@ -4031,16 +4054,16 @@
         <v>0.4</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M68">
         <v>51.37</v>
@@ -4076,7 +4099,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>42404</v>
       </c>
@@ -4102,16 +4125,16 @@
         <v>0.4</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M69">
         <v>22.73</v>
@@ -4147,7 +4170,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>42404</v>
       </c>
@@ -4173,16 +4196,16 @@
         <v>0.4</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M70">
         <v>12</v>
@@ -4218,7 +4241,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -4226,7 +4249,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>42404</v>
       </c>
@@ -4252,16 +4275,16 @@
         <v>0.4</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M72">
         <v>22.73</v>
@@ -4297,7 +4320,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>42404</v>
       </c>
@@ -4323,16 +4346,16 @@
         <v>0.4</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M73">
         <v>20.81</v>
@@ -4368,7 +4391,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>42404</v>
       </c>
@@ -4394,16 +4417,16 @@
         <v>0.4</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M74">
         <v>20.81</v>
@@ -4439,7 +4462,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>42404</v>
       </c>
@@ -4465,16 +4488,16 @@
         <v>0.4</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M75">
         <v>17.87</v>
@@ -4510,7 +4533,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -4518,7 +4541,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>42404</v>
       </c>
@@ -4544,16 +4567,16 @@
         <v>0.4</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M77">
         <v>22.73</v>
@@ -4589,7 +4612,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>42404</v>
       </c>
@@ -4615,16 +4638,16 @@
         <v>0.4</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M78">
         <v>23.47</v>
@@ -4660,7 +4683,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>42404</v>
       </c>
@@ -4686,16 +4709,16 @@
         <v>0.4</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M79">
         <v>25.41</v>
@@ -4731,7 +4754,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>42404</v>
       </c>
@@ -4757,16 +4780,16 @@
         <v>0.4</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M80">
         <v>29.38</v>
@@ -4802,7 +4825,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26">
       <c r="A81" s="1">
         <v>42404</v>
       </c>
@@ -4828,16 +4851,16 @@
         <v>0.4</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M81">
         <v>24.79</v>
@@ -4873,7 +4896,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="8"/>
@@ -4885,7 +4908,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="8"/>
@@ -4897,7 +4920,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26">
       <c r="B84" s="1">
         <v>20284</v>
       </c>
@@ -4905,7 +4928,7 @@
         <v>42073</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M84">
         <v>6.66</v>
@@ -4935,7 +4958,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -4943,7 +4966,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26">
       <c r="A86" s="1">
         <v>42404</v>
       </c>
@@ -4969,16 +4992,16 @@
         <v>0.4</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M86">
         <v>10.5</v>
@@ -5014,7 +5037,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26">
       <c r="A87" s="1">
         <v>42404</v>
       </c>
@@ -5040,16 +5063,16 @@
         <v>0.4</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M87">
         <v>13.85</v>
@@ -5085,7 +5108,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26">
       <c r="A88" s="1">
         <v>42404</v>
       </c>
@@ -5111,16 +5134,16 @@
         <v>0.4</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M88">
         <v>16.78</v>
@@ -5156,7 +5179,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26">
       <c r="A89" s="1">
         <v>42404</v>
       </c>
@@ -5182,16 +5205,16 @@
         <v>0.4</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M89">
         <v>19.34</v>
@@ -5227,7 +5250,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26">
       <c r="A90" s="1">
         <v>42404</v>
       </c>
@@ -5253,16 +5276,16 @@
         <v>0.4</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M90">
         <v>21.5</v>
@@ -5298,7 +5321,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26">
       <c r="A91" s="1">
         <v>42404</v>
       </c>
@@ -5324,16 +5347,16 @@
         <v>0.4</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M91">
         <v>23.5</v>
@@ -5369,7 +5392,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -5377,7 +5400,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26">
       <c r="A93" s="1">
         <v>42404</v>
       </c>
@@ -5403,16 +5426,16 @@
         <v>0.4</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L93" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M93">
         <v>111.95</v>
@@ -5448,7 +5471,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26">
       <c r="A94" s="1">
         <v>42404</v>
       </c>
@@ -5474,16 +5497,16 @@
         <v>0.4</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M94">
         <v>38.799999999999997</v>
@@ -5519,10 +5542,10 @@
         <v>4.34</v>
       </c>
       <c r="Z94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="1">
         <v>42404</v>
       </c>
@@ -5548,16 +5571,16 @@
         <v>0.4</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M95">
         <v>16.78</v>
@@ -5593,7 +5616,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26">
       <c r="A96" s="1">
         <v>42404</v>
       </c>
@@ -5619,16 +5642,16 @@
         <v>0.4</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M96">
         <v>8.9</v>
@@ -5664,7 +5687,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
@@ -5672,7 +5695,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>42404</v>
       </c>
@@ -5698,16 +5721,16 @@
         <v>0.4</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M98">
         <v>16.78</v>
@@ -5743,7 +5766,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>42404</v>
       </c>
@@ -5769,16 +5792,16 @@
         <v>0.4</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M99">
         <v>16.63</v>
@@ -5814,7 +5837,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>42404</v>
       </c>
@@ -5840,16 +5863,16 @@
         <v>0.4</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M100">
         <v>15.73</v>
@@ -5885,7 +5908,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>42404</v>
       </c>
@@ -5911,16 +5934,16 @@
         <v>0.4</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M101">
         <v>14.65</v>
@@ -5956,7 +5979,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2"/>
@@ -5964,7 +5987,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>42404</v>
       </c>
@@ -5990,16 +6013,16 @@
         <v>0.4</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M103">
         <v>16.78</v>
@@ -6035,7 +6058,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>42404</v>
       </c>
@@ -6061,16 +6084,16 @@
         <v>0.4</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M104">
         <v>17.2</v>
@@ -6106,7 +6129,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>42404</v>
       </c>
@@ -6132,16 +6155,16 @@
         <v>0.4</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M105">
         <v>18.2</v>
@@ -6177,7 +6200,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>42404</v>
       </c>
@@ -6203,16 +6226,16 @@
         <v>0.4</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M106">
         <v>20.3</v>
@@ -6248,7 +6271,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>42404</v>
       </c>
@@ -6274,16 +6297,16 @@
         <v>0.4</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M107">
         <v>17.399999999999999</v>
@@ -6319,7 +6342,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8"/>
@@ -6331,7 +6354,7 @@
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="8"/>
@@ -6343,957 +6366,4615 @@
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25">
+      <c r="B110" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C110" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E110" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110">
+        <v>7.87</v>
+      </c>
+      <c r="N110">
+        <v>56.7</v>
+      </c>
+      <c r="P110">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q110">
+        <v>0.05</v>
+      </c>
+      <c r="R110">
+        <v>0.05</v>
+      </c>
+      <c r="S110">
+        <v>0.32</v>
+      </c>
+      <c r="T110">
+        <v>0.33</v>
+      </c>
+      <c r="U110">
+        <v>-0.38</v>
+      </c>
+      <c r="V110">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B112" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C112" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D112" s="8">
+        <v>1</v>
+      </c>
+      <c r="E112" s="9">
+        <v>20</v>
+      </c>
+      <c r="F112" s="9">
+        <v>10</v>
+      </c>
+      <c r="G112" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H112" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M112">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N112">
+        <v>47.84</v>
+      </c>
+      <c r="O112">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P112">
+        <v>0.2</v>
+      </c>
+      <c r="S112">
+        <v>0.46</v>
+      </c>
+      <c r="T112">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U112">
+        <v>0.01</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+      <c r="W112">
+        <v>24</v>
+      </c>
+      <c r="X112">
+        <v>22.4</v>
+      </c>
+      <c r="Y112">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="1">
+        <v>42404</v>
+      </c>
       <c r="B113" s="1">
-        <v>20284</v>
+        <v>30842</v>
       </c>
       <c r="C113" s="1">
-        <v>31409</v>
-      </c>
-      <c r="E113" t="s">
-        <v>29</v>
+        <v>42073</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2</v>
+      </c>
+      <c r="E113" s="9">
+        <v>20</v>
+      </c>
+      <c r="F113" s="9">
+        <v>10</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="M113">
-        <v>6.02</v>
+        <v>10.55</v>
       </c>
       <c r="N113">
-        <v>48.2</v>
+        <v>40.96</v>
+      </c>
+      <c r="O113">
+        <v>1.6</v>
       </c>
       <c r="P113">
-        <v>0.12</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U113">
-        <v>-0.45</v>
+        <v>0.71</v>
       </c>
       <c r="V113">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4.09</v>
+      </c>
+      <c r="W113">
+        <v>24</v>
+      </c>
+      <c r="X113">
+        <v>22</v>
+      </c>
+      <c r="Y113">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B114" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C114" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D114" s="8">
+        <v>3</v>
+      </c>
+      <c r="E114" s="9">
+        <v>20</v>
+      </c>
+      <c r="F114" s="9">
+        <v>10</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H114" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M114">
+        <v>11.53</v>
+      </c>
+      <c r="N114">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="O114">
+        <v>1.6</v>
+      </c>
+      <c r="P114">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S114">
+        <v>0.53</v>
+      </c>
+      <c r="T114">
+        <v>1.23</v>
+      </c>
+      <c r="U114">
+        <v>1.98</v>
+      </c>
+      <c r="V114">
+        <v>11.15</v>
+      </c>
+      <c r="W114">
+        <v>24</v>
+      </c>
+      <c r="X114">
+        <v>22</v>
+      </c>
+      <c r="Y114">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="1">
+        <v>42404</v>
+      </c>
       <c r="B115" s="1">
-        <v>24475</v>
+        <v>30842</v>
       </c>
       <c r="C115" s="1">
-        <v>38716</v>
-      </c>
-      <c r="E115" t="s">
-        <v>29</v>
+        <v>42073</v>
+      </c>
+      <c r="D115" s="8">
+        <v>4</v>
+      </c>
+      <c r="E115" s="9">
+        <v>20</v>
+      </c>
+      <c r="F115" s="9">
+        <v>10</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H115" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="M115">
-        <v>6.63</v>
+        <v>12.25</v>
       </c>
       <c r="N115">
-        <v>56.7</v>
+        <v>41</v>
+      </c>
+      <c r="O115">
+        <v>1.6</v>
       </c>
       <c r="P115">
-        <v>0.12</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S115">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T115">
-        <v>0.05</v>
+        <v>1.41</v>
       </c>
       <c r="U115">
-        <v>-0.45</v>
+        <v>3.12</v>
       </c>
       <c r="V115">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+        <v>18.55</v>
+      </c>
+      <c r="W115">
+        <v>24</v>
+      </c>
+      <c r="X115">
+        <v>22</v>
+      </c>
+      <c r="Y115">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B116" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C116" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D116" s="8">
+        <v>5</v>
+      </c>
+      <c r="E116" s="9">
+        <v>20</v>
+      </c>
+      <c r="F116" s="9">
+        <v>10</v>
+      </c>
+      <c r="G116" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H116" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M116">
+        <v>12.67</v>
+      </c>
+      <c r="N116">
+        <v>41.24</v>
+      </c>
+      <c r="O116">
+        <v>1.6</v>
+      </c>
+      <c r="P116">
+        <v>0.31</v>
+      </c>
+      <c r="S116">
+        <v>0.44</v>
+      </c>
+      <c r="T116">
+        <v>1.34</v>
+      </c>
+      <c r="U116">
+        <v>3.93</v>
+      </c>
+      <c r="V116">
+        <v>24.5</v>
+      </c>
+      <c r="W116">
+        <v>24</v>
+      </c>
+      <c r="X116">
+        <v>22</v>
+      </c>
+      <c r="Y116">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="1">
+        <v>42404</v>
+      </c>
       <c r="B117" s="1">
         <v>30842</v>
       </c>
       <c r="C117" s="1">
         <v>42073</v>
       </c>
-      <c r="E117" t="s">
-        <v>29</v>
+      <c r="D117" s="8">
+        <v>6</v>
+      </c>
+      <c r="E117" s="9">
+        <v>20</v>
+      </c>
+      <c r="F117" s="9">
+        <v>10</v>
+      </c>
+      <c r="G117" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H117" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="M117">
-        <v>7.87</v>
+        <v>12.99</v>
       </c>
       <c r="N117">
-        <v>56.7</v>
+        <v>41.57</v>
+      </c>
+      <c r="O117">
+        <v>1.96</v>
       </c>
       <c r="P117">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q117">
-        <v>0.05</v>
-      </c>
-      <c r="R117">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="S117">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="T117">
-        <v>0.33</v>
+        <v>1.34</v>
       </c>
       <c r="U117">
-        <v>-0.38</v>
+        <v>4.49</v>
       </c>
       <c r="V117">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+        <v>28.74</v>
+      </c>
+      <c r="W117">
+        <v>24</v>
+      </c>
+      <c r="X117">
+        <v>22</v>
+      </c>
+      <c r="Y117">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="2"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="1">
+        <v>42404</v>
+      </c>
       <c r="B119" s="1">
-        <v>20284</v>
+        <v>30842</v>
       </c>
       <c r="C119" s="1">
         <v>42073</v>
       </c>
-      <c r="E119" t="s">
+      <c r="D119" s="8">
+        <v>3</v>
+      </c>
+      <c r="E119" s="9">
+        <v>40</v>
+      </c>
+      <c r="F119" s="9">
+        <v>10</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L119" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M119">
+        <v>10.99</v>
+      </c>
+      <c r="N119">
+        <v>36.99</v>
+      </c>
+      <c r="O119">
+        <v>2.91</v>
+      </c>
+      <c r="P119">
+        <v>0.3</v>
+      </c>
+      <c r="S119">
+        <v>0.52</v>
+      </c>
+      <c r="T119">
+        <v>1.17</v>
+      </c>
+      <c r="U119">
+        <v>5.07</v>
+      </c>
+      <c r="V119">
+        <v>39.74</v>
+      </c>
+      <c r="W119">
+        <v>19</v>
+      </c>
+      <c r="X119">
+        <v>17.8</v>
+      </c>
+      <c r="Y119">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B120" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C120" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D120" s="8">
+        <v>3</v>
+      </c>
+      <c r="E120" s="9">
+        <v>30</v>
+      </c>
+      <c r="F120" s="9">
+        <v>10</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H120" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M120">
+        <v>27.87</v>
+      </c>
+      <c r="N120">
+        <v>35.06</v>
+      </c>
+      <c r="O120">
+        <v>0.96</v>
+      </c>
+      <c r="P120">
+        <v>0.79</v>
+      </c>
+      <c r="S120">
+        <v>0.77</v>
+      </c>
+      <c r="T120">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="U120">
+        <v>3.68</v>
+      </c>
+      <c r="V120">
+        <v>19.32</v>
+      </c>
+      <c r="W120">
+        <v>32</v>
+      </c>
+      <c r="X120">
+        <v>27.6</v>
+      </c>
+      <c r="Y120">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B121" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C121" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D121" s="8">
+        <v>3</v>
+      </c>
+      <c r="E121" s="9">
+        <v>20</v>
+      </c>
+      <c r="F121" s="9">
+        <v>10</v>
+      </c>
+      <c r="G121" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H121" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L121" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M121">
+        <v>11.53</v>
+      </c>
+      <c r="N121">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="O121">
+        <v>1.6</v>
+      </c>
+      <c r="P121">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S121">
+        <v>0.53</v>
+      </c>
+      <c r="T121">
+        <v>1.23</v>
+      </c>
+      <c r="U121">
+        <v>1.98</v>
+      </c>
+      <c r="V121">
+        <v>11.15</v>
+      </c>
+      <c r="W121">
+        <v>24</v>
+      </c>
+      <c r="X121">
+        <v>22</v>
+      </c>
+      <c r="Y121">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B122" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C122" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D122" s="8">
+        <v>3</v>
+      </c>
+      <c r="E122" s="9">
+        <v>10</v>
+      </c>
+      <c r="F122" s="9">
+        <v>10</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M122">
+        <v>6.69</v>
+      </c>
+      <c r="N122">
+        <v>41.66</v>
+      </c>
+      <c r="O122">
+        <v>1.46</v>
+      </c>
+      <c r="P122">
+        <v>0.16</v>
+      </c>
+      <c r="S122">
+        <v>0.31</v>
+      </c>
+      <c r="T122">
+        <v>0.39</v>
+      </c>
+      <c r="U122">
+        <v>0.48</v>
+      </c>
+      <c r="V122">
+        <v>2.9</v>
+      </c>
+      <c r="W122">
+        <v>22</v>
+      </c>
+      <c r="X122">
+        <v>21</v>
+      </c>
+      <c r="Y122">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="2"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B124" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C124" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D124" s="8">
+        <v>3</v>
+      </c>
+      <c r="E124" s="9">
+        <v>20</v>
+      </c>
+      <c r="F124" s="9">
+        <v>10</v>
+      </c>
+      <c r="G124" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H124" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M124">
+        <v>11.53</v>
+      </c>
+      <c r="N124">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="O124">
+        <v>1.6</v>
+      </c>
+      <c r="P124">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S124">
+        <v>0.53</v>
+      </c>
+      <c r="T124">
+        <v>1.23</v>
+      </c>
+      <c r="U124">
+        <v>1.98</v>
+      </c>
+      <c r="V124">
+        <v>11.15</v>
+      </c>
+      <c r="W124">
+        <v>24</v>
+      </c>
+      <c r="X124">
+        <v>22</v>
+      </c>
+      <c r="Y124">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B125" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C125" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D125" s="8">
+        <v>3</v>
+      </c>
+      <c r="E125" s="9">
+        <v>20</v>
+      </c>
+      <c r="F125" s="9">
+        <v>10</v>
+      </c>
+      <c r="G125" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H125" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M125">
+        <v>14.16</v>
+      </c>
+      <c r="N125">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="O125">
+        <v>2.54</v>
+      </c>
+      <c r="P125">
+        <v>0.38</v>
+      </c>
+      <c r="S125">
+        <v>0.66</v>
+      </c>
+      <c r="T125">
+        <v>1.42</v>
+      </c>
+      <c r="U125">
+        <v>1.94</v>
+      </c>
+      <c r="V125">
+        <v>8.06</v>
+      </c>
+      <c r="W125">
+        <v>27</v>
+      </c>
+      <c r="X125">
+        <v>26.2</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C126" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D126" s="8">
+        <v>3</v>
+      </c>
+      <c r="E126" s="9">
+        <v>20</v>
+      </c>
+      <c r="F126" s="9">
+        <v>10</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H126" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M126">
+        <v>11.7</v>
+      </c>
+      <c r="N126">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="O126">
+        <v>2.31</v>
+      </c>
+      <c r="P126">
+        <v>0.3</v>
+      </c>
+      <c r="S126">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T126">
+        <v>1.34</v>
+      </c>
+      <c r="U126">
+        <v>1.75</v>
+      </c>
+      <c r="V126">
+        <v>7.72</v>
+      </c>
+      <c r="W126">
+        <v>25</v>
+      </c>
+      <c r="X126">
+        <v>25.3</v>
+      </c>
+      <c r="Y126">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B127" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C127" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>0.2</v>
+      </c>
+      <c r="H127">
+        <v>0.4</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M127">
+        <v>13.05</v>
+      </c>
+      <c r="N127">
+        <v>33.18</v>
+      </c>
+      <c r="O127">
+        <v>1.25</v>
+      </c>
+      <c r="P127">
+        <v>0.39</v>
+      </c>
+      <c r="S127">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T127">
+        <v>1.35</v>
+      </c>
+      <c r="U127">
+        <v>2.78</v>
+      </c>
+      <c r="V127">
+        <v>15.06</v>
+      </c>
+      <c r="W127">
+        <v>27</v>
+      </c>
+      <c r="X127">
+        <v>24.5</v>
+      </c>
+      <c r="Y127">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B129" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C129" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D129" s="8">
+        <v>3</v>
+      </c>
+      <c r="E129" s="9">
+        <v>20</v>
+      </c>
+      <c r="F129" s="9">
+        <v>10</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H129" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L129" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M129">
+        <v>11.53</v>
+      </c>
+      <c r="N129">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="O129">
+        <v>1.6</v>
+      </c>
+      <c r="P129">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S129">
+        <v>0.53</v>
+      </c>
+      <c r="T129">
+        <v>1.23</v>
+      </c>
+      <c r="U129">
+        <v>1.98</v>
+      </c>
+      <c r="V129">
+        <v>11.15</v>
+      </c>
+      <c r="W129">
+        <v>24</v>
+      </c>
+      <c r="X129">
+        <v>22</v>
+      </c>
+      <c r="Y129">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B130" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C130" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D130" s="8">
+        <v>3</v>
+      </c>
+      <c r="E130" s="9">
+        <v>20</v>
+      </c>
+      <c r="F130" s="9">
+        <v>20</v>
+      </c>
+      <c r="G130" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H130" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M130">
+        <v>11.88</v>
+      </c>
+      <c r="N130">
+        <v>34.69</v>
+      </c>
+      <c r="O130">
+        <v>2.91</v>
+      </c>
+      <c r="P130">
+        <v>0.34</v>
+      </c>
+      <c r="S130">
+        <v>0.44</v>
+      </c>
+      <c r="T130">
+        <v>1.37</v>
+      </c>
+      <c r="U130">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="V130">
+        <v>33.74</v>
+      </c>
+      <c r="W130">
+        <v>18</v>
+      </c>
+      <c r="X130">
+        <v>16.8</v>
+      </c>
+      <c r="Y130">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B131" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C131" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D131" s="8">
+        <v>3</v>
+      </c>
+      <c r="E131" s="9">
+        <v>20</v>
+      </c>
+      <c r="F131" s="9">
+        <v>30</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H131" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M131">
+        <v>11.96</v>
+      </c>
+      <c r="N131">
+        <v>36.99</v>
+      </c>
+      <c r="O131">
+        <v>2.91</v>
+      </c>
+      <c r="P131">
+        <v>0.32</v>
+      </c>
+      <c r="S131">
+        <v>0.49</v>
+      </c>
+      <c r="T131">
+        <v>1.21</v>
+      </c>
+      <c r="U131">
+        <v>6.47</v>
+      </c>
+      <c r="V131">
+        <v>63.1</v>
+      </c>
+      <c r="W131">
+        <v>18</v>
+      </c>
+      <c r="X131">
+        <v>16.8</v>
+      </c>
+      <c r="Y131">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="A132" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B132" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C132" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D132" s="8">
+        <v>3</v>
+      </c>
+      <c r="E132" s="9">
+        <v>20</v>
+      </c>
+      <c r="F132" s="9">
+        <v>40</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H132" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M132">
+        <v>12.31</v>
+      </c>
+      <c r="N132">
+        <v>36.99</v>
+      </c>
+      <c r="O132">
+        <v>2.91</v>
+      </c>
+      <c r="P132">
+        <v>0.33</v>
+      </c>
+      <c r="S132">
+        <v>0.46</v>
+      </c>
+      <c r="T132">
+        <v>1.3</v>
+      </c>
+      <c r="U132">
+        <v>7.77</v>
+      </c>
+      <c r="V132">
+        <v>88.33</v>
+      </c>
+      <c r="W132">
+        <v>18</v>
+      </c>
+      <c r="X132">
+        <v>16.8</v>
+      </c>
+      <c r="Y132">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B133" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C133" s="1">
+        <v>42073</v>
+      </c>
+      <c r="D133" s="8">
+        <v>3</v>
+      </c>
+      <c r="E133" s="9">
+        <v>20</v>
+      </c>
+      <c r="F133" s="9">
+        <v>50</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H133" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M133">
+        <v>10.99</v>
+      </c>
+      <c r="N133">
+        <v>36.99</v>
+      </c>
+      <c r="O133">
+        <v>2.91</v>
+      </c>
+      <c r="P133">
+        <v>0.3</v>
+      </c>
+      <c r="S133">
+        <v>0.52</v>
+      </c>
+      <c r="T133">
+        <v>1.17</v>
+      </c>
+      <c r="U133">
+        <v>5.07</v>
+      </c>
+      <c r="V133">
+        <v>39.74</v>
+      </c>
+      <c r="W133">
+        <v>19</v>
+      </c>
+      <c r="X133">
+        <v>17.8</v>
+      </c>
+      <c r="Y133">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="11"/>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="11"/>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="B136" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C136" s="1">
+        <v>35063</v>
+      </c>
+      <c r="E136" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136">
+        <v>15.12</v>
+      </c>
+      <c r="N136">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O136">
+        <v>0.18</v>
+      </c>
+      <c r="P136">
+        <v>0.76</v>
+      </c>
+      <c r="S136">
+        <v>1.07</v>
+      </c>
+      <c r="T136">
+        <v>2.87</v>
+      </c>
+      <c r="U136">
+        <v>-0.46</v>
+      </c>
+      <c r="V136">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="1:25">
+      <c r="A138" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B138" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C138" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D138" s="8">
+        <v>1</v>
+      </c>
+      <c r="E138" s="9">
+        <v>20</v>
+      </c>
+      <c r="F138" s="9">
+        <v>10</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H138" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M138">
+        <v>15.31</v>
+      </c>
+      <c r="N138">
+        <v>13.1</v>
+      </c>
+      <c r="O138">
+        <v>0.27</v>
+      </c>
+      <c r="P138">
+        <v>1.17</v>
+      </c>
+      <c r="S138">
+        <v>1.06</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="V138">
+        <v>-0.17</v>
+      </c>
+      <c r="W138">
+        <v>8</v>
+      </c>
+      <c r="X138">
+        <v>25</v>
+      </c>
+      <c r="Y138">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="A139" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B139" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C139" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D139" s="8">
+        <v>2</v>
+      </c>
+      <c r="E139" s="9">
+        <v>20</v>
+      </c>
+      <c r="F139" s="9">
+        <v>10</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H139" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K139" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M139">
+        <v>16.09</v>
+      </c>
+      <c r="N139">
+        <v>13.23</v>
+      </c>
+      <c r="O139">
+        <v>0.76</v>
+      </c>
+      <c r="P139">
+        <v>1.22</v>
+      </c>
+      <c r="S139">
+        <v>0.86</v>
+      </c>
+      <c r="T139">
+        <v>3.09</v>
+      </c>
+      <c r="U139">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V139">
+        <v>-0.05</v>
+      </c>
+      <c r="W139">
+        <v>8</v>
+      </c>
+      <c r="X139">
+        <v>25</v>
+      </c>
+      <c r="Y139">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B140" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C140" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D140" s="8">
+        <v>3</v>
+      </c>
+      <c r="E140" s="9">
+        <v>20</v>
+      </c>
+      <c r="F140" s="9">
+        <v>10</v>
+      </c>
+      <c r="G140" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H140" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K140" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M140">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="N140">
+        <v>14.06</v>
+      </c>
+      <c r="O140">
+        <v>0.76</v>
+      </c>
+      <c r="P140">
+        <v>1.17</v>
+      </c>
+      <c r="S140">
+        <v>0.7</v>
+      </c>
+      <c r="T140">
+        <v>1.65</v>
+      </c>
+      <c r="U140">
+        <v>0.95</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>8</v>
+      </c>
+      <c r="X140">
+        <v>25</v>
+      </c>
+      <c r="Y140">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B141" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C141" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D141" s="8">
+        <v>4</v>
+      </c>
+      <c r="E141" s="9">
+        <v>20</v>
+      </c>
+      <c r="F141" s="9">
+        <v>10</v>
+      </c>
+      <c r="G141" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H141" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M141">
+        <v>16.79</v>
+      </c>
+      <c r="N141">
+        <v>15.23</v>
+      </c>
+      <c r="O141">
+        <v>0.76</v>
+      </c>
+      <c r="P141">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S141">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T141">
+        <v>1.47</v>
+      </c>
+      <c r="U141">
+        <v>2.19</v>
+      </c>
+      <c r="V141">
+        <v>12.25</v>
+      </c>
+      <c r="W141">
+        <v>8</v>
+      </c>
+      <c r="X141">
+        <v>25</v>
+      </c>
+      <c r="Y141">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B142" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C142" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D142" s="8">
+        <v>5</v>
+      </c>
+      <c r="E142" s="9">
+        <v>20</v>
+      </c>
+      <c r="F142" s="9">
+        <v>10</v>
+      </c>
+      <c r="G142" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H142" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M142">
+        <v>16.7</v>
+      </c>
+      <c r="N142">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O142">
+        <v>1.49</v>
+      </c>
+      <c r="P142">
+        <v>0.99</v>
+      </c>
+      <c r="S142">
+        <v>0.49</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>3.33</v>
+      </c>
+      <c r="V142">
+        <v>21.96</v>
+      </c>
+      <c r="W142">
+        <v>8</v>
+      </c>
+      <c r="X142">
+        <v>25</v>
+      </c>
+      <c r="Y142">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B143" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C143" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D143" s="8">
+        <v>6</v>
+      </c>
+      <c r="E143" s="9">
+        <v>20</v>
+      </c>
+      <c r="F143" s="9">
+        <v>10</v>
+      </c>
+      <c r="G143" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H143" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M143">
+        <v>16.55</v>
+      </c>
+      <c r="N143">
+        <v>20.48</v>
+      </c>
+      <c r="O143">
+        <v>1.92</v>
+      </c>
+      <c r="P143">
+        <v>0.81</v>
+      </c>
+      <c r="S143">
+        <v>0.43</v>
+      </c>
+      <c r="T143">
+        <v>1.22</v>
+      </c>
+      <c r="U143">
+        <v>4.21</v>
+      </c>
+      <c r="V143">
+        <v>30.48</v>
+      </c>
+      <c r="W143">
+        <v>8</v>
+      </c>
+      <c r="X143">
+        <v>25</v>
+      </c>
+      <c r="Y143">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B145" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C145" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D145" s="8">
+        <v>3</v>
+      </c>
+      <c r="E145" s="9">
+        <v>40</v>
+      </c>
+      <c r="F145" s="9">
+        <v>10</v>
+      </c>
+      <c r="G145" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H145" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L145" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M145">
+        <v>10.42</v>
+      </c>
+      <c r="N145">
+        <v>15.29</v>
+      </c>
+      <c r="O145">
+        <v>2.91</v>
+      </c>
+      <c r="P145">
+        <v>0.68</v>
+      </c>
+      <c r="S145">
+        <v>0.52</v>
+      </c>
+      <c r="T145">
+        <v>0.86</v>
+      </c>
+      <c r="U145">
+        <v>1.24</v>
+      </c>
+      <c r="V145">
+        <v>6.11</v>
+      </c>
+      <c r="W145">
+        <v>2</v>
+      </c>
+      <c r="X145">
+        <v>6.5</v>
+      </c>
+      <c r="Y145">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B146" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C146" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D146" s="8">
+        <v>3</v>
+      </c>
+      <c r="E146" s="9">
+        <v>30</v>
+      </c>
+      <c r="F146" s="9">
+        <v>10</v>
+      </c>
+      <c r="G146" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H146" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M146">
+        <v>32.44</v>
+      </c>
+      <c r="N146">
+        <v>14.22</v>
+      </c>
+      <c r="O146">
+        <v>0.75</v>
+      </c>
+      <c r="P146">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="S146">
+        <v>0.79</v>
+      </c>
+      <c r="T146">
+        <v>1.68</v>
+      </c>
+      <c r="U146">
+        <v>2.74</v>
+      </c>
+      <c r="V146">
+        <v>9.39</v>
+      </c>
+      <c r="W146">
+        <v>10</v>
+      </c>
+      <c r="X146">
+        <v>28.6</v>
+      </c>
+      <c r="Y146">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B147" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C147" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D147" s="8">
+        <v>3</v>
+      </c>
+      <c r="E147" s="9">
+        <v>20</v>
+      </c>
+      <c r="F147" s="9">
+        <v>10</v>
+      </c>
+      <c r="G147" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H147" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L147" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M147">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="N147">
+        <v>14.06</v>
+      </c>
+      <c r="O147">
+        <v>0.76</v>
+      </c>
+      <c r="P147">
+        <v>1.17</v>
+      </c>
+      <c r="S147">
+        <v>0.7</v>
+      </c>
+      <c r="T147">
+        <v>1.65</v>
+      </c>
+      <c r="U147">
+        <v>0.95</v>
+      </c>
+      <c r="V147">
+        <v>3.75</v>
+      </c>
+      <c r="W147">
+        <v>8</v>
+      </c>
+      <c r="X147">
+        <v>25</v>
+      </c>
+      <c r="Y147">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B148" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C148" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D148" s="8">
+        <v>3</v>
+      </c>
+      <c r="E148" s="9">
+        <v>10</v>
+      </c>
+      <c r="F148" s="9">
+        <v>10</v>
+      </c>
+      <c r="G148" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H148" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M148">
+        <v>10.46</v>
+      </c>
+      <c r="N148">
+        <v>15.56</v>
+      </c>
+      <c r="O148">
+        <v>0.86</v>
+      </c>
+      <c r="P148">
+        <v>0.67</v>
+      </c>
+      <c r="S148">
+        <v>0.74</v>
+      </c>
+      <c r="T148">
+        <v>1.35</v>
+      </c>
+      <c r="U148">
+        <v>-0.05</v>
+      </c>
+      <c r="V148">
+        <v>-0.2</v>
+      </c>
+      <c r="W148">
+        <v>3</v>
+      </c>
+      <c r="X148">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y148">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="2"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B150" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C150" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D150" s="8">
+        <v>3</v>
+      </c>
+      <c r="E150" s="9">
+        <v>20</v>
+      </c>
+      <c r="F150" s="9">
+        <v>10</v>
+      </c>
+      <c r="G150" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H150" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L150" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M150">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="N150">
+        <v>14.06</v>
+      </c>
+      <c r="O150">
+        <v>0.76</v>
+      </c>
+      <c r="P150">
+        <v>1.17</v>
+      </c>
+      <c r="S150">
+        <v>0.7</v>
+      </c>
+      <c r="T150">
+        <v>1.65</v>
+      </c>
+      <c r="U150">
+        <v>0.95</v>
+      </c>
+      <c r="V150">
+        <v>3.75</v>
+      </c>
+      <c r="W150">
+        <v>8</v>
+      </c>
+      <c r="X150">
+        <v>25</v>
+      </c>
+      <c r="Y150">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B151" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C151" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D151" s="8">
+        <v>3</v>
+      </c>
+      <c r="E151" s="9">
+        <v>20</v>
+      </c>
+      <c r="F151" s="9">
+        <v>10</v>
+      </c>
+      <c r="G151" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H151" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L151" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M151">
+        <v>17.63</v>
+      </c>
+      <c r="N151">
+        <v>13.44</v>
+      </c>
+      <c r="O151">
+        <v>0.74</v>
+      </c>
+      <c r="P151">
+        <v>1.31</v>
+      </c>
+      <c r="S151">
+        <v>0.81</v>
+      </c>
+      <c r="T151">
+        <v>1.97</v>
+      </c>
+      <c r="U151">
+        <v>1</v>
+      </c>
+      <c r="V151">
+        <v>3.49</v>
+      </c>
+      <c r="W151">
+        <v>9</v>
+      </c>
+      <c r="X151">
+        <v>30</v>
+      </c>
+      <c r="Y151">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B152" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C152" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D152" s="8">
+        <v>3</v>
+      </c>
+      <c r="E152" s="9">
+        <v>20</v>
+      </c>
+      <c r="F152" s="9">
+        <v>10</v>
+      </c>
+      <c r="G152" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H152" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M152">
+        <v>15.41</v>
+      </c>
+      <c r="N152">
+        <v>13.01</v>
+      </c>
+      <c r="O152">
+        <v>0.74</v>
+      </c>
+      <c r="P152">
+        <v>1.18</v>
+      </c>
+      <c r="S152">
+        <v>0.93</v>
+      </c>
+      <c r="T152">
+        <v>2.27</v>
+      </c>
+      <c r="U152">
+        <v>1.08</v>
+      </c>
+      <c r="V152">
+        <v>3.61</v>
+      </c>
+      <c r="W152">
+        <v>9</v>
+      </c>
+      <c r="X152">
+        <v>31</v>
+      </c>
+      <c r="Y152">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B153" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C153" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D153" s="2">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>0.2</v>
+      </c>
+      <c r="H153">
+        <v>0.4</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M153">
+        <v>16.63</v>
+      </c>
+      <c r="N153">
+        <v>14.12</v>
+      </c>
+      <c r="O153">
+        <v>0.76</v>
+      </c>
+      <c r="P153">
+        <v>1.18</v>
+      </c>
+      <c r="S153">
+        <v>0.78</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>0.98</v>
+      </c>
+      <c r="V153">
+        <v>3.85</v>
+      </c>
+      <c r="W153">
+        <v>8</v>
+      </c>
+      <c r="X153">
+        <v>25</v>
+      </c>
+      <c r="Y153">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="2"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B155" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C155" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D155" s="8">
+        <v>3</v>
+      </c>
+      <c r="E155" s="9">
+        <v>20</v>
+      </c>
+      <c r="F155" s="9">
+        <v>10</v>
+      </c>
+      <c r="G155" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H155" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K155" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L155" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M155">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="N155">
+        <v>14.06</v>
+      </c>
+      <c r="O155">
+        <v>0.76</v>
+      </c>
+      <c r="P155">
+        <v>1.17</v>
+      </c>
+      <c r="S155">
+        <v>0.7</v>
+      </c>
+      <c r="T155">
+        <v>1.65</v>
+      </c>
+      <c r="U155">
+        <v>0.95</v>
+      </c>
+      <c r="V155">
+        <v>3.75</v>
+      </c>
+      <c r="W155">
+        <v>8</v>
+      </c>
+      <c r="X155">
+        <v>25</v>
+      </c>
+      <c r="Y155">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B156" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C156" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D156" s="8">
+        <v>3</v>
+      </c>
+      <c r="E156" s="9">
+        <v>20</v>
+      </c>
+      <c r="F156" s="9">
+        <v>20</v>
+      </c>
+      <c r="G156" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H156" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M156">
+        <v>10.42</v>
+      </c>
+      <c r="N156">
+        <v>15.29</v>
+      </c>
+      <c r="O156">
+        <v>2.91</v>
+      </c>
+      <c r="P156">
+        <v>0.68</v>
+      </c>
+      <c r="S156">
+        <v>0.52</v>
+      </c>
+      <c r="T156">
+        <v>0.86</v>
+      </c>
+      <c r="U156">
+        <v>1.24</v>
+      </c>
+      <c r="V156">
+        <v>6.11</v>
+      </c>
+      <c r="W156">
+        <v>2</v>
+      </c>
+      <c r="X156">
+        <v>6.5</v>
+      </c>
+      <c r="Y156">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B157" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C157" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D157" s="8">
+        <v>3</v>
+      </c>
+      <c r="E157" s="9">
+        <v>20</v>
+      </c>
+      <c r="F157" s="9">
+        <v>30</v>
+      </c>
+      <c r="G157" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H157" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M157">
+        <v>10.42</v>
+      </c>
+      <c r="N157">
+        <v>15.29</v>
+      </c>
+      <c r="O157">
+        <v>2.91</v>
+      </c>
+      <c r="P157">
+        <v>0.68</v>
+      </c>
+      <c r="S157">
+        <v>0.52</v>
+      </c>
+      <c r="T157">
+        <v>0.86</v>
+      </c>
+      <c r="U157">
+        <v>1.24</v>
+      </c>
+      <c r="V157">
+        <v>6.11</v>
+      </c>
+      <c r="W157">
+        <v>2</v>
+      </c>
+      <c r="X157">
+        <v>6.5</v>
+      </c>
+      <c r="Y157">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B158" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C158" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D158" s="8">
+        <v>3</v>
+      </c>
+      <c r="E158" s="9">
+        <v>20</v>
+      </c>
+      <c r="F158" s="9">
+        <v>40</v>
+      </c>
+      <c r="G158" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H158" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M158">
+        <v>10.42</v>
+      </c>
+      <c r="N158">
+        <v>15.29</v>
+      </c>
+      <c r="O158">
+        <v>2.91</v>
+      </c>
+      <c r="P158">
+        <v>0.68</v>
+      </c>
+      <c r="S158">
+        <v>0.52</v>
+      </c>
+      <c r="T158">
+        <v>0.86</v>
+      </c>
+      <c r="U158">
+        <v>1.24</v>
+      </c>
+      <c r="V158">
+        <v>6.11</v>
+      </c>
+      <c r="W158">
+        <v>2</v>
+      </c>
+      <c r="X158">
+        <v>6.5</v>
+      </c>
+      <c r="Y158">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B159" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C159" s="1">
+        <v>35063</v>
+      </c>
+      <c r="D159" s="8">
+        <v>3</v>
+      </c>
+      <c r="E159" s="9">
+        <v>20</v>
+      </c>
+      <c r="F159" s="9">
+        <v>50</v>
+      </c>
+      <c r="G159" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H159" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M159">
+        <v>10.42</v>
+      </c>
+      <c r="N159">
+        <v>15.29</v>
+      </c>
+      <c r="O159">
+        <v>2.91</v>
+      </c>
+      <c r="P159">
+        <v>0.68</v>
+      </c>
+      <c r="S159">
+        <v>0.52</v>
+      </c>
+      <c r="T159">
+        <v>0.86</v>
+      </c>
+      <c r="U159">
+        <v>1.24</v>
+      </c>
+      <c r="V159">
+        <v>6.11</v>
+      </c>
+      <c r="W159">
+        <v>2</v>
+      </c>
+      <c r="X159">
+        <v>6.5</v>
+      </c>
+      <c r="Y159">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+    </row>
+    <row r="161" spans="1:22">
+      <c r="A161" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+    </row>
+    <row r="162" spans="1:22">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+    </row>
+    <row r="163" spans="1:22">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+    </row>
+    <row r="164" spans="1:22">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="1:22">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+    </row>
+    <row r="166" spans="1:22">
+      <c r="A166" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
+      <c r="A168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
+      <c r="B169" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C169" s="1">
+        <v>31409</v>
+      </c>
+      <c r="E169" t="s">
+        <v>31</v>
+      </c>
+      <c r="M169">
+        <v>6.02</v>
+      </c>
+      <c r="N169">
+        <v>48.2</v>
+      </c>
+      <c r="P169">
+        <v>0.12</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>-0.45</v>
+      </c>
+      <c r="V169">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
+      <c r="A170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
+      <c r="B171" s="1">
+        <v>24475</v>
+      </c>
+      <c r="C171" s="1">
+        <v>38716</v>
+      </c>
+      <c r="E171" t="s">
+        <v>31</v>
+      </c>
+      <c r="M171">
+        <v>6.63</v>
+      </c>
+      <c r="N171">
+        <v>56.7</v>
+      </c>
+      <c r="P171">
+        <v>0.12</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0.05</v>
+      </c>
+      <c r="T171">
+        <v>0.05</v>
+      </c>
+      <c r="U171">
+        <v>-0.45</v>
+      </c>
+      <c r="V171">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="A172" t="s">
         <v>29</v>
       </c>
-      <c r="G119" t="s">
+    </row>
+    <row r="173" spans="1:22">
+      <c r="B173" s="1">
+        <v>30842</v>
+      </c>
+      <c r="C173" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E173" t="s">
         <v>31</v>
       </c>
-      <c r="M119">
+      <c r="M173">
+        <v>7.87</v>
+      </c>
+      <c r="N173">
+        <v>56.7</v>
+      </c>
+      <c r="P173">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q173">
+        <v>0.05</v>
+      </c>
+      <c r="R173">
+        <v>0.05</v>
+      </c>
+      <c r="S173">
+        <v>0.32</v>
+      </c>
+      <c r="T173">
+        <v>0.33</v>
+      </c>
+      <c r="U173">
+        <v>-0.38</v>
+      </c>
+      <c r="V173">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
+      <c r="B175" s="1">
+        <v>20284</v>
+      </c>
+      <c r="C175" s="1">
+        <v>42073</v>
+      </c>
+      <c r="E175" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
+        <v>33</v>
+      </c>
+      <c r="M175">
         <v>6.66</v>
       </c>
-      <c r="N119">
+      <c r="N175">
         <v>56.7</v>
       </c>
-      <c r="P119">
+      <c r="P175">
         <v>0.12</v>
       </c>
-      <c r="Q119">
+      <c r="Q175">
         <v>0.01</v>
       </c>
-      <c r="R119">
+      <c r="R175">
         <v>0.01</v>
       </c>
-      <c r="S119">
+      <c r="S175">
         <v>0.13</v>
       </c>
-      <c r="T119">
+      <c r="T175">
         <v>0.13</v>
       </c>
-      <c r="U119">
+      <c r="U175">
         <v>-0.42</v>
       </c>
-      <c r="V119">
+      <c r="V175">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="177" spans="1:22">
+      <c r="A177" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="B178" s="1">
+        <v>31413</v>
+      </c>
+      <c r="C178" s="1">
+        <v>35063</v>
+      </c>
+      <c r="E178" t="s">
+        <v>31</v>
+      </c>
+      <c r="M178">
+        <v>15.12</v>
+      </c>
+      <c r="N178">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O178">
+        <v>0.18</v>
+      </c>
+      <c r="P178">
+        <v>0.76</v>
+      </c>
+      <c r="S178">
+        <v>1.07</v>
+      </c>
+      <c r="T178">
+        <v>2.87</v>
+      </c>
+      <c r="U178">
+        <v>-0.46</v>
+      </c>
+      <c r="V178">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="B191" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D191">
+        <v>47.84</v>
+      </c>
+      <c r="E191">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F191">
+        <v>0.2</v>
+      </c>
+      <c r="I191">
+        <v>0.46</v>
+      </c>
+      <c r="J191">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K191">
+        <v>0.01</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>24</v>
+      </c>
+      <c r="N191">
+        <v>22.4</v>
+      </c>
+      <c r="O191">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="B192" t="s">
+        <v>66</v>
+      </c>
+      <c r="C192">
+        <v>10.55</v>
+      </c>
+      <c r="D192">
+        <v>40.96</v>
+      </c>
+      <c r="E192">
+        <v>1.6</v>
+      </c>
+      <c r="F192">
+        <v>0.26</v>
+      </c>
+      <c r="I192">
+        <v>0.53</v>
+      </c>
+      <c r="J192">
+        <v>0.9</v>
+      </c>
+      <c r="K192">
+        <v>0.71</v>
+      </c>
+      <c r="L192">
+        <v>4.09</v>
+      </c>
+      <c r="M192">
+        <v>24</v>
+      </c>
+      <c r="N192">
+        <v>22</v>
+      </c>
+      <c r="O192">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15">
+      <c r="B193" t="s">
+        <v>67</v>
+      </c>
+      <c r="C193">
+        <v>11.53</v>
+      </c>
+      <c r="D193">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E193">
+        <v>1.6</v>
+      </c>
+      <c r="F193">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I193">
+        <v>0.53</v>
+      </c>
+      <c r="J193">
+        <v>1.23</v>
+      </c>
+      <c r="K193">
+        <v>1.98</v>
+      </c>
+      <c r="L193">
+        <v>11.15</v>
+      </c>
+      <c r="M193">
+        <v>24</v>
+      </c>
+      <c r="N193">
+        <v>22</v>
+      </c>
+      <c r="O193">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15">
+      <c r="B194" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194">
+        <v>12.25</v>
+      </c>
+      <c r="D194">
+        <v>41</v>
+      </c>
+      <c r="E194">
+        <v>1.6</v>
+      </c>
+      <c r="F194">
+        <v>0.3</v>
+      </c>
+      <c r="I194">
+        <v>0.48</v>
+      </c>
+      <c r="J194">
+        <v>1.41</v>
+      </c>
+      <c r="K194">
+        <v>3.12</v>
+      </c>
+      <c r="L194">
+        <v>18.55</v>
+      </c>
+      <c r="M194">
+        <v>24</v>
+      </c>
+      <c r="N194">
+        <v>22</v>
+      </c>
+      <c r="O194">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15">
+      <c r="B195" t="s">
+        <v>69</v>
+      </c>
+      <c r="C195">
+        <v>12.67</v>
+      </c>
+      <c r="D195">
+        <v>41.24</v>
+      </c>
+      <c r="E195">
+        <v>1.6</v>
+      </c>
+      <c r="F195">
+        <v>0.31</v>
+      </c>
+      <c r="I195">
+        <v>0.44</v>
+      </c>
+      <c r="J195">
+        <v>1.34</v>
+      </c>
+      <c r="K195">
+        <v>3.93</v>
+      </c>
+      <c r="L195">
+        <v>24.5</v>
+      </c>
+      <c r="M195">
+        <v>24</v>
+      </c>
+      <c r="N195">
+        <v>22</v>
+      </c>
+      <c r="O195">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15">
+      <c r="B196" t="s">
+        <v>70</v>
+      </c>
+      <c r="C196">
+        <v>12.99</v>
+      </c>
+      <c r="D196">
+        <v>41.57</v>
+      </c>
+      <c r="E196">
+        <v>1.96</v>
+      </c>
+      <c r="F196">
+        <v>0.31</v>
+      </c>
+      <c r="I196">
+        <v>0.4</v>
+      </c>
+      <c r="J196">
+        <v>1.34</v>
+      </c>
+      <c r="K196">
+        <v>4.49</v>
+      </c>
+      <c r="L196">
+        <v>28.74</v>
+      </c>
+      <c r="M196">
+        <v>24</v>
+      </c>
+      <c r="N196">
+        <v>22</v>
+      </c>
+      <c r="O196">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15">
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>10.99</v>
+      </c>
+      <c r="D198">
+        <v>36.99</v>
+      </c>
+      <c r="E198">
+        <v>2.91</v>
+      </c>
+      <c r="F198">
+        <v>0.3</v>
+      </c>
+      <c r="I198">
+        <v>0.52</v>
+      </c>
+      <c r="J198">
+        <v>1.17</v>
+      </c>
+      <c r="K198">
+        <v>5.07</v>
+      </c>
+      <c r="L198">
+        <v>39.74</v>
+      </c>
+      <c r="M198">
+        <v>19</v>
+      </c>
+      <c r="N198">
+        <v>17.8</v>
+      </c>
+      <c r="O198">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15">
+      <c r="B199" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199">
+        <v>27.87</v>
+      </c>
+      <c r="D199">
+        <v>35.06</v>
+      </c>
+      <c r="E199">
+        <v>0.96</v>
+      </c>
+      <c r="F199">
+        <v>0.79</v>
+      </c>
+      <c r="I199">
+        <v>0.77</v>
+      </c>
+      <c r="J199">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K199">
+        <v>3.68</v>
+      </c>
+      <c r="L199">
+        <v>19.32</v>
+      </c>
+      <c r="M199">
+        <v>32</v>
+      </c>
+      <c r="N199">
+        <v>27.6</v>
+      </c>
+      <c r="O199">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15">
+      <c r="B200" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200">
+        <v>11.53</v>
+      </c>
+      <c r="D200">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E200">
+        <v>1.6</v>
+      </c>
+      <c r="F200">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I200">
+        <v>0.53</v>
+      </c>
+      <c r="J200">
+        <v>1.23</v>
+      </c>
+      <c r="K200">
+        <v>1.98</v>
+      </c>
+      <c r="L200">
+        <v>11.15</v>
+      </c>
+      <c r="M200">
+        <v>24</v>
+      </c>
+      <c r="N200">
+        <v>22</v>
+      </c>
+      <c r="O200">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15">
+      <c r="B201" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201">
+        <v>6.69</v>
+      </c>
+      <c r="D201">
+        <v>41.66</v>
+      </c>
+      <c r="E201">
+        <v>1.46</v>
+      </c>
+      <c r="F201">
+        <v>0.16</v>
+      </c>
+      <c r="I201">
+        <v>0.31</v>
+      </c>
+      <c r="J201">
+        <v>0.39</v>
+      </c>
+      <c r="K201">
+        <v>0.48</v>
+      </c>
+      <c r="L201">
+        <v>2.9</v>
+      </c>
+      <c r="M201">
+        <v>22</v>
+      </c>
+      <c r="N201">
+        <v>21</v>
+      </c>
+      <c r="O201">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15">
+      <c r="B203" t="s">
+        <v>67</v>
+      </c>
+      <c r="C203">
+        <v>11.53</v>
+      </c>
+      <c r="D203">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E203">
+        <v>1.6</v>
+      </c>
+      <c r="F203">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I203">
+        <v>0.53</v>
+      </c>
+      <c r="J203">
+        <v>1.23</v>
+      </c>
+      <c r="K203">
+        <v>1.98</v>
+      </c>
+      <c r="L203">
+        <v>11.15</v>
+      </c>
+      <c r="M203">
+        <v>24</v>
+      </c>
+      <c r="N203">
+        <v>22</v>
+      </c>
+      <c r="O203">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15">
+      <c r="B204" t="s">
+        <v>73</v>
+      </c>
+      <c r="C204">
+        <v>14.16</v>
+      </c>
+      <c r="D204">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="E204">
+        <v>2.54</v>
+      </c>
+      <c r="F204">
+        <v>0.38</v>
+      </c>
+      <c r="I204">
+        <v>0.66</v>
+      </c>
+      <c r="J204">
+        <v>1.42</v>
+      </c>
+      <c r="K204">
+        <v>1.94</v>
+      </c>
+      <c r="L204">
+        <v>8.06</v>
+      </c>
+      <c r="M204">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B122" s="1">
-        <v>31413</v>
-      </c>
-      <c r="C122" s="1">
-        <v>35063</v>
-      </c>
-      <c r="E122" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133">
-        <v>12.13</v>
-      </c>
-      <c r="D133">
-        <v>34.159999999999997</v>
-      </c>
-      <c r="E133">
-        <v>1.69</v>
-      </c>
-      <c r="F133">
-        <v>0.36</v>
-      </c>
-      <c r="I133">
+      <c r="N204">
+        <v>26.2</v>
+      </c>
+      <c r="O204">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15">
+      <c r="B205" t="s">
+        <v>74</v>
+      </c>
+      <c r="C205">
+        <v>11.7</v>
+      </c>
+      <c r="D205">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="E205">
+        <v>2.31</v>
+      </c>
+      <c r="F205">
+        <v>0.3</v>
+      </c>
+      <c r="I205">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J205">
+        <v>1.34</v>
+      </c>
+      <c r="K205">
+        <v>1.75</v>
+      </c>
+      <c r="L205">
+        <v>7.72</v>
+      </c>
+      <c r="M205">
+        <v>25</v>
+      </c>
+      <c r="N205">
+        <v>25.3</v>
+      </c>
+      <c r="O205">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15">
+      <c r="B206" t="s">
+        <v>75</v>
+      </c>
+      <c r="C206">
+        <v>13.05</v>
+      </c>
+      <c r="D206">
+        <v>33.18</v>
+      </c>
+      <c r="E206">
+        <v>1.25</v>
+      </c>
+      <c r="F206">
         <v>0.39</v>
       </c>
-      <c r="J133">
-        <v>0.4</v>
-      </c>
-      <c r="K133">
-        <v>0.91</v>
-      </c>
-      <c r="L133">
-        <v>2.94</v>
-      </c>
-      <c r="M133">
-        <v>34</v>
-      </c>
-      <c r="N133">
-        <v>31.8</v>
-      </c>
-      <c r="O133">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134">
-        <v>17.68</v>
-      </c>
-      <c r="D134">
-        <v>28.72</v>
-      </c>
-      <c r="E134">
-        <v>1.64</v>
-      </c>
-      <c r="F134">
-        <v>0.62</v>
-      </c>
-      <c r="I134">
-        <v>0.61</v>
-      </c>
-      <c r="J134">
-        <v>1.27</v>
-      </c>
-      <c r="K134">
-        <v>3.23</v>
-      </c>
-      <c r="L134">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="M134">
-        <v>34</v>
-      </c>
-      <c r="N134">
-        <v>31.8</v>
-      </c>
-      <c r="O134">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
+      <c r="I206">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J206">
+        <v>1.35</v>
+      </c>
+      <c r="K206">
+        <v>2.78</v>
+      </c>
+      <c r="L206">
+        <v>15.06</v>
+      </c>
+      <c r="M206">
+        <v>27</v>
+      </c>
+      <c r="N206">
+        <v>24.5</v>
+      </c>
+      <c r="O206">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15">
+      <c r="B208" t="s">
+        <v>67</v>
+      </c>
+      <c r="C208">
+        <v>11.53</v>
+      </c>
+      <c r="D208">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="E208">
+        <v>1.6</v>
+      </c>
+      <c r="F208">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I208">
+        <v>0.53</v>
+      </c>
+      <c r="J208">
+        <v>1.23</v>
+      </c>
+      <c r="K208">
+        <v>1.98</v>
+      </c>
+      <c r="L208">
+        <v>11.15</v>
+      </c>
+      <c r="M208">
+        <v>24</v>
+      </c>
+      <c r="N208">
+        <v>22</v>
+      </c>
+      <c r="O208">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15">
+      <c r="B209" t="s">
+        <v>76</v>
+      </c>
+      <c r="C209">
+        <v>11.88</v>
+      </c>
+      <c r="D209">
+        <v>34.69</v>
+      </c>
+      <c r="E209">
+        <v>2.91</v>
+      </c>
+      <c r="F209">
+        <v>0.34</v>
+      </c>
+      <c r="I209">
+        <v>0.44</v>
+      </c>
+      <c r="J209">
+        <v>1.37</v>
+      </c>
+      <c r="K209">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="L209">
+        <v>33.74</v>
+      </c>
+      <c r="M209">
+        <v>18</v>
+      </c>
+      <c r="N209">
+        <v>16.8</v>
+      </c>
+      <c r="O209">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15">
+      <c r="B210" t="s">
+        <v>77</v>
+      </c>
+      <c r="C210">
+        <v>11.96</v>
+      </c>
+      <c r="D210">
+        <v>36.99</v>
+      </c>
+      <c r="E210">
+        <v>2.91</v>
+      </c>
+      <c r="F210">
+        <v>0.32</v>
+      </c>
+      <c r="I210">
+        <v>0.49</v>
+      </c>
+      <c r="J210">
+        <v>1.21</v>
+      </c>
+      <c r="K210">
+        <v>6.47</v>
+      </c>
+      <c r="L210">
+        <v>63.1</v>
+      </c>
+      <c r="M210">
+        <v>18</v>
+      </c>
+      <c r="N210">
+        <v>16.8</v>
+      </c>
+      <c r="O210">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15">
+      <c r="B211" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211">
+        <v>12.31</v>
+      </c>
+      <c r="D211">
+        <v>36.99</v>
+      </c>
+      <c r="E211">
+        <v>2.91</v>
+      </c>
+      <c r="F211">
+        <v>0.33</v>
+      </c>
+      <c r="I211">
+        <v>0.46</v>
+      </c>
+      <c r="J211">
+        <v>1.3</v>
+      </c>
+      <c r="K211">
+        <v>7.77</v>
+      </c>
+      <c r="L211">
+        <v>88.33</v>
+      </c>
+      <c r="M211">
+        <v>18</v>
+      </c>
+      <c r="N211">
+        <v>16.8</v>
+      </c>
+      <c r="O211">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15">
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>10.99</v>
+      </c>
+      <c r="D212">
+        <v>36.99</v>
+      </c>
+      <c r="E212">
+        <v>2.91</v>
+      </c>
+      <c r="F212">
+        <v>0.3</v>
+      </c>
+      <c r="I212">
+        <v>0.52</v>
+      </c>
+      <c r="J212">
+        <v>1.17</v>
+      </c>
+      <c r="K212">
+        <v>5.07</v>
+      </c>
+      <c r="L212">
+        <v>39.74</v>
+      </c>
+      <c r="M212">
+        <v>19</v>
+      </c>
+      <c r="N212">
+        <v>17.8</v>
+      </c>
+      <c r="O212">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15">
+      <c r="B217" t="s">
         <v>65</v>
       </c>
-      <c r="C135">
-        <v>22.73</v>
-      </c>
-      <c r="D135">
-        <v>24.27</v>
-      </c>
-      <c r="E135">
-        <v>1.58</v>
-      </c>
-      <c r="F135">
-        <v>0.94</v>
-      </c>
-      <c r="I135">
-        <v>0.64</v>
-      </c>
-      <c r="J135">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K135">
-        <v>5.05</v>
-      </c>
-      <c r="L135">
-        <v>36.28</v>
-      </c>
-      <c r="M135">
-        <v>34</v>
-      </c>
-      <c r="N135">
-        <v>31.8</v>
-      </c>
-      <c r="O135">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
+      <c r="C217">
+        <v>15.31</v>
+      </c>
+      <c r="D217">
+        <v>13.1</v>
+      </c>
+      <c r="E217">
+        <v>0.27</v>
+      </c>
+      <c r="F217">
+        <v>1.17</v>
+      </c>
+      <c r="I217">
+        <v>1.06</v>
+      </c>
+      <c r="J217">
+        <v>2.5</v>
+      </c>
+      <c r="K217">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L217">
+        <v>-0.17</v>
+      </c>
+      <c r="M217">
+        <v>8</v>
+      </c>
+      <c r="N217">
+        <v>25</v>
+      </c>
+      <c r="O217">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15">
+      <c r="B218" t="s">
         <v>66</v>
       </c>
-      <c r="C136">
-        <v>27.33</v>
-      </c>
-      <c r="D136">
-        <v>23.12</v>
-      </c>
-      <c r="E136">
-        <v>1.58</v>
-      </c>
-      <c r="F136">
+      <c r="C218">
+        <v>16.09</v>
+      </c>
+      <c r="D218">
+        <v>13.23</v>
+      </c>
+      <c r="E218">
+        <v>0.76</v>
+      </c>
+      <c r="F218">
+        <v>1.22</v>
+      </c>
+      <c r="I218">
+        <v>0.86</v>
+      </c>
+      <c r="J218">
+        <v>3.09</v>
+      </c>
+      <c r="K218">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L218">
+        <v>-0.05</v>
+      </c>
+      <c r="M218">
+        <v>8</v>
+      </c>
+      <c r="N218">
+        <v>25</v>
+      </c>
+      <c r="O218">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15">
+      <c r="B219" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="D219">
+        <v>14.06</v>
+      </c>
+      <c r="E219">
+        <v>0.76</v>
+      </c>
+      <c r="F219">
+        <v>1.17</v>
+      </c>
+      <c r="I219">
+        <v>0.7</v>
+      </c>
+      <c r="J219">
+        <v>1.65</v>
+      </c>
+      <c r="K219">
+        <v>0.95</v>
+      </c>
+      <c r="L219">
+        <v>3.75</v>
+      </c>
+      <c r="M219">
+        <v>8</v>
+      </c>
+      <c r="N219">
+        <v>25</v>
+      </c>
+      <c r="O219">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15">
+      <c r="B220" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220">
+        <v>16.79</v>
+      </c>
+      <c r="D220">
+        <v>15.23</v>
+      </c>
+      <c r="E220">
+        <v>0.76</v>
+      </c>
+      <c r="F220">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I220">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J220">
+        <v>1.47</v>
+      </c>
+      <c r="K220">
+        <v>2.19</v>
+      </c>
+      <c r="L220">
+        <v>12.25</v>
+      </c>
+      <c r="M220">
+        <v>8</v>
+      </c>
+      <c r="N220">
+        <v>25</v>
+      </c>
+      <c r="O220">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15">
+      <c r="B221" t="s">
+        <v>69</v>
+      </c>
+      <c r="C221">
+        <v>16.7</v>
+      </c>
+      <c r="D221">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E221">
+        <v>1.49</v>
+      </c>
+      <c r="F221">
+        <v>0.99</v>
+      </c>
+      <c r="I221">
+        <v>0.49</v>
+      </c>
+      <c r="J221">
+        <v>1.4</v>
+      </c>
+      <c r="K221">
+        <v>3.33</v>
+      </c>
+      <c r="L221">
+        <v>21.96</v>
+      </c>
+      <c r="M221">
+        <v>8</v>
+      </c>
+      <c r="N221">
+        <v>25</v>
+      </c>
+      <c r="O221">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15">
+      <c r="B222" t="s">
+        <v>70</v>
+      </c>
+      <c r="C222">
+        <v>16.55</v>
+      </c>
+      <c r="D222">
+        <v>20.48</v>
+      </c>
+      <c r="E222">
+        <v>1.92</v>
+      </c>
+      <c r="F222">
+        <v>0.81</v>
+      </c>
+      <c r="I222">
+        <v>0.43</v>
+      </c>
+      <c r="J222">
+        <v>1.22</v>
+      </c>
+      <c r="K222">
+        <v>4.21</v>
+      </c>
+      <c r="L222">
+        <v>30.48</v>
+      </c>
+      <c r="M222">
+        <v>8</v>
+      </c>
+      <c r="N222">
+        <v>25</v>
+      </c>
+      <c r="O222">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15">
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>10.42</v>
+      </c>
+      <c r="D224">
+        <v>15.29</v>
+      </c>
+      <c r="E224">
+        <v>2.91</v>
+      </c>
+      <c r="F224">
+        <v>0.68</v>
+      </c>
+      <c r="I224">
+        <v>0.52</v>
+      </c>
+      <c r="J224">
+        <v>0.86</v>
+      </c>
+      <c r="K224">
+        <v>1.24</v>
+      </c>
+      <c r="L224">
+        <v>6.11</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>6.5</v>
+      </c>
+      <c r="O224">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15">
+      <c r="B225" t="s">
+        <v>71</v>
+      </c>
+      <c r="C225">
+        <v>32.44</v>
+      </c>
+      <c r="D225">
+        <v>14.22</v>
+      </c>
+      <c r="E225">
+        <v>0.75</v>
+      </c>
+      <c r="F225">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I225">
+        <v>0.79</v>
+      </c>
+      <c r="J225">
+        <v>1.68</v>
+      </c>
+      <c r="K225">
+        <v>2.74</v>
+      </c>
+      <c r="L225">
+        <v>9.39</v>
+      </c>
+      <c r="M225">
+        <v>10</v>
+      </c>
+      <c r="N225">
+        <v>28.6</v>
+      </c>
+      <c r="O225">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="226" spans="2:15">
+      <c r="B226" t="s">
+        <v>67</v>
+      </c>
+      <c r="C226">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="D226">
+        <v>14.06</v>
+      </c>
+      <c r="E226">
+        <v>0.76</v>
+      </c>
+      <c r="F226">
+        <v>1.17</v>
+      </c>
+      <c r="I226">
+        <v>0.7</v>
+      </c>
+      <c r="J226">
+        <v>1.65</v>
+      </c>
+      <c r="K226">
+        <v>0.95</v>
+      </c>
+      <c r="L226">
+        <v>3.75</v>
+      </c>
+      <c r="M226">
+        <v>8</v>
+      </c>
+      <c r="N226">
+        <v>25</v>
+      </c>
+      <c r="O226">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15">
+      <c r="B227" t="s">
+        <v>72</v>
+      </c>
+      <c r="C227">
+        <v>10.46</v>
+      </c>
+      <c r="D227">
+        <v>15.56</v>
+      </c>
+      <c r="E227">
+        <v>0.86</v>
+      </c>
+      <c r="F227">
+        <v>0.67</v>
+      </c>
+      <c r="I227">
+        <v>0.74</v>
+      </c>
+      <c r="J227">
+        <v>1.35</v>
+      </c>
+      <c r="K227">
+        <v>-0.05</v>
+      </c>
+      <c r="L227">
+        <v>-0.2</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O227">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="229" spans="2:15">
+      <c r="B229" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="D229">
+        <v>14.06</v>
+      </c>
+      <c r="E229">
+        <v>0.76</v>
+      </c>
+      <c r="F229">
+        <v>1.17</v>
+      </c>
+      <c r="I229">
+        <v>0.7</v>
+      </c>
+      <c r="J229">
+        <v>1.65</v>
+      </c>
+      <c r="K229">
+        <v>0.95</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>8</v>
+      </c>
+      <c r="N229">
+        <v>25</v>
+      </c>
+      <c r="O229">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="2:15">
+      <c r="B230" t="s">
+        <v>73</v>
+      </c>
+      <c r="C230">
+        <v>17.63</v>
+      </c>
+      <c r="D230">
+        <v>13.44</v>
+      </c>
+      <c r="E230">
+        <v>0.74</v>
+      </c>
+      <c r="F230">
+        <v>1.31</v>
+      </c>
+      <c r="I230">
+        <v>0.81</v>
+      </c>
+      <c r="J230">
+        <v>1.97</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>3.49</v>
+      </c>
+      <c r="M230">
+        <v>9</v>
+      </c>
+      <c r="N230">
+        <v>30</v>
+      </c>
+      <c r="O230">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15">
+      <c r="B231" t="s">
+        <v>74</v>
+      </c>
+      <c r="C231">
+        <v>15.41</v>
+      </c>
+      <c r="D231">
+        <v>13.01</v>
+      </c>
+      <c r="E231">
+        <v>0.74</v>
+      </c>
+      <c r="F231">
         <v>1.18</v>
       </c>
-      <c r="I136">
-        <v>0.63</v>
-      </c>
-      <c r="J136">
-        <v>2.48</v>
-      </c>
-      <c r="K136">
-        <v>6.12</v>
-      </c>
-      <c r="L136">
-        <v>49.86</v>
-      </c>
-      <c r="M136">
-        <v>34</v>
-      </c>
-      <c r="N136">
-        <v>31.8</v>
-      </c>
-      <c r="O136">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
+      <c r="I231">
+        <v>0.93</v>
+      </c>
+      <c r="J231">
+        <v>2.27</v>
+      </c>
+      <c r="K231">
+        <v>1.08</v>
+      </c>
+      <c r="L231">
+        <v>3.61</v>
+      </c>
+      <c r="M231">
+        <v>9</v>
+      </c>
+      <c r="N231">
+        <v>31</v>
+      </c>
+      <c r="O231">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15">
+      <c r="B232" t="s">
+        <v>75</v>
+      </c>
+      <c r="C232">
+        <v>16.63</v>
+      </c>
+      <c r="D232">
+        <v>14.12</v>
+      </c>
+      <c r="E232">
+        <v>0.76</v>
+      </c>
+      <c r="F232">
+        <v>1.18</v>
+      </c>
+      <c r="I232">
+        <v>0.78</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>0.98</v>
+      </c>
+      <c r="L232">
+        <v>3.85</v>
+      </c>
+      <c r="M232">
+        <v>8</v>
+      </c>
+      <c r="N232">
+        <v>25</v>
+      </c>
+      <c r="O232">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15">
+      <c r="B234" t="s">
         <v>67</v>
       </c>
-      <c r="C137">
-        <v>31.53</v>
-      </c>
-      <c r="D137">
-        <v>25.21</v>
-      </c>
-      <c r="E137">
-        <v>1.58</v>
-      </c>
-      <c r="F137">
-        <v>1.25</v>
-      </c>
-      <c r="I137">
-        <v>0.62</v>
-      </c>
-      <c r="J137">
-        <v>3.26</v>
-      </c>
-      <c r="K137">
-        <v>6.82</v>
-      </c>
-      <c r="L137">
-        <v>60.04</v>
-      </c>
-      <c r="M137">
-        <v>34</v>
-      </c>
-      <c r="N137">
-        <v>31.8</v>
-      </c>
-      <c r="O137">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>68</v>
-      </c>
-      <c r="C138">
-        <v>35.36</v>
-      </c>
-      <c r="D138">
-        <v>27.26</v>
-      </c>
-      <c r="E138">
-        <v>1.58</v>
-      </c>
-      <c r="F138">
-        <v>1.3</v>
-      </c>
-      <c r="I138">
-        <v>0.61</v>
-      </c>
-      <c r="J138">
-        <v>3.2</v>
-      </c>
-      <c r="K138">
-        <v>7.34</v>
-      </c>
-      <c r="L138">
-        <v>68.290000000000006</v>
-      </c>
-      <c r="M138">
-        <v>34</v>
-      </c>
-      <c r="N138">
-        <v>31.8</v>
-      </c>
-      <c r="O138">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>69</v>
-      </c>
-      <c r="C140">
-        <v>51.37</v>
-      </c>
-      <c r="D140">
-        <v>21.62</v>
-      </c>
-      <c r="E140">
-        <v>0.85</v>
-      </c>
-      <c r="F140">
-        <v>2.38</v>
-      </c>
-      <c r="I140">
-        <v>0.78</v>
-      </c>
-      <c r="J140">
-        <v>1.99</v>
-      </c>
-      <c r="K140">
-        <v>5.15</v>
-      </c>
-      <c r="L140">
-        <v>36.56</v>
-      </c>
-      <c r="M140">
-        <v>49</v>
-      </c>
-      <c r="N140">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="O140">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141">
-        <v>22.73</v>
-      </c>
-      <c r="D141">
-        <v>24.27</v>
-      </c>
-      <c r="E141">
-        <v>1.58</v>
-      </c>
-      <c r="F141">
-        <v>0.94</v>
-      </c>
-      <c r="I141">
-        <v>0.64</v>
-      </c>
-      <c r="J141">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K141">
-        <v>5.05</v>
-      </c>
-      <c r="L141">
-        <v>36.28</v>
-      </c>
-      <c r="M141">
-        <v>34</v>
-      </c>
-      <c r="N141">
-        <v>31.8</v>
-      </c>
-      <c r="O141">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-      <c r="D142">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="E142">
-        <v>1.34</v>
-      </c>
-      <c r="F142">
-        <v>0.36</v>
-      </c>
-      <c r="I142">
-        <v>0.36</v>
-      </c>
-      <c r="J142">
-        <v>0.63</v>
-      </c>
-      <c r="K142">
-        <v>2.82</v>
-      </c>
-      <c r="L142">
-        <v>13.7</v>
-      </c>
-      <c r="M142">
-        <v>31</v>
-      </c>
-      <c r="N142">
-        <v>30.7</v>
-      </c>
-      <c r="O142">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>65</v>
-      </c>
-      <c r="C144">
-        <v>22.73</v>
-      </c>
-      <c r="D144">
-        <v>24.27</v>
-      </c>
-      <c r="E144">
-        <v>1.58</v>
-      </c>
-      <c r="F144">
-        <v>0.94</v>
-      </c>
-      <c r="I144">
-        <v>0.64</v>
-      </c>
-      <c r="J144">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K144">
-        <v>5.05</v>
-      </c>
-      <c r="L144">
-        <v>36.28</v>
-      </c>
-      <c r="M144">
-        <v>34</v>
-      </c>
-      <c r="N144">
-        <v>31.8</v>
-      </c>
-      <c r="O144">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>71</v>
-      </c>
-      <c r="C145">
-        <v>20.81</v>
-      </c>
-      <c r="D145">
-        <v>27.3</v>
-      </c>
-      <c r="E145">
-        <v>1.58</v>
-      </c>
-      <c r="F145">
+      <c r="C234">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="D234">
+        <v>14.06</v>
+      </c>
+      <c r="E234">
         <v>0.76</v>
       </c>
-      <c r="I145">
-        <v>0.69</v>
-      </c>
-      <c r="J145">
-        <v>1.92</v>
-      </c>
-      <c r="K145">
-        <v>3.39</v>
-      </c>
-      <c r="L145">
-        <v>15.59</v>
-      </c>
-      <c r="M145">
-        <v>29</v>
-      </c>
-      <c r="N145">
-        <v>29</v>
-      </c>
-      <c r="O145">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146">
-        <v>20.81</v>
-      </c>
-      <c r="D146">
-        <v>27.3</v>
-      </c>
-      <c r="E146">
-        <v>1.58</v>
-      </c>
-      <c r="F146">
-        <v>0.76</v>
-      </c>
-      <c r="I146">
+      <c r="F234">
+        <v>1.17</v>
+      </c>
+      <c r="I234">
         <v>0.7</v>
       </c>
-      <c r="J146">
-        <v>1.95</v>
-      </c>
-      <c r="K146">
-        <v>3.4</v>
-      </c>
-      <c r="L146">
-        <v>15.66</v>
-      </c>
-      <c r="M146">
-        <v>29</v>
-      </c>
-      <c r="N146">
-        <v>29.3</v>
-      </c>
-      <c r="O146">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>73</v>
-      </c>
-      <c r="C147">
-        <v>17.87</v>
-      </c>
-      <c r="D147">
-        <v>25.42</v>
-      </c>
-      <c r="E147">
-        <v>1.58</v>
-      </c>
-      <c r="F147">
-        <v>0.7</v>
-      </c>
-      <c r="I147">
+      <c r="J234">
+        <v>1.65</v>
+      </c>
+      <c r="K234">
+        <v>0.95</v>
+      </c>
+      <c r="L234">
+        <v>3.75</v>
+      </c>
+      <c r="M234">
+        <v>8</v>
+      </c>
+      <c r="N234">
+        <v>25</v>
+      </c>
+      <c r="O234">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15">
+      <c r="B235" t="s">
+        <v>76</v>
+      </c>
+      <c r="C235">
+        <v>10.42</v>
+      </c>
+      <c r="D235">
+        <v>15.29</v>
+      </c>
+      <c r="E235">
+        <v>2.91</v>
+      </c>
+      <c r="F235">
+        <v>0.68</v>
+      </c>
+      <c r="I235">
         <v>0.52</v>
       </c>
-      <c r="J147">
-        <v>1.74</v>
-      </c>
-      <c r="K147">
-        <v>5.09</v>
-      </c>
-      <c r="L147">
-        <v>37.76</v>
-      </c>
-      <c r="M147">
-        <v>36</v>
-      </c>
-      <c r="N147">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="O147">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>65</v>
-      </c>
-      <c r="C149">
-        <v>22.73</v>
-      </c>
-      <c r="D149">
-        <v>24.27</v>
-      </c>
-      <c r="E149">
-        <v>1.58</v>
-      </c>
-      <c r="F149">
-        <v>0.94</v>
-      </c>
-      <c r="I149">
-        <v>0.64</v>
-      </c>
-      <c r="J149">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K149">
-        <v>5.05</v>
-      </c>
-      <c r="L149">
-        <v>36.28</v>
-      </c>
-      <c r="M149">
-        <v>34</v>
-      </c>
-      <c r="N149">
-        <v>31.8</v>
-      </c>
-      <c r="O149">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>74</v>
-      </c>
-      <c r="C150">
-        <v>23.47</v>
-      </c>
-      <c r="D150">
-        <v>28.77</v>
-      </c>
-      <c r="E150">
-        <v>1.58</v>
-      </c>
-      <c r="F150">
-        <v>0.82</v>
-      </c>
-      <c r="I150">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J150">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K150">
-        <v>6.23</v>
-      </c>
-      <c r="L150">
-        <v>52.45</v>
-      </c>
-      <c r="M150">
-        <v>32</v>
-      </c>
-      <c r="N150">
-        <v>31.7</v>
-      </c>
-      <c r="O150">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>75</v>
-      </c>
-      <c r="C151">
-        <v>25.41</v>
-      </c>
-      <c r="D151">
-        <v>31.58</v>
-      </c>
-      <c r="E151">
-        <v>1.49</v>
-      </c>
-      <c r="F151">
-        <v>0.8</v>
-      </c>
-      <c r="I151">
-        <v>0.39</v>
-      </c>
-      <c r="J151">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="K151">
-        <v>11.19</v>
-      </c>
-      <c r="L151">
-        <v>155.44999999999999</v>
-      </c>
-      <c r="M151">
-        <v>33</v>
-      </c>
-      <c r="N151">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="O151">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>76</v>
-      </c>
-      <c r="C152">
-        <v>29.38</v>
-      </c>
-      <c r="D152">
-        <v>27.47</v>
-      </c>
-      <c r="E152">
-        <v>1.58</v>
-      </c>
-      <c r="F152">
-        <v>1.07</v>
-      </c>
-      <c r="I152">
-        <v>0.45</v>
-      </c>
-      <c r="J152">
-        <v>2.86</v>
-      </c>
-      <c r="K152">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="L152">
-        <v>101.08</v>
-      </c>
-      <c r="M152">
-        <v>32</v>
-      </c>
-      <c r="N152">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="O152">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+      <c r="J235">
+        <v>0.86</v>
+      </c>
+      <c r="K235">
+        <v>1.24</v>
+      </c>
+      <c r="L235">
+        <v>6.11</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>6.5</v>
+      </c>
+      <c r="O235">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="236" spans="2:15">
+      <c r="B236" t="s">
         <v>77</v>
       </c>
-      <c r="C153">
-        <v>24.79</v>
-      </c>
-      <c r="D153">
-        <v>32.5</v>
-      </c>
-      <c r="E153">
-        <v>1.58</v>
-      </c>
-      <c r="F153">
-        <v>0.76</v>
-      </c>
-      <c r="I153">
-        <v>0.46</v>
-      </c>
-      <c r="J153">
-        <v>2.5</v>
-      </c>
-      <c r="K153">
-        <v>9.91</v>
-      </c>
-      <c r="L153">
-        <v>117.28</v>
-      </c>
-      <c r="M153">
-        <v>27</v>
-      </c>
-      <c r="N153">
-        <v>27.8</v>
-      </c>
-      <c r="O153">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C158">
-        <v>111.95</v>
-      </c>
-      <c r="D158">
-        <v>34.229999999999997</v>
-      </c>
-      <c r="E158">
-        <v>0.38</v>
-      </c>
-      <c r="F158">
-        <v>3.27</v>
-      </c>
-      <c r="I158">
-        <v>0.26</v>
-      </c>
-      <c r="J158">
-        <v>3.94</v>
-      </c>
-      <c r="K158">
-        <v>24.16</v>
-      </c>
-      <c r="L158">
-        <v>616.86</v>
-      </c>
-      <c r="M158">
-        <v>107</v>
-      </c>
-      <c r="N158">
-        <v>38.5</v>
-      </c>
-      <c r="O158">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C159">
-        <v>157.85</v>
-      </c>
-      <c r="D159">
-        <v>22.12</v>
-      </c>
-      <c r="E159">
-        <v>0.38</v>
-      </c>
-      <c r="F159">
-        <v>7.14</v>
-      </c>
-      <c r="I159">
-        <v>0.3</v>
-      </c>
-      <c r="J159">
-        <v>3</v>
-      </c>
-      <c r="K159">
-        <v>18.32</v>
-      </c>
-      <c r="L159">
-        <v>341.18</v>
-      </c>
-      <c r="M159">
-        <v>63</v>
-      </c>
-      <c r="N159">
-        <v>42.3</v>
-      </c>
-      <c r="O159">
-        <v>1.54</v>
+      <c r="C236">
+        <v>10.42</v>
+      </c>
+      <c r="D236">
+        <v>15.29</v>
+      </c>
+      <c r="E236">
+        <v>2.91</v>
+      </c>
+      <c r="F236">
+        <v>0.68</v>
+      </c>
+      <c r="I236">
+        <v>0.52</v>
+      </c>
+      <c r="J236">
+        <v>0.86</v>
+      </c>
+      <c r="K236">
+        <v>1.24</v>
+      </c>
+      <c r="L236">
+        <v>6.11</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>6.5</v>
+      </c>
+      <c r="O236">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="237" spans="2:15">
+      <c r="B237" t="s">
+        <v>78</v>
+      </c>
+      <c r="C237">
+        <v>10.42</v>
+      </c>
+      <c r="D237">
+        <v>15.29</v>
+      </c>
+      <c r="E237">
+        <v>2.91</v>
+      </c>
+      <c r="F237">
+        <v>0.68</v>
+      </c>
+      <c r="I237">
+        <v>0.52</v>
+      </c>
+      <c r="J237">
+        <v>0.86</v>
+      </c>
+      <c r="K237">
+        <v>1.24</v>
+      </c>
+      <c r="L237">
+        <v>6.11</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>6.5</v>
+      </c>
+      <c r="O237">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="238" spans="2:15">
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>10.42</v>
+      </c>
+      <c r="D238">
+        <v>15.29</v>
+      </c>
+      <c r="E238">
+        <v>2.91</v>
+      </c>
+      <c r="F238">
+        <v>0.68</v>
+      </c>
+      <c r="I238">
+        <v>0.52</v>
+      </c>
+      <c r="J238">
+        <v>0.86</v>
+      </c>
+      <c r="K238">
+        <v>1.24</v>
+      </c>
+      <c r="L238">
+        <v>6.11</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>6.5</v>
+      </c>
+      <c r="O238">
+        <v>7.59</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
